--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b10873df2abd437/Equity Research/京東方精電 0710.HK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AED0B43-8F8D-4597-9D42-477CB7F00989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{4AED0B43-8F8D-4597-9D42-477CB7F00989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E742396E-2279-4DBD-B3F4-48F9477057CB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,19 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -35,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="444">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1478,12 +1489,6 @@
 2. 目前液晶屏板价格上涨，高于成本价</t>
   </si>
   <si>
-    <t>1. 下游车厂的需求比预期差</t>
-  </si>
-  <si>
-    <t>1. No. 未来需求走势不可预测</t>
-  </si>
-  <si>
     <t>P/S</t>
   </si>
   <si>
@@ -1526,9 +1531,6 @@
     <t>ST Current Ratio</t>
   </si>
   <si>
-    <t>1x PS is really reasonable given the high growth rate</t>
-  </si>
-  <si>
     <t>中国</t>
   </si>
   <si>
@@ -1545,40 +1547,49 @@
   </si>
   <si>
     <t>下游车厂价格战导致成本压力向上游传导，公司盈利能力明显下降</t>
+  </si>
+  <si>
+    <t>1. 液晶面板价格21年上半年后转入了下行周期
+2. 下游车厂打价格战</t>
+  </si>
+  <si>
+    <t>1. 价格逐渐回升
+2. No. 未来需求走势不可预测</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="27">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
+  <numFmts count="28">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\x"/>
+    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="0.0%"/>
+    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2391,10 +2402,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="402">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2439,7 +2450,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2539,7 +2550,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2556,8 +2567,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2566,7 +2577,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2591,7 +2602,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2610,16 +2621,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2649,14 +2660,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2750,7 +2761,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2783,7 +2794,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2803,7 +2814,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2811,7 +2822,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2821,7 +2832,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2842,7 +2853,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2851,7 +2862,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2896,10 +2907,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2908,13 +2919,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2923,7 +2934,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2981,7 +2992,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3023,7 +3034,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3035,13 +3046,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3056,10 +3067,10 @@
     <xf numFmtId="3" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3110,7 +3121,7 @@
     <xf numFmtId="3" fontId="1" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3175,7 +3186,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3194,6 +3205,137 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3211,137 +3353,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3616,7 +3630,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$3</c:f>
+              <c:f>Visualizations!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -3632,9 +3646,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Visualizations!$C$2:$M$2</c:f>
+              <c:f>Visualizations!$C$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3676,540 +3693,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Visualizations!$C$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF9A-4B27-90A6-661D4E356271}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Visualizations!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Visualizations!$C$5:$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FF9A-4B27-90A6-661D4E356271}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="694673856"/>
-        <c:axId val="694674576"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Visualizations!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Visualizations!$C$2:$M$2</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Visualizations!$C$4:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FF9A-4B27-90A6-661D4E356271}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="694682856"/>
-        <c:axId val="694672776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="694673856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="694674576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="694674576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="694673856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="694672776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="694682856"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="694682856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="694672776"/>
-        <c:crosses val="max"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Visualizations!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Visualizations!$C$2:$M$2</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Visualizations!$C$8:$M$8</c:f>
+              <c:f>Visualizations!$C$24:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4243,7 +3727,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$9</c:f>
+              <c:f>Visualizations!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4341,7 +3825,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Visualizations!$C$9:$M$9</c:f>
+              <c:f>Visualizations!$C$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4596,7 +4080,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4621,7 +4105,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$32</c:f>
+              <c:f>Visualizations!$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4644,11 +4128,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$31:$M$31</c15:sqref>
+                    <c15:sqref>Visualizations!$C$47:$M$47</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$31:$M$31</c:f>
+              <c:f>Visualizations!$J$47:$M$47</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4672,11 +4156,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$32:$M$32</c15:sqref>
+                    <c15:sqref>Visualizations!$C$48:$M$48</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$32:$M$32</c:f>
+              <c:f>Visualizations!$J$48:$M$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4695,7 +4179,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$33</c:f>
+              <c:f>Visualizations!$B$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4718,11 +4202,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$31:$M$31</c15:sqref>
+                    <c15:sqref>Visualizations!$C$47:$M$47</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$31:$M$31</c:f>
+              <c:f>Visualizations!$J$47:$M$47</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4746,11 +4230,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$33:$M$33</c15:sqref>
+                    <c15:sqref>Visualizations!$C$49:$M$49</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$33:$M$33</c:f>
+              <c:f>Visualizations!$J$49:$M$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4769,7 +4253,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$34</c:f>
+              <c:f>Visualizations!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4792,11 +4276,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$31:$M$31</c15:sqref>
+                    <c15:sqref>Visualizations!$C$47:$M$47</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$31:$M$31</c:f>
+              <c:f>Visualizations!$J$47:$M$47</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4820,11 +4304,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$34:$M$34</c15:sqref>
+                    <c15:sqref>Visualizations!$C$50:$M$50</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$34:$M$34</c:f>
+              <c:f>Visualizations!$J$50:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5026,7 +4510,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5052,7 +4536,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$57</c:f>
+              <c:f>Visualizations!$B$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5134,11 +4618,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$56:$M$56</c15:sqref>
+                    <c15:sqref>Visualizations!$C$72:$M$72</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$56:$M$56</c:f>
+              <c:f>Visualizations!$J$72:$M$72</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5162,11 +4646,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$57:$M$57</c15:sqref>
+                    <c15:sqref>Visualizations!$C$73:$M$73</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$57:$M$57</c:f>
+              <c:f>Visualizations!$J$73:$M$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5184,7 +4668,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$58</c:f>
+              <c:f>Visualizations!$B$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5208,11 +4692,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$56:$M$56</c15:sqref>
+                    <c15:sqref>Visualizations!$C$72:$M$72</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$56:$M$56</c:f>
+              <c:f>Visualizations!$J$72:$M$72</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5236,11 +4720,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$58:$M$58</c15:sqref>
+                    <c15:sqref>Visualizations!$C$74:$M$74</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$58:$M$58</c:f>
+              <c:f>Visualizations!$J$74:$M$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5258,7 +4742,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$59</c:f>
+              <c:f>Visualizations!$B$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5340,11 +4824,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$56:$M$56</c15:sqref>
+                    <c15:sqref>Visualizations!$C$72:$M$72</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$56:$M$56</c:f>
+              <c:f>Visualizations!$J$72:$M$72</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5368,11 +4852,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$59:$M$59</c15:sqref>
+                    <c15:sqref>Visualizations!$C$75:$M$75</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$59:$M$59</c:f>
+              <c:f>Visualizations!$J$75:$M$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5406,7 +4890,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$60</c:f>
+              <c:f>Visualizations!$B$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5528,11 +5012,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$60:$M$60</c15:sqref>
+                    <c15:sqref>Visualizations!$C$76:$M$76</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$60:$M$60</c:f>
+              <c:f>Visualizations!$J$76:$M$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5794,7 +5278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5820,7 +5304,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$64</c:f>
+              <c:f>Visualizations!$B$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5844,11 +5328,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$63:$M$63</c15:sqref>
+                    <c15:sqref>Visualizations!$C$79:$M$79</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$63:$M$63</c:f>
+              <c:f>Visualizations!$J$79:$M$79</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5872,11 +5356,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$64:$M$64</c15:sqref>
+                    <c15:sqref>Visualizations!$C$80:$M$80</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$64:$M$64</c:f>
+              <c:f>Visualizations!$J$80:$M$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5894,7 +5378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$65</c:f>
+              <c:f>Visualizations!$B$81</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5918,11 +5402,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$63:$M$63</c15:sqref>
+                    <c15:sqref>Visualizations!$C$79:$M$79</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$63:$M$63</c:f>
+              <c:f>Visualizations!$J$79:$M$79</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5946,11 +5430,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$65:$M$65</c15:sqref>
+                    <c15:sqref>Visualizations!$C$81:$M$81</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$65:$M$65</c:f>
+              <c:f>Visualizations!$J$81:$M$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5984,7 +5468,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$66</c:f>
+              <c:f>Visualizations!$B$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6010,11 +5494,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$63:$M$63</c15:sqref>
+                    <c15:sqref>Visualizations!$C$79:$M$79</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$63:$M$63</c:f>
+              <c:f>Visualizations!$J$79:$M$79</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6038,11 +5522,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$66:$M$66</c15:sqref>
+                    <c15:sqref>Visualizations!$C$82:$M$82</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$66:$M$66</c:f>
+              <c:f>Visualizations!$J$82:$M$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6298,7 +5782,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6324,7 +5808,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$89</c:f>
+              <c:f>Visualizations!$B$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6348,11 +5832,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$87:$M$87</c15:sqref>
+                    <c15:sqref>Visualizations!$C$103:$M$103</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$87:$M$87</c:f>
+              <c:f>Visualizations!$J$103:$M$103</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6376,11 +5860,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$89:$M$89</c15:sqref>
+                    <c15:sqref>Visualizations!$C$105:$M$105</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$89:$M$89</c:f>
+              <c:f>Visualizations!$J$105:$M$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6410,7 +5894,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$90</c:f>
+              <c:f>Visualizations!$B$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6434,11 +5918,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$87:$M$87</c15:sqref>
+                    <c15:sqref>Visualizations!$C$103:$M$103</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$87:$M$87</c:f>
+              <c:f>Visualizations!$J$103:$M$103</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6462,11 +5946,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$90:$M$90</c15:sqref>
+                    <c15:sqref>Visualizations!$C$106:$M$106</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$90:$M$90</c:f>
+              <c:f>Visualizations!$J$106:$M$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6496,7 +5980,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$91</c:f>
+              <c:f>Visualizations!$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6520,11 +6004,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$87:$M$87</c15:sqref>
+                    <c15:sqref>Visualizations!$C$103:$M$103</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$87:$M$87</c:f>
+              <c:f>Visualizations!$J$103:$M$103</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6548,11 +6032,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$91:$M$91</c15:sqref>
+                    <c15:sqref>Visualizations!$C$107:$M$107</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$91:$M$91</c:f>
+              <c:f>Visualizations!$J$107:$M$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6592,7 +6076,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$88</c:f>
+              <c:f>Visualizations!$B$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6618,11 +6102,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$87:$M$87</c15:sqref>
+                    <c15:sqref>Visualizations!$C$103:$M$103</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$87:$M$87</c:f>
+              <c:f>Visualizations!$J$103:$M$103</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6646,11 +6130,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$88:$M$88</c15:sqref>
+                    <c15:sqref>Visualizations!$C$104:$M$104</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$88:$M$88</c:f>
+              <c:f>Visualizations!$J$104:$M$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6865,7 +6349,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6891,7 +6375,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$95</c:f>
+              <c:f>Visualizations!$B$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6915,11 +6399,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$87:$M$87</c15:sqref>
+                    <c15:sqref>Visualizations!$C$103:$M$103</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$87:$M$87</c:f>
+              <c:f>Visualizations!$J$103:$M$103</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6943,11 +6427,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$95:$M$95</c15:sqref>
+                    <c15:sqref>Visualizations!$C$111:$M$111</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$95:$M$95</c:f>
+              <c:f>Visualizations!$J$111:$M$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6977,7 +6461,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$96</c:f>
+              <c:f>Visualizations!$B$112</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7001,11 +6485,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$87:$M$87</c15:sqref>
+                    <c15:sqref>Visualizations!$C$103:$M$103</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$87:$M$87</c:f>
+              <c:f>Visualizations!$J$103:$M$103</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7029,11 +6513,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$96:$M$96</c15:sqref>
+                    <c15:sqref>Visualizations!$C$112:$M$112</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$96:$M$96</c:f>
+              <c:f>Visualizations!$J$112:$M$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7079,7 +6563,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Visualizations!$B$97</c:f>
+              <c:f>Visualizations!$B$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7127,11 +6611,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Visualizations!$C$97:$M$97</c15:sqref>
+                    <c15:sqref>Visualizations!$C$113:$M$113</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Visualizations!$J$97:$M$97</c:f>
+              <c:f>Visualizations!$J$113:$M$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7599,46 +7083,6 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8182,509 +7626,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9200,7 +8141,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9673,6 +8614,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10711,530 +10155,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>258762</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>39687</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8EC666-ED2D-8122-B6D2-6314A63EFB40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442325D4-A985-89A5-D302-336DB77B3B89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11254,23 +10195,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442325D4-A985-89A5-D302-336DB77B3B89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7F4312-5AC1-4090-12C6-F5B5B7F78D86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11290,23 +10231,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>792162</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7F4312-5AC1-4090-12C6-F5B5B7F78D86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0EA7CA-467E-209D-FE4F-64DEFAF0698A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11326,23 +10267,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>792162</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145761</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>31895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>76345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0EA7CA-467E-209D-FE4F-64DEFAF0698A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0F1D2C-6373-E637-1799-75656A6FDCB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11362,51 +10303,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>145761</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>31895</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>294409</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>76345</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0F1D2C-6373-E637-1799-75656A6FDCB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>216477</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>72159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>386772</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>116609</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11428,7 +10333,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11438,13 +10343,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1443</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>125701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>150091</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>11401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11464,13 +10369,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11677,17 +10586,17 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -11722,27 +10631,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="344" t="s">
+      <c r="C3" s="360" t="s">
         <v>413</v>
       </c>
-      <c r="D3" s="345"/>
+      <c r="D3" s="361"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="356" t="s">
+      <c r="I3" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="356"/>
+      <c r="J3" s="369"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="346" t="s">
+      <c r="C4" s="362" t="s">
         <v>414</v>
       </c>
-      <c r="D4" s="347"/>
+      <c r="D4" s="331"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -11759,10 +10668,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="348">
+      <c r="C5" s="363">
         <v>45154</v>
       </c>
-      <c r="D5" s="347"/>
+      <c r="D5" s="331"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -11770,10 +10679,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="357">
+      <c r="I5" s="330">
         <v>791574976</v>
       </c>
-      <c r="J5" s="357"/>
+      <c r="J5" s="330"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -11796,11 +10705,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="358">
+      <c r="I6" s="370">
         <f>I4*I5/1000000</f>
         <v>5913.0650707200002</v>
       </c>
-      <c r="J6" s="358"/>
+      <c r="J6" s="370"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -11875,30 +10784,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="369">
+      <c r="C11" s="340">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="370"/>
+      <c r="D11" s="341"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="356" t="s">
+      <c r="I11" s="369" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="356"/>
+      <c r="J11" s="369"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="376">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="377"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -11923,7 +10832,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>5.4798485626402202</v>
+        <v>8.6600434776613096</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -11967,28 +10876,28 @@
         <f>I4</f>
         <v>7.47</v>
       </c>
-      <c r="C16" s="381">
+      <c r="C16" s="356">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>4.2221606839439652E-2</v>
-      </c>
-      <c r="E16" s="362" t="s">
+        <v>0.26740178799961534</v>
+      </c>
+      <c r="E16" s="350" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="359">
+      <c r="F16" s="371">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.9058544257105325</v>
       </c>
-      <c r="G16" s="362" t="s">
+      <c r="G16" s="350" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>5.5641455742894674</v>
       </c>
-      <c r="I16" s="375">
+      <c r="I16" s="345">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
@@ -11999,47 +10908,47 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>6.8316371266013949</v>
-      </c>
-      <c r="C17" s="382"/>
+        <v>8.9447630692430877</v>
+      </c>
+      <c r="C17" s="357"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>0.15829746678991596</v>
-      </c>
-      <c r="E17" s="363"/>
-      <c r="F17" s="360"/>
-      <c r="G17" s="363"/>
+        <v>2.5464696102307727E-2</v>
+      </c>
+      <c r="E17" s="351"/>
+      <c r="F17" s="372"/>
+      <c r="G17" s="351"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>4.9257827008908626</v>
-      </c>
-      <c r="I17" s="376"/>
+        <v>7.0389086435325554</v>
+      </c>
+      <c r="I17" s="346"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>3.3666893562659186E-3</v>
+        <v>2.5713369735959118E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>7</v>
-      </c>
-      <c r="C18" s="383"/>
+        <v>7.15</v>
+      </c>
+      <c r="C18" s="358"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.12562791472723056</v>
-      </c>
-      <c r="E18" s="364"/>
-      <c r="F18" s="361"/>
-      <c r="G18" s="364"/>
+        <v>0.33307571417582182</v>
+      </c>
+      <c r="E18" s="352"/>
+      <c r="F18" s="373"/>
+      <c r="G18" s="352"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>5.0941455742894677</v>
-      </c>
-      <c r="I18" s="377"/>
+        <v>5.244145574289468</v>
+      </c>
+      <c r="I18" s="347"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>3.2857142857142855E-3</v>
+        <v>3.2167832167832168E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -12074,84 +10983,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="351" t="s">
+      <c r="C21" s="366" t="s">
         <v>417</v>
       </c>
-      <c r="D21" s="352"/>
-      <c r="E21" s="353"/>
-      <c r="F21" s="353"/>
-      <c r="G21" s="353"/>
-      <c r="H21" s="353"/>
-      <c r="I21" s="353"/>
-      <c r="J21" s="353"/>
+      <c r="D21" s="367"/>
+      <c r="E21" s="368"/>
+      <c r="F21" s="368"/>
+      <c r="G21" s="368"/>
+      <c r="H21" s="368"/>
+      <c r="I21" s="368"/>
+      <c r="J21" s="368"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="375" t="s">
         <v>418</v>
       </c>
-      <c r="D22" s="345"/>
-      <c r="E22" s="345"/>
-      <c r="F22" s="345"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="361"/>
+      <c r="E22" s="361"/>
+      <c r="F22" s="361"/>
+      <c r="G22" s="375" t="s">
         <v>419</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="345"/>
-      <c r="J22" s="345"/>
+      <c r="H22" s="375"/>
+      <c r="I22" s="361"/>
+      <c r="J22" s="361"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="354" t="s">
+      <c r="C23" s="348" t="s">
         <v>421</v>
       </c>
-      <c r="D23" s="355"/>
-      <c r="E23" s="355"/>
-      <c r="F23" s="355"/>
-      <c r="G23" s="354" t="s">
+      <c r="D23" s="349"/>
+      <c r="E23" s="349"/>
+      <c r="F23" s="349"/>
+      <c r="G23" s="348" t="s">
         <v>420</v>
       </c>
-      <c r="H23" s="354"/>
-      <c r="I23" s="355"/>
-      <c r="J23" s="355"/>
+      <c r="H23" s="348"/>
+      <c r="I23" s="349"/>
+      <c r="J23" s="349"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="329" t="s">
-        <v>422</v>
-      </c>
-      <c r="D24" s="329"/>
-      <c r="E24" s="329"/>
-      <c r="F24" s="329"/>
-      <c r="G24" s="329"/>
-      <c r="H24" s="329"/>
-      <c r="I24" s="329"/>
-      <c r="J24" s="329"/>
+      <c r="C24" s="378" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24" s="378"/>
+      <c r="E24" s="378"/>
+      <c r="F24" s="378"/>
+      <c r="G24" s="378"/>
+      <c r="H24" s="378"/>
+      <c r="I24" s="378"/>
+      <c r="J24" s="378"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="330" t="s">
-        <v>423</v>
-      </c>
-      <c r="D25" s="330"/>
-      <c r="E25" s="330"/>
-      <c r="F25" s="330"/>
-      <c r="G25" s="330"/>
-      <c r="H25" s="330"/>
-      <c r="I25" s="330"/>
-      <c r="J25" s="330"/>
+      <c r="C25" s="379" t="s">
+        <v>443</v>
+      </c>
+      <c r="D25" s="379"/>
+      <c r="E25" s="379"/>
+      <c r="F25" s="379"/>
+      <c r="G25" s="379"/>
+      <c r="H25" s="379"/>
+      <c r="I25" s="379"/>
+      <c r="J25" s="379"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -12191,208 +11100,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="349"/>
-      <c r="D28" s="350"/>
-      <c r="E28" s="380" t="str">
+      <c r="C28" s="364"/>
+      <c r="D28" s="365"/>
+      <c r="E28" s="355" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="380"/>
-      <c r="G28" s="380"/>
-      <c r="H28" s="380"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="355"/>
+      <c r="G28" s="355"/>
+      <c r="H28" s="355"/>
+      <c r="I28" s="374" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="374"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="374">
+      <c r="C29" s="344">
         <f>C33/D27</f>
-        <v>0.16969696969696971</v>
-      </c>
-      <c r="D29" s="373"/>
-      <c r="E29" s="372">
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="D29" s="338"/>
+      <c r="E29" s="343">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="373"/>
-      <c r="G29" s="379">
+      <c r="F29" s="338"/>
+      <c r="G29" s="354">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="379"/>
-      <c r="I29" s="378">
+      <c r="H29" s="354"/>
+      <c r="I29" s="353">
         <f>C29+E29+G29</f>
-        <v>0.16969696969696971</v>
-      </c>
-      <c r="J29" s="378"/>
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="J29" s="353"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="357">
+      <c r="C30" s="330">
         <v>16000</v>
       </c>
-      <c r="D30" s="347"/>
-      <c r="E30" s="357"/>
-      <c r="F30" s="347"/>
-      <c r="G30" s="357"/>
-      <c r="H30" s="357"/>
-      <c r="I30" s="384">
+      <c r="D30" s="331"/>
+      <c r="E30" s="330"/>
+      <c r="F30" s="331"/>
+      <c r="G30" s="330"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="359">
         <f>C30+E30+G30</f>
         <v>16000</v>
       </c>
-      <c r="J30" s="384"/>
+      <c r="J30" s="359"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="371">
-        <v>7</v>
-      </c>
-      <c r="D31" s="347"/>
-      <c r="E31" s="371"/>
-      <c r="F31" s="347"/>
-      <c r="G31" s="371"/>
-      <c r="H31" s="371"/>
-      <c r="I31" s="338"/>
-      <c r="J31" s="338"/>
+      <c r="C31" s="332">
+        <v>7.15</v>
+      </c>
+      <c r="D31" s="331"/>
+      <c r="E31" s="332"/>
+      <c r="F31" s="331"/>
+      <c r="G31" s="332"/>
+      <c r="H31" s="332"/>
+      <c r="I31" s="342"/>
+      <c r="J31" s="342"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="336">
+      <c r="C32" s="339">
         <f>C31*$I$5/1000000</f>
-        <v>5541.0248320000001</v>
-      </c>
-      <c r="D32" s="373"/>
-      <c r="E32" s="336">
+        <v>5659.7610784000008</v>
+      </c>
+      <c r="D32" s="338"/>
+      <c r="E32" s="339">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="373"/>
-      <c r="G32" s="336">
+      <c r="F32" s="338"/>
+      <c r="G32" s="339">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="336"/>
-      <c r="I32" s="338"/>
-      <c r="J32" s="338"/>
+      <c r="H32" s="339"/>
+      <c r="I32" s="342"/>
+      <c r="J32" s="342"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="337">
+      <c r="C33" s="335">
         <f>C30*C31</f>
-        <v>112000</v>
-      </c>
-      <c r="D33" s="386"/>
-      <c r="E33" s="337">
+        <v>114400</v>
+      </c>
+      <c r="D33" s="336"/>
+      <c r="E33" s="335">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="386"/>
-      <c r="G33" s="337">
+      <c r="F33" s="336"/>
+      <c r="G33" s="335">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="337"/>
-      <c r="I33" s="337">
+      <c r="H33" s="335"/>
+      <c r="I33" s="335">
         <f>C33+E33+G33</f>
-        <v>112000</v>
-      </c>
-      <c r="J33" s="337"/>
+        <v>114400</v>
+      </c>
+      <c r="J33" s="335"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="338"/>
-      <c r="D34" s="341"/>
-      <c r="E34" s="340">
+      <c r="C34" s="342"/>
+      <c r="D34" s="385"/>
+      <c r="E34" s="337">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>7</v>
-      </c>
-      <c r="F34" s="373"/>
+        <v>7.15</v>
+      </c>
+      <c r="F34" s="338"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="340">
+      <c r="I34" s="337">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>7</v>
-      </c>
-      <c r="J34" s="340"/>
+        <v>7.15</v>
+      </c>
+      <c r="J34" s="337"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="342"/>
-      <c r="D35" s="343"/>
-      <c r="E35" s="339">
+      <c r="C35" s="386"/>
+      <c r="D35" s="387"/>
+      <c r="E35" s="333">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>5541.0248320000001</v>
-      </c>
-      <c r="F35" s="385"/>
+        <v>5659.7610784000008</v>
+      </c>
+      <c r="F35" s="334"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="339">
+      <c r="I35" s="333">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>5541.0248320000001</v>
-      </c>
-      <c r="J35" s="339"/>
+        <v>5659.7610784000008</v>
+      </c>
+      <c r="J35" s="333"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="334">
+      <c r="C37" s="383">
         <f>C31</f>
-        <v>7</v>
-      </c>
-      <c r="D37" s="335"/>
+        <v>7.15</v>
+      </c>
+      <c r="D37" s="384"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
-        <v>Caution! &gt; Breakeven price!</v>
+        <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="331" t="s">
+      <c r="G37" s="380" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="331"/>
-      <c r="I37" s="332">
+      <c r="H37" s="380"/>
+      <c r="I37" s="381">
         <f ca="1">Val_Models!C46</f>
-        <v>9.2793954030906143</v>
-      </c>
-      <c r="J37" s="333"/>
+        <v>10.961491356357126</v>
+      </c>
+      <c r="J37" s="382"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="334">
+      <c r="C38" s="383">
         <f>E34</f>
-        <v>7</v>
-      </c>
-      <c r="D38" s="335"/>
+        <v>7.15</v>
+      </c>
+      <c r="D38" s="384"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="331" t="s">
+      <c r="G38" s="380" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="331"/>
-      <c r="I38" s="332">
+      <c r="H38" s="380"/>
+      <c r="I38" s="381">
         <f ca="1">Val_Models!C47</f>
-        <v>4.3838788501121764</v>
-      </c>
-      <c r="J38" s="333"/>
+        <v>6.928034782129048</v>
+      </c>
+      <c r="J38" s="382"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12516,11 +11425,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.32562791472723052</v>
+        <v>0.53307571417582178</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.32562791472723052</v>
+        <v>0.53307571417582178</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -12535,11 +11444,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.37373159284111768</v>
+        <v>-3.1044086415517813E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-0.37373159284111768</v>
+        <v>-3.1044086415517813E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -12564,11 +11473,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.55545312620225751</v>
+        <v>0.6104666567896766</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.55545312620225751</v>
+        <v>0.6104666567896766</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -12583,11 +11492,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>0.87128816767080974</v>
+        <v>17.17157036096113</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>0.87128816767080974</v>
+        <v>17.17157036096113</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -12602,11 +11511,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>4.1954360864798854</v>
+        <v>2.5360609967979886</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>4.1954360864798854</v>
+        <v>2.5360609967979886</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -12621,11 +11530,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>1.0781993244803521E-2</v>
+        <v>0.23176961231462462</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>1.0781993244803521E-2</v>
+        <v>0.23176961231462462</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -13582,14 +12491,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -13606,38 +12539,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -13739,15 +12648,15 @@
   <dimension ref="A1:N949"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -17286,22 +16195,22 @@
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -17443,7 +16352,7 @@
         <v>44742</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -17501,7 +16410,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="14">
+    <row r="12" spans="1:11" ht="13.9">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -17526,7 +16435,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="14">
+    <row r="13" spans="1:11" ht="13.9">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -17551,7 +16460,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="14">
+    <row r="14" spans="1:11" ht="13.9">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -17576,7 +16485,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="14">
+    <row r="15" spans="1:11" ht="13.9">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -17601,7 +16510,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="14">
+    <row r="16" spans="1:11" ht="13.9">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -17626,7 +16535,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="14">
+    <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
         <v>351</v>
       </c>
@@ -17646,7 +16555,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="14">
+    <row r="18" spans="2:10" ht="13.9">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -17665,7 +16574,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="14">
+    <row r="19" spans="2:10" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -17689,7 +16598,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="14">
+    <row r="20" spans="2:10" ht="13.9">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -17713,7 +16622,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="14">
+    <row r="21" spans="2:10" ht="13.9">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -17756,7 +16665,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="285" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -17764,7 +16673,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -17784,7 +16693,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I24" s="327">
         <f>I11+I12+I13</f>
@@ -17793,7 +16702,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -17813,7 +16722,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -17822,7 +16731,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -17855,7 +16764,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C27" s="320">
         <f>C21+C22</f>
@@ -17998,7 +16907,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="14">
+    <row r="33" spans="2:10" ht="13.9">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -18027,7 +16936,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="14">
+    <row r="34" spans="2:10" ht="13.9">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -18052,7 +16961,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="14">
+    <row r="35" spans="2:10" ht="13.9">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -18077,7 +16986,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="14">
+    <row r="36" spans="2:10" ht="13.9">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -18101,7 +17010,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="14">
+    <row r="37" spans="2:10" ht="13.9">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -18145,7 +17054,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="14">
+    <row r="39" spans="2:10" ht="13.9">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -18232,7 +17141,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -18249,7 +17158,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I44" s="327">
         <f>I30+I31+I32</f>
@@ -18258,7 +17167,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -18277,7 +17186,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -18307,7 +17216,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -18394,14 +17303,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="14">
+    <row r="51" spans="2:10" ht="13.9">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="14">
+    <row r="52" spans="2:10" ht="13.9">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -18416,7 +17325,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="14">
+    <row r="53" spans="2:10" ht="13.9">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -18446,31 +17355,31 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.5" thickBot="1">
+    <row r="55" spans="2:10" ht="14.25" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="387">
+      <c r="D55" s="388">
         <f>D56+D57+D58</f>
         <v>805276</v>
       </c>
-      <c r="E55" s="388"/>
+      <c r="E55" s="389"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.5" thickTop="1">
+    <row r="56" spans="2:10" ht="14.25" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="384">
+      <c r="D56" s="359">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
-      <c r="E56" s="389"/>
+      <c r="E56" s="390"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="6" t="s">
@@ -18481,15 +17390,15 @@
         <v>0.1995079170063952</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="14">
+    <row r="57" spans="2:10" ht="13.9">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="394">
+      <c r="D57" s="395">
         <v>0</v>
       </c>
-      <c r="E57" s="347"/>
+      <c r="E57" s="331"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -18502,10 +17411,10 @@
         <v>111</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="394">
+      <c r="D58" s="395">
         <v>0</v>
       </c>
-      <c r="E58" s="347"/>
+      <c r="E58" s="331"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -18522,7 +17431,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="14">
+    <row r="60" spans="2:10" ht="13.9">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -18557,7 +17466,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="14">
+    <row r="62" spans="2:10" ht="13.9">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -18578,16 +17487,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="14">
+    <row r="63" spans="2:10" ht="13.9">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="384">
+      <c r="D63" s="359">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>4377711.8994286917</v>
       </c>
-      <c r="E63" s="384"/>
+      <c r="E63" s="359"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -18619,11 +17528,11 @@
         <v>223</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="D66" s="392">
+      <c r="D66" s="393">
         <f>((C28-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I28)/Data!C7</f>
         <v>1.0112977915964591E-2</v>
       </c>
-      <c r="E66" s="393"/>
+      <c r="E66" s="394"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -18634,10 +17543,10 @@
         <v>222</v>
       </c>
       <c r="C67" s="6"/>
-      <c r="D67" s="390">
+      <c r="D67" s="391">
         <v>0.34289999999999998</v>
       </c>
-      <c r="E67" s="391"/>
+      <c r="E67" s="392"/>
       <c r="F67" s="109" t="s">
         <v>209</v>
       </c>
@@ -18650,10 +17559,10 @@
         <v>224</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="390">
+      <c r="D68" s="391">
         <v>0.34289999999999998</v>
       </c>
-      <c r="E68" s="391"/>
+      <c r="E68" s="392"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -18696,17 +17605,17 @@
   <dimension ref="A1:L942"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -18776,7 +17685,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C4" s="205">
         <v>1600216</v>
@@ -18791,20 +17700,20 @@
         <v>7494766</v>
       </c>
       <c r="G4" s="205">
-        <f>(3706212*1.06)*2</f>
-        <v>7857169.4400000004</v>
+        <f>(3706212*1.08)*2</f>
+        <v>8005417.9200000009</v>
       </c>
       <c r="H4" s="206"/>
       <c r="I4" s="206"/>
       <c r="J4" s="6"/>
       <c r="K4" s="43" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C5" s="196">
         <v>1306273</v>
@@ -18830,7 +17739,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C6" s="196">
         <v>204561</v>
@@ -18856,7 +17765,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C7" s="196">
         <v>127850</v>
@@ -18928,7 +17837,7 @@
       </c>
       <c r="G9" s="200">
         <f>SUM(G4:G8)</f>
-        <v>10738931.84</v>
+        <v>10887180.32</v>
       </c>
       <c r="H9" s="200"/>
       <c r="I9" s="201"/>
@@ -18940,10 +17849,7 @@
       <c r="B10" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="288">
-        <f>C9/5113254-1</f>
-        <v>-0.30103648283460982</v>
-      </c>
+      <c r="C10" s="288"/>
       <c r="D10" s="171">
         <f>D9/C9-1</f>
         <v>0.266631747593298</v>
@@ -18958,7 +17864,7 @@
       </c>
       <c r="G10" s="149">
         <f>G9/F9-1</f>
-        <v>1.5454469402773618E-3</v>
+        <v>1.5371551097747904E-2</v>
       </c>
       <c r="H10" s="149"/>
       <c r="I10" s="180"/>
@@ -19024,7 +17930,7 @@
       </c>
       <c r="G12" s="208">
         <f>(G9-G11)/G9</f>
-        <v>4.2943920947728059E-2</v>
+        <v>5.5975955397788456E-2</v>
       </c>
       <c r="H12" s="208"/>
       <c r="I12" s="208"/>
@@ -19053,7 +17959,7 @@
       </c>
       <c r="G13" s="51">
         <f>G9-G11</f>
-        <v>461171.83999999985</v>
+        <v>609420.3200000003</v>
       </c>
       <c r="H13" s="51" t="str">
         <f>IF(H10="","",H9-H11)</f>
@@ -19146,7 +18052,7 @@
       </c>
       <c r="G16" s="166">
         <f>G18/G9</f>
-        <v>4.2234964031580861E-3</v>
+        <v>1.7782778856371535E-2</v>
       </c>
       <c r="H16" s="166" t="str">
         <f>IF(H10="","",H18/H9)</f>
@@ -19179,7 +18085,7 @@
       </c>
       <c r="G17" s="149">
         <f>IF(ABS(F18+G18)=ABS(F18)+ABS(G18),IF(G18&lt;0,-1,1)*(G18-F18)/F18,"Turn")</f>
-        <v>-0.67930538075373081</v>
+        <v>0.36890560701407266</v>
       </c>
       <c r="H17" s="149" t="str">
         <f>IF(H10="","",IF(ABS(G18+H18)=ABS(G18)+ABS(H18),IF(H18&lt;0,-1,1)*(H18-G18)/G18,"Turn"))</f>
@@ -19215,7 +18121,7 @@
       </c>
       <c r="G18" s="154">
         <f>G13-G15</f>
-        <v>45355.839999999851</v>
+        <v>193604.3200000003</v>
       </c>
       <c r="H18" s="154" t="str">
         <f>IF(H10="","",H13-H15)</f>
@@ -19266,7 +18172,7 @@
       </c>
       <c r="G20" s="149">
         <f>G21/G11</f>
-        <v>3.3097562114701926E-3</v>
+        <v>1.412790724827202E-2</v>
       </c>
       <c r="H20" s="149" t="str">
         <f>IF(H11="","",H21/H11)</f>
@@ -19290,7 +18196,7 @@
       </c>
       <c r="G21" s="210">
         <f>IF(G18="","",IF(G18&lt;=0,G18,G18*(1-G19)))</f>
-        <v>34016.879999999888</v>
+        <v>145203.24000000022</v>
       </c>
       <c r="H21" s="210" t="str">
         <f>IF(H18="","",IF(H18&lt;=0,H18,H18*(1-H19)))</f>
@@ -19314,7 +18220,7 @@
       </c>
       <c r="G22" s="213">
         <f>IF(G10&lt;=0,0,(G9-F9)*Asset_Model!$D$67)</f>
-        <v>5682.1410359999491</v>
+        <v>56516.5448280001</v>
       </c>
       <c r="H22" s="213" t="str">
         <f>IF(H9="","",IF(H10&lt;=0,0,(H9-G9)*Asset_Model!$D$67))</f>
@@ -19358,7 +18264,7 @@
       </c>
       <c r="G24" s="214">
         <f>IF(G16="","",G22+G23)</f>
-        <v>265682.14103599993</v>
+        <v>316516.54482800013</v>
       </c>
       <c r="H24" s="214" t="str">
         <f>IF(H16="","",H22+H23)</f>
@@ -19380,9 +18286,9 @@
         <f>AVERAGE(Data!C54:E54)</f>
         <v>2.6497863572380802E-2</v>
       </c>
-      <c r="G25" s="395"/>
-      <c r="H25" s="396"/>
-      <c r="I25" s="397"/>
+      <c r="G25" s="396"/>
+      <c r="H25" s="397"/>
+      <c r="I25" s="398"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="B26" s="84" t="s">
@@ -19397,7 +18303,7 @@
       </c>
       <c r="G26" s="214">
         <f>G21-G24</f>
-        <v>-231665.26103600004</v>
+        <v>-171313.30482799991</v>
       </c>
       <c r="H26" s="214" t="str">
         <f>IF(H21="","",H21-H24)</f>
@@ -21284,754 +20190,806 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E447FE51-02F8-43AE-9637-7A64EC664BCA}">
-  <dimension ref="B2:S109"/>
+  <dimension ref="B18:S125"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="88" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="19" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="19" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15">
-      <c r="C2" s="306">
-        <f t="shared" ref="C2:G2" si="0">D2-1</f>
+    <row r="18" spans="2:19" ht="15">
+      <c r="C18" s="306">
+        <f t="shared" ref="C18:G18" si="0">D18-1</f>
         <v>2012</v>
       </c>
-      <c r="D2" s="306">
+      <c r="D18" s="306">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="E2" s="306">
+      <c r="E18" s="306">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="F2" s="306">
+      <c r="F18" s="306">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="G2" s="306">
+      <c r="G18" s="306">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="H2" s="306">
-        <f t="shared" ref="H2:K2" si="1">I2-1</f>
+      <c r="H18" s="306">
+        <f t="shared" ref="H18:K18" si="1">I18-1</f>
         <v>2017</v>
       </c>
-      <c r="I2" s="306">
+      <c r="I18" s="306">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="J2" s="306">
+      <c r="J18" s="306">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
-      <c r="K2" s="306">
+      <c r="K18" s="306">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="L2" s="306">
-        <f>M2-1</f>
+      <c r="L18" s="306">
+        <f>M18-1</f>
         <v>2021</v>
       </c>
-      <c r="M2" s="306">
+      <c r="M18" s="306">
         <v>2022</v>
       </c>
-      <c r="N2" s="305"/>
-      <c r="O2" s="305"/>
-      <c r="P2" s="305"/>
-      <c r="Q2" s="305"/>
-      <c r="R2" s="305"/>
-      <c r="S2" s="305"/>
-    </row>
-    <row r="3" spans="2:19" ht="14">
-      <c r="B3" s="3"/>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="295"/>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="307"/>
-      <c r="C4" s="308"/>
-      <c r="D4" s="311"/>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="307"/>
-      <c r="C5" s="308"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="310"/>
-      <c r="I5" s="310"/>
-      <c r="J5" s="310"/>
-      <c r="K5" s="310"/>
-      <c r="L5" s="310"/>
-      <c r="M5" s="310"/>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="307"/>
-      <c r="C6" s="308"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="311"/>
-      <c r="G6" s="311"/>
-      <c r="H6" s="311"/>
-      <c r="I6" s="311"/>
-      <c r="J6" s="311"/>
-      <c r="K6" s="311"/>
-      <c r="L6" s="311"/>
-      <c r="M6" s="311"/>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="C7" s="308"/>
-      <c r="D7" s="308"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="308"/>
-      <c r="J7" s="308"/>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="308"/>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="307"/>
-      <c r="C8" s="309"/>
-      <c r="D8" s="309"/>
-      <c r="E8" s="309"/>
-      <c r="F8" s="309"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="310"/>
-      <c r="I8" s="310"/>
-      <c r="J8" s="310"/>
-      <c r="K8" s="310"/>
-      <c r="L8" s="310"/>
-      <c r="M8" s="310"/>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="307"/>
-      <c r="C9" s="308"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="311"/>
-      <c r="H9" s="311"/>
-      <c r="I9" s="311"/>
-      <c r="J9" s="311"/>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="311"/>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="C10" s="308"/>
-      <c r="D10" s="308"/>
-      <c r="E10" s="308"/>
-      <c r="F10" s="308"/>
-      <c r="G10" s="308"/>
-      <c r="H10" s="308"/>
-      <c r="I10" s="308"/>
-      <c r="J10" s="308"/>
-      <c r="K10" s="308"/>
-      <c r="L10" s="308"/>
-      <c r="M10" s="308"/>
-    </row>
-    <row r="30" spans="2:13" ht="13">
-      <c r="B30" s="312" t="s">
+      <c r="N18" s="305"/>
+      <c r="O18" s="305"/>
+      <c r="P18" s="305"/>
+      <c r="Q18" s="305"/>
+      <c r="R18" s="305"/>
+      <c r="S18" s="305"/>
+    </row>
+    <row r="19" spans="2:19" ht="13.9">
+      <c r="B19" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C19" s="329"/>
+      <c r="D19" s="329"/>
+      <c r="E19" s="329"/>
+      <c r="F19" s="329"/>
+      <c r="G19" s="329"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="329"/>
+      <c r="J19" s="329">
+        <v>1600216</v>
+      </c>
+      <c r="K19" s="329">
+        <v>2562909</v>
+      </c>
+      <c r="L19" s="329">
+        <v>5067853</v>
+      </c>
+      <c r="M19" s="329">
+        <v>7494766</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="13.9">
+      <c r="B20" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C20" s="329"/>
+      <c r="D20" s="329"/>
+      <c r="E20" s="329"/>
+      <c r="F20" s="329"/>
+      <c r="G20" s="329"/>
+      <c r="H20" s="329"/>
+      <c r="I20" s="329"/>
+      <c r="J20" s="329">
+        <v>1306273</v>
+      </c>
+      <c r="K20" s="329">
+        <v>1152691</v>
+      </c>
+      <c r="L20" s="329">
+        <v>1440522</v>
+      </c>
+      <c r="M20" s="329">
+        <v>1607278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="13.9">
+      <c r="B21" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21" s="329"/>
+      <c r="D21" s="329"/>
+      <c r="E21" s="329"/>
+      <c r="F21" s="329"/>
+      <c r="G21" s="329"/>
+      <c r="H21" s="329"/>
+      <c r="I21" s="329"/>
+      <c r="J21" s="329">
+        <v>204561</v>
+      </c>
+      <c r="K21" s="329">
+        <v>207215</v>
+      </c>
+      <c r="L21" s="329">
+        <v>435503</v>
+      </c>
+      <c r="M21" s="329">
+        <v>680320</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="13.9">
+      <c r="B22" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" s="329"/>
+      <c r="D22" s="329"/>
+      <c r="E22" s="329"/>
+      <c r="F22" s="329"/>
+      <c r="G22" s="329"/>
+      <c r="H22" s="329"/>
+      <c r="I22" s="329"/>
+      <c r="J22" s="329">
+        <v>127850</v>
+      </c>
+      <c r="K22" s="329">
+        <v>263079</v>
+      </c>
+      <c r="L22" s="329">
+        <v>334185</v>
+      </c>
+      <c r="M22" s="329">
+        <v>543408</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="13.9">
+      <c r="B23" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C23" s="329"/>
+      <c r="D23" s="329"/>
+      <c r="E23" s="329"/>
+      <c r="F23" s="329"/>
+      <c r="G23" s="329"/>
+      <c r="H23" s="329"/>
+      <c r="I23" s="329"/>
+      <c r="J23" s="329">
+        <v>335078</v>
+      </c>
+      <c r="K23" s="329">
+        <v>341020</v>
+      </c>
+      <c r="L23" s="329">
+        <v>459880</v>
+      </c>
+      <c r="M23" s="329">
+        <v>396589</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="307"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="309"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="309"/>
+      <c r="H24" s="310"/>
+      <c r="I24" s="310"/>
+      <c r="J24" s="310"/>
+      <c r="K24" s="310"/>
+      <c r="L24" s="310"/>
+      <c r="M24" s="310"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="307"/>
+      <c r="C25" s="308"/>
+      <c r="D25" s="311"/>
+      <c r="E25" s="311"/>
+      <c r="F25" s="311"/>
+      <c r="G25" s="311"/>
+      <c r="H25" s="311"/>
+      <c r="I25" s="311"/>
+      <c r="J25" s="311"/>
+      <c r="K25" s="311"/>
+      <c r="L25" s="311"/>
+      <c r="M25" s="311"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="C26" s="308"/>
+      <c r="D26" s="308"/>
+      <c r="E26" s="308"/>
+      <c r="F26" s="308"/>
+      <c r="G26" s="308"/>
+      <c r="H26" s="308"/>
+      <c r="I26" s="308"/>
+      <c r="J26" s="308"/>
+      <c r="K26" s="308"/>
+      <c r="L26" s="308"/>
+      <c r="M26" s="308"/>
+    </row>
+    <row r="46" spans="2:13" ht="13.15">
+      <c r="B46" s="312" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15">
-      <c r="C31" s="306">
-        <f t="shared" ref="C31:M31" si="2">C2</f>
+    <row r="47" spans="2:13" ht="15">
+      <c r="C47" s="306">
+        <f t="shared" ref="C47:M47" si="2">C18</f>
         <v>2012</v>
       </c>
-      <c r="D31" s="306">
+      <c r="D47" s="306">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="E31" s="306">
+      <c r="E47" s="306">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F31" s="306">
+      <c r="F47" s="306">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="G31" s="306">
+      <c r="G47" s="306">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="H31" s="306">
+      <c r="H47" s="306">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="I31" s="306">
+      <c r="I47" s="306">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="J31" s="306">
+      <c r="J47" s="306">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="K31" s="306">
+      <c r="K47" s="306">
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="L31" s="306">
+      <c r="L47" s="306">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="M31" s="306">
+      <c r="M47" s="306">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="307"/>
-      <c r="C32" s="311"/>
-      <c r="D32" s="311"/>
-      <c r="E32" s="311"/>
-      <c r="F32" s="311"/>
-      <c r="G32" s="311"/>
-      <c r="H32" s="311"/>
-      <c r="I32" s="311"/>
-      <c r="J32" s="311"/>
-      <c r="K32" s="311"/>
-      <c r="L32" s="311"/>
-      <c r="M32" s="311"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="307"/>
-      <c r="C33" s="311"/>
-      <c r="D33" s="311"/>
-      <c r="E33" s="311"/>
-      <c r="F33" s="311"/>
-      <c r="G33" s="311"/>
-      <c r="H33" s="311"/>
-      <c r="I33" s="311"/>
-      <c r="J33" s="311"/>
-      <c r="K33" s="311"/>
-      <c r="L33" s="311"/>
-      <c r="M33" s="311"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="307"/>
-      <c r="C34" s="311"/>
-      <c r="D34" s="311"/>
-      <c r="E34" s="311"/>
-      <c r="F34" s="311"/>
-      <c r="G34" s="311"/>
-      <c r="H34" s="311"/>
-      <c r="I34" s="311"/>
-      <c r="J34" s="311"/>
-      <c r="K34" s="311"/>
-      <c r="L34" s="311"/>
-      <c r="M34" s="311"/>
-    </row>
-    <row r="55" spans="2:13" ht="13">
-      <c r="B55" s="312" t="s">
+    <row r="48" spans="2:13">
+      <c r="B48" s="307"/>
+      <c r="C48" s="311"/>
+      <c r="D48" s="311"/>
+      <c r="E48" s="311"/>
+      <c r="F48" s="311"/>
+      <c r="G48" s="311"/>
+      <c r="H48" s="311"/>
+      <c r="I48" s="311"/>
+      <c r="J48" s="311"/>
+      <c r="K48" s="311"/>
+      <c r="L48" s="311"/>
+      <c r="M48" s="311"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="307"/>
+      <c r="C49" s="311"/>
+      <c r="D49" s="311"/>
+      <c r="E49" s="311"/>
+      <c r="F49" s="311"/>
+      <c r="G49" s="311"/>
+      <c r="H49" s="311"/>
+      <c r="I49" s="311"/>
+      <c r="J49" s="311"/>
+      <c r="K49" s="311"/>
+      <c r="L49" s="311"/>
+      <c r="M49" s="311"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="307"/>
+      <c r="C50" s="311"/>
+      <c r="D50" s="311"/>
+      <c r="E50" s="311"/>
+      <c r="F50" s="311"/>
+      <c r="G50" s="311"/>
+      <c r="H50" s="311"/>
+      <c r="I50" s="311"/>
+      <c r="J50" s="311"/>
+      <c r="K50" s="311"/>
+      <c r="L50" s="311"/>
+      <c r="M50" s="311"/>
+    </row>
+    <row r="71" spans="2:13" ht="13.15">
+      <c r="B71" s="312" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="15">
-      <c r="B56" s="307"/>
-      <c r="C56" s="306">
-        <f>C31</f>
+    <row r="72" spans="2:13" ht="15">
+      <c r="B72" s="307"/>
+      <c r="C72" s="306">
+        <f>C47</f>
         <v>2012</v>
       </c>
-      <c r="D56" s="306">
-        <f t="shared" ref="D56:M56" si="3">D31</f>
+      <c r="D72" s="306">
+        <f t="shared" ref="D72:M72" si="3">D47</f>
         <v>2013</v>
       </c>
-      <c r="E56" s="306">
+      <c r="E72" s="306">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="F56" s="306">
+      <c r="F72" s="306">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="G56" s="306">
+      <c r="G72" s="306">
         <f t="shared" si="3"/>
         <v>2016</v>
       </c>
-      <c r="H56" s="306">
+      <c r="H72" s="306">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="I56" s="306">
+      <c r="I72" s="306">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="J56" s="306">
+      <c r="J72" s="306">
         <f t="shared" si="3"/>
         <v>2019</v>
       </c>
-      <c r="K56" s="306">
+      <c r="K72" s="306">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="L56" s="306">
+      <c r="L72" s="306">
         <f t="shared" si="3"/>
         <v>2021</v>
       </c>
-      <c r="M56" s="306">
+      <c r="M72" s="306">
         <f t="shared" si="3"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="57" spans="2:13">
-      <c r="B57" s="307" t="s">
+    <row r="73" spans="2:13">
+      <c r="B73" s="307" t="s">
         <v>380</v>
       </c>
-      <c r="C57" s="311"/>
-      <c r="D57" s="311"/>
-      <c r="E57" s="311"/>
-      <c r="F57" s="311"/>
-      <c r="G57" s="311"/>
-      <c r="H57" s="311"/>
-      <c r="I57" s="311"/>
-      <c r="J57" s="311"/>
-      <c r="K57" s="311"/>
-      <c r="L57" s="311"/>
-      <c r="M57" s="311"/>
-    </row>
-    <row r="58" spans="2:13">
-      <c r="B58" s="307" t="s">
+      <c r="C73" s="311"/>
+      <c r="D73" s="311"/>
+      <c r="E73" s="311"/>
+      <c r="F73" s="311"/>
+      <c r="G73" s="311"/>
+      <c r="H73" s="311"/>
+      <c r="I73" s="311"/>
+      <c r="J73" s="311"/>
+      <c r="K73" s="311"/>
+      <c r="L73" s="311"/>
+      <c r="M73" s="311"/>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="307" t="s">
         <v>381</v>
       </c>
-      <c r="C58" s="308"/>
-      <c r="D58" s="308"/>
-      <c r="E58" s="308"/>
-      <c r="F58" s="308"/>
-      <c r="G58" s="308"/>
-      <c r="H58" s="308"/>
-      <c r="I58" s="308"/>
-      <c r="J58" s="311"/>
-      <c r="K58" s="311"/>
-      <c r="L58" s="311"/>
-      <c r="M58" s="311"/>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59" s="307" t="s">
+      <c r="C74" s="308"/>
+      <c r="D74" s="308"/>
+      <c r="E74" s="308"/>
+      <c r="F74" s="308"/>
+      <c r="G74" s="308"/>
+      <c r="H74" s="308"/>
+      <c r="I74" s="308"/>
+      <c r="J74" s="311"/>
+      <c r="K74" s="311"/>
+      <c r="L74" s="311"/>
+      <c r="M74" s="311"/>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="307" t="s">
         <v>382</v>
       </c>
-      <c r="C59" s="308"/>
-      <c r="D59" s="308"/>
-      <c r="E59" s="308"/>
-      <c r="F59" s="308"/>
-      <c r="G59" s="308"/>
-      <c r="H59" s="308"/>
-      <c r="I59" s="308"/>
-      <c r="J59" s="311"/>
-      <c r="K59" s="311"/>
-      <c r="L59" s="311"/>
-      <c r="M59" s="311"/>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60" s="307" t="s">
+      <c r="C75" s="308"/>
+      <c r="D75" s="308"/>
+      <c r="E75" s="308"/>
+      <c r="F75" s="308"/>
+      <c r="G75" s="308"/>
+      <c r="H75" s="308"/>
+      <c r="I75" s="308"/>
+      <c r="J75" s="311"/>
+      <c r="K75" s="311"/>
+      <c r="L75" s="311"/>
+      <c r="M75" s="311"/>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76" s="307" t="s">
         <v>383</v>
       </c>
-      <c r="J60" s="311"/>
-      <c r="K60" s="311"/>
-      <c r="L60" s="311"/>
-      <c r="M60" s="311"/>
-    </row>
-    <row r="62" spans="2:13" ht="13">
-      <c r="B62" s="312" t="s">
+      <c r="J76" s="311"/>
+      <c r="K76" s="311"/>
+      <c r="L76" s="311"/>
+      <c r="M76" s="311"/>
+    </row>
+    <row r="78" spans="2:13" ht="13.15">
+      <c r="B78" s="312" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="2:13" ht="15">
-      <c r="C63" s="306">
-        <f>C56</f>
+    <row r="79" spans="2:13" ht="15">
+      <c r="C79" s="306">
+        <f>C72</f>
         <v>2012</v>
       </c>
-      <c r="D63" s="306">
-        <f>D56</f>
+      <c r="D79" s="306">
+        <f>D72</f>
         <v>2013</v>
       </c>
-      <c r="E63" s="306">
-        <f t="shared" ref="E63:M63" si="4">E56</f>
+      <c r="E79" s="306">
+        <f t="shared" ref="E79:M79" si="4">E72</f>
         <v>2014</v>
       </c>
-      <c r="F63" s="306">
+      <c r="F79" s="306">
         <f t="shared" si="4"/>
         <v>2015</v>
       </c>
-      <c r="G63" s="306">
+      <c r="G79" s="306">
         <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="H63" s="306">
+      <c r="H79" s="306">
         <f t="shared" si="4"/>
         <v>2017</v>
       </c>
-      <c r="I63" s="306">
+      <c r="I79" s="306">
         <f t="shared" si="4"/>
         <v>2018</v>
       </c>
-      <c r="J63" s="306">
+      <c r="J79" s="306">
         <f t="shared" si="4"/>
         <v>2019</v>
       </c>
-      <c r="K63" s="306">
+      <c r="K79" s="306">
         <f t="shared" si="4"/>
         <v>2020</v>
       </c>
-      <c r="L63" s="306">
+      <c r="L79" s="306">
         <f t="shared" si="4"/>
         <v>2021</v>
       </c>
-      <c r="M63" s="306">
+      <c r="M79" s="306">
         <f t="shared" si="4"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="64" spans="2:13">
-      <c r="B64" s="307" t="s">
+    <row r="80" spans="2:13">
+      <c r="B80" s="307" t="s">
         <v>386</v>
       </c>
-      <c r="J64" s="310"/>
-      <c r="K64" s="310"/>
-      <c r="L64" s="310"/>
-      <c r="M64" s="310"/>
-    </row>
-    <row r="65" spans="2:13">
-      <c r="B65" s="307" t="s">
+      <c r="J80" s="310"/>
+      <c r="K80" s="310"/>
+      <c r="L80" s="310"/>
+      <c r="M80" s="310"/>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="307" t="s">
         <v>387</v>
       </c>
-      <c r="J65" s="310"/>
-      <c r="K65" s="310"/>
-      <c r="L65" s="310"/>
-      <c r="M65" s="310"/>
-    </row>
-    <row r="66" spans="2:13">
-      <c r="B66" s="307" t="s">
+      <c r="J81" s="310"/>
+      <c r="K81" s="310"/>
+      <c r="L81" s="310"/>
+      <c r="M81" s="310"/>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" s="307" t="s">
         <v>385</v>
       </c>
-      <c r="J66" s="311"/>
-      <c r="K66" s="311"/>
-      <c r="L66" s="311"/>
-      <c r="M66" s="311"/>
-    </row>
-    <row r="87" spans="2:13" ht="15">
-      <c r="C87" s="306">
+      <c r="J82" s="311"/>
+      <c r="K82" s="311"/>
+      <c r="L82" s="311"/>
+      <c r="M82" s="311"/>
+    </row>
+    <row r="103" spans="2:13" ht="15">
+      <c r="C103" s="306">
         <v>2012</v>
       </c>
-      <c r="D87" s="306">
+      <c r="D103" s="306">
         <v>2013</v>
       </c>
-      <c r="E87" s="306">
+      <c r="E103" s="306">
         <v>2014</v>
       </c>
-      <c r="F87" s="306">
+      <c r="F103" s="306">
         <v>2015</v>
       </c>
-      <c r="G87" s="306">
+      <c r="G103" s="306">
         <v>2016</v>
       </c>
-      <c r="H87" s="306">
+      <c r="H103" s="306">
         <v>2017</v>
       </c>
-      <c r="I87" s="306">
+      <c r="I103" s="306">
         <v>2018</v>
       </c>
-      <c r="J87" s="306">
+      <c r="J103" s="306">
         <v>2019</v>
       </c>
-      <c r="K87" s="306">
+      <c r="K103" s="306">
         <v>2020</v>
       </c>
-      <c r="L87" s="306">
+      <c r="L103" s="306">
         <v>2021</v>
       </c>
-      <c r="M87" s="306">
+      <c r="M103" s="306">
         <v>2022</v>
       </c>
     </row>
-    <row r="88" spans="2:13">
-      <c r="B88" t="s">
+    <row r="104" spans="2:13">
+      <c r="B104" t="s">
         <v>390</v>
       </c>
-      <c r="J88" s="313">
+      <c r="J104" s="313">
         <f>Data!F19</f>
         <v>25020</v>
       </c>
-      <c r="K88" s="313">
+      <c r="K104" s="313">
         <f>Data!E19</f>
         <v>68639</v>
       </c>
-      <c r="L88" s="313">
+      <c r="L104" s="313">
         <f>Data!D19</f>
         <v>327798</v>
       </c>
-      <c r="M88" s="313">
+      <c r="M104" s="313">
         <f>Data!C19</f>
         <v>582451</v>
       </c>
     </row>
-    <row r="89" spans="2:13">
-      <c r="B89" t="s">
+    <row r="105" spans="2:13">
+      <c r="B105" t="s">
         <v>391</v>
       </c>
-      <c r="J89" s="313">
+      <c r="J105" s="313">
         <f>Data!F33</f>
         <v>69000</v>
       </c>
-      <c r="K89" s="313">
+      <c r="K105" s="313">
         <f>Data!E33</f>
         <v>56000</v>
       </c>
-      <c r="L89" s="313">
+      <c r="L105" s="313">
         <f>Data!D33</f>
         <v>247000</v>
       </c>
-      <c r="M89" s="313">
+      <c r="M105" s="313">
         <f>Data!C33</f>
         <v>1176000</v>
       </c>
     </row>
-    <row r="90" spans="2:13">
-      <c r="B90" t="s">
+    <row r="106" spans="2:13">
+      <c r="B106" t="s">
         <v>392</v>
       </c>
-      <c r="J90" s="313">
+      <c r="J106" s="313">
         <f>Data!F40</f>
         <v>7352</v>
       </c>
-      <c r="K90" s="313">
+      <c r="K106" s="313">
         <f>Data!E40</f>
         <v>37000</v>
       </c>
-      <c r="L90" s="313">
+      <c r="L106" s="313">
         <f>Data!D40</f>
         <v>36302</v>
       </c>
-      <c r="M90" s="313">
+      <c r="M106" s="313">
         <f>Data!C40</f>
         <v>182000</v>
       </c>
     </row>
-    <row r="91" spans="2:13">
-      <c r="B91" t="s">
+    <row r="107" spans="2:13">
+      <c r="B107" t="s">
         <v>393</v>
       </c>
-      <c r="L91" s="313">
+      <c r="L107" s="313">
         <f>Data!D41</f>
         <v>0</v>
       </c>
-      <c r="M91" s="313">
+      <c r="M107" s="313">
         <f>Data!C41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13">
-      <c r="B92" t="s">
+    <row r="108" spans="2:13">
+      <c r="B108" t="s">
         <v>395</v>
       </c>
-      <c r="J92" s="313">
+      <c r="J108" s="313">
         <f>Data!F34</f>
         <v>0</v>
       </c>
-      <c r="K92" s="313">
+      <c r="K108" s="313">
         <f>Data!E34</f>
         <v>0</v>
       </c>
-      <c r="L92" s="313">
+      <c r="L108" s="313">
         <f>Data!D34</f>
         <v>0</v>
       </c>
-      <c r="M92" s="313">
+      <c r="M108" s="313">
         <f>Data!C34</f>
         <v>230000</v>
       </c>
     </row>
-    <row r="95" spans="2:13">
-      <c r="B95" t="s">
+    <row r="111" spans="2:13">
+      <c r="B111" t="s">
         <v>397</v>
       </c>
-      <c r="J95" s="313">
+      <c r="J111" s="313">
         <v>1315974</v>
       </c>
-      <c r="K95" s="313">
+      <c r="K111" s="313">
         <v>2298560</v>
       </c>
-      <c r="L95" s="313">
+      <c r="L111" s="313">
         <v>2061289</v>
       </c>
-      <c r="M95" s="313">
+      <c r="M111" s="313">
         <v>2916855</v>
       </c>
     </row>
-    <row r="96" spans="2:13">
-      <c r="B96" t="s">
+    <row r="112" spans="2:13">
+      <c r="B112" t="s">
         <v>398</v>
       </c>
-      <c r="J96" s="313">
+      <c r="J112" s="313">
         <v>3886094</v>
       </c>
-      <c r="K96" s="313">
+      <c r="K112" s="313">
         <v>2774281</v>
       </c>
-      <c r="L96" s="313">
+      <c r="L112" s="313">
         <v>4254707</v>
       </c>
-      <c r="M96" s="313">
+      <c r="M112" s="313">
         <v>4294664</v>
       </c>
     </row>
-    <row r="97" spans="2:15">
-      <c r="B97" s="307" t="s">
+    <row r="113" spans="2:15">
+      <c r="B113" s="307" t="s">
         <v>399</v>
       </c>
-      <c r="J97" s="314">
+      <c r="J113" s="314">
         <v>1.3370230781251284</v>
       </c>
-      <c r="K97" s="314">
+      <c r="K113" s="314">
         <v>1.0795113892766026</v>
       </c>
-      <c r="L97" s="314">
+      <c r="L113" s="314">
         <v>1.2103831624020565</v>
       </c>
-      <c r="M97" s="314">
+      <c r="M113" s="314">
         <v>1.309293938120297</v>
       </c>
     </row>
-    <row r="100" spans="2:15">
-      <c r="G100" s="307" t="s">
+    <row r="116" spans="2:15">
+      <c r="G116" s="307" t="s">
         <v>400</v>
       </c>
-      <c r="H100" s="308"/>
-      <c r="I100" s="316" t="s">
+      <c r="H116" s="308"/>
+      <c r="I116" s="316" t="s">
         <v>401</v>
       </c>
-      <c r="J100" s="316" t="s">
+      <c r="J116" s="316" t="s">
         <v>402</v>
       </c>
-      <c r="K100" s="316" t="s">
+      <c r="K116" s="316" t="s">
         <v>403</v>
       </c>
-      <c r="L100" s="316" t="s">
+      <c r="L116" s="316" t="s">
         <v>411</v>
       </c>
-      <c r="M100" s="316" t="s">
+      <c r="M116" s="316" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="101" spans="2:15">
-      <c r="H101" s="308"/>
-      <c r="I101" s="310">
-        <f>(M88+L88)/2</f>
+    <row r="117" spans="2:15">
+      <c r="H117" s="308"/>
+      <c r="I117" s="310">
+        <f>(M104+L104)/2</f>
         <v>455124.5</v>
       </c>
-      <c r="J101" s="308"/>
-      <c r="K101" s="308">
+      <c r="J117" s="308"/>
+      <c r="K117" s="308">
         <v>10</v>
       </c>
-      <c r="M101" s="308">
+      <c r="M117" s="308">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N101" s="315" t="s">
+      <c r="N117" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="O101" s="310">
-        <f>I101*K101/M101</f>
+      <c r="O117" s="310">
+        <f>I117*K117/M117</f>
         <v>4137495.4545454541</v>
       </c>
     </row>
-    <row r="103" spans="2:15">
-      <c r="G103" s="307" t="s">
+    <row r="119" spans="2:15">
+      <c r="G119" s="307" t="s">
         <v>404</v>
       </c>
-      <c r="I103" s="316" t="s">
+      <c r="I119" s="316" t="s">
         <v>405</v>
       </c>
-      <c r="J103" s="316" t="s">
+      <c r="J119" s="316" t="s">
         <v>402</v>
       </c>
-      <c r="K103" s="316" t="s">
+      <c r="K119" s="316" t="s">
         <v>410</v>
       </c>
-      <c r="L103" s="316" t="s">
+      <c r="L119" s="316" t="s">
         <v>408</v>
       </c>
-      <c r="M103" s="316" t="s">
+      <c r="M119" s="316" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="104" spans="2:15">
-      <c r="I104" s="310">
+    <row r="120" spans="2:15">
+      <c r="I120" s="310">
         <f>Asset_Model!C35+Asset_Model!C31+Asset_Model!C36</f>
         <v>10891</v>
       </c>
-      <c r="J104" s="316" t="s">
+      <c r="J120" s="316" t="s">
         <v>402</v>
       </c>
-      <c r="K104" s="308">
+      <c r="K120" s="308">
         <v>0.8</v>
       </c>
-      <c r="L104" s="315"/>
-      <c r="M104" s="310">
+      <c r="L120" s="315"/>
+      <c r="M120" s="310">
         <f>Val_Models!C17</f>
         <v>-805276</v>
       </c>
-      <c r="N104" s="307" t="s">
+      <c r="N120" s="307" t="s">
         <v>21</v>
       </c>
-      <c r="O104" s="317">
-        <f>I104*K104+M104</f>
+      <c r="O120" s="317">
+        <f>I120*K120+M120</f>
         <v>-796563.2</v>
       </c>
     </row>
-    <row r="106" spans="2:15">
-      <c r="G106" s="307"/>
-    </row>
-    <row r="107" spans="2:15">
-      <c r="K107" s="316" t="s">
+    <row r="122" spans="2:15">
+      <c r="G122" s="307"/>
+    </row>
+    <row r="123" spans="2:15">
+      <c r="K123" s="316" t="s">
         <v>409</v>
       </c>
-      <c r="L107" s="315" t="s">
+      <c r="L123" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="M107" s="310">
-        <f>O101+O104</f>
+      <c r="M123" s="310">
+        <f>O117+O120</f>
         <v>3340932.2545454539</v>
       </c>
     </row>
-    <row r="109" spans="2:15">
-      <c r="M109" s="318">
-        <f>M107*Data!C4/Common_Shares</f>
+    <row r="125" spans="2:15">
+      <c r="M125" s="318">
+        <f>M123*Data!C4/Common_Shares</f>
         <v>4.2206137837099265</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22043,18 +21001,18 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -22124,7 +21082,7 @@
       </c>
       <c r="D4" s="243">
         <f>IF(B4="NOPAT",Projections!G21,Projections!G9)</f>
-        <v>10738931.84</v>
+        <v>10887180.32</v>
       </c>
       <c r="E4" s="243" t="str">
         <f>IF(Projections!H9="","",IF(B4="NOPAT",Projections!H21,Projections!H9))</f>
@@ -22140,7 +21098,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="47" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J4" s="35"/>
     </row>
@@ -22152,7 +21110,7 @@
       <c r="C5" s="102"/>
       <c r="D5" s="241">
         <f>D4/C4-1</f>
-        <v>1.5454469402773618E-3</v>
+        <v>1.5371551097747904E-2</v>
       </c>
       <c r="E5" s="241" t="str">
         <f>IF(E4="","",E4/D4-1)</f>
@@ -22178,7 +21136,7 @@
       </c>
       <c r="D6" s="171">
         <f>D7/D4</f>
-        <v>2.4740090075476253E-2</v>
+        <v>2.9072407687282625E-2</v>
       </c>
       <c r="E6" s="171"/>
       <c r="F6" s="171"/>
@@ -22196,7 +21154,7 @@
       </c>
       <c r="D7" s="328">
         <f>Projections!G24</f>
-        <v>265682.14103599993</v>
+        <v>316516.54482800013</v>
       </c>
       <c r="E7" s="248" t="str">
         <f>Projections!H24</f>
@@ -22219,7 +21177,7 @@
       </c>
       <c r="D8" s="210">
         <f>Projections!G21-D7</f>
-        <v>-231665.26103600004</v>
+        <v>-171313.30482799991</v>
       </c>
       <c r="E8" s="210" t="str">
         <f>IF(E4="","",Projections!H21-E7)</f>
@@ -22245,7 +21203,7 @@
       </c>
       <c r="D9" s="249">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>-0.2926636996619762</v>
+        <v>-0.21642081928067405</v>
       </c>
       <c r="E9" s="249" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
@@ -22257,7 +21215,7 @@
       </c>
       <c r="G9" s="250">
         <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Common_Shares</f>
-        <v>-0.29266369966197625</v>
+        <v>-0.21642081928067408</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="35"/>
@@ -22321,7 +21279,7 @@
       <c r="C12" s="252"/>
       <c r="D12" s="253">
         <f ca="1">IF(D9="","",D9/D11)</f>
-        <v>-0.26702892304924836</v>
+        <v>-0.19746425116849822</v>
       </c>
       <c r="E12" s="253" t="str">
         <f>IF(E9="","",E9/E11)</f>
@@ -22407,7 +21365,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="363" t="str">
+      <c r="E17" s="351" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -22430,7 +21388,7 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-9.1848316221521439E-2</v>
       </c>
-      <c r="E18" s="363"/>
+      <c r="E18" s="351"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
@@ -22452,10 +21410,10 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="398" t="s">
+      <c r="E20" s="399" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="398"/>
+      <c r="F20" s="399"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
@@ -22464,7 +21422,7 @@
         <v>TV after Year 1</v>
       </c>
       <c r="C21" s="266" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>326</v>
@@ -22487,63 +21445,61 @@
         <v>248</v>
       </c>
       <c r="C22" s="268">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D22" s="269">
-        <f>C22*0.5*D4*Data!C4/Common_Shares</f>
-        <v>6.7832689041448422</v>
+        <f>C22*D4*Data!C4/Common_Shares</f>
+        <v>11.003056589803064</v>
       </c>
       <c r="E22" s="239">
         <f>IF(D22="",IF(G9&lt;0,G9,G9*C22/G11),D22)</f>
-        <v>6.7832689041448422</v>
+        <v>11.003056589803064</v>
       </c>
       <c r="F22" s="239">
         <f ca="1">SUM(D12:F12)+E22+$G$16</f>
-        <v>8.4220944068061261</v>
+        <v>12.7114467643451</v>
       </c>
       <c r="G22" s="272">
         <f ca="1">F22*Exchange_Rate</f>
-        <v>8.4220944068061261</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>438</v>
-      </c>
+        <v>12.7114467643451</v>
+      </c>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="B23" s="132" t="s">
         <v>249</v>
       </c>
       <c r="C23" s="270">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="D23" s="271">
-        <f>C23*0.5*D4*Data!C4/Common_Shares</f>
-        <v>10.85323024663175</v>
+        <f>C23*D4*Data!C4/Common_Shares</f>
+        <v>18.705196202665206</v>
       </c>
       <c r="E23" s="98">
         <f>IF(D23="",IF(G9&lt;0,G9,G9*C23/G11),D23)</f>
-        <v>10.85323024663175</v>
+        <v>18.705196202665206</v>
       </c>
       <c r="F23" s="98">
         <f ca="1">SUM(D12:F12)+E23+$G$16</f>
-        <v>12.492055749293035</v>
+        <v>20.413586377207242</v>
       </c>
       <c r="G23" s="273">
         <f ca="1">F23*Exchange_Rate</f>
-        <v>12.492055749293035</v>
+        <v>20.413586377207242</v>
       </c>
       <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="15.5" customHeight="1">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="399" t="s">
+      <c r="E24" s="400" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="400"/>
+      <c r="F24" s="401"/>
       <c r="G24" s="143">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>10.339336910641924</v>
+        <v>16.33970467483266</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -22610,7 +21566,7 @@
       </c>
       <c r="D28" s="51">
         <f>D8</f>
-        <v>-231665.26103600004</v>
+        <v>-171313.30482799991</v>
       </c>
       <c r="E28" s="51" t="str">
         <f>E8</f>
@@ -22622,7 +21578,7 @@
       </c>
       <c r="G28" s="161">
         <f>D28*1.02</f>
-        <v>-236298.56625672005</v>
+        <v>-174739.5709245599</v>
       </c>
       <c r="I28" s="43" t="s">
         <v>317</v>
@@ -22654,14 +21610,14 @@
         <v>805276</v>
       </c>
       <c r="D30" s="150">
-        <f>C30*1.05</f>
-        <v>845539.8</v>
+        <f>C30*1.1</f>
+        <v>885803.60000000009</v>
       </c>
       <c r="E30" s="161"/>
       <c r="F30" s="161"/>
       <c r="G30" s="161">
         <f>IF(F30&lt;&gt;"",F30,IF(E30&lt;&gt;"",E30,D30))*1.05</f>
-        <v>887816.79</v>
+        <v>930093.78000000014</v>
       </c>
       <c r="I30" s="43" t="s">
         <v>309</v>
@@ -22703,7 +21659,7 @@
       </c>
       <c r="D32" s="278">
         <f>(D30*D29)*(1-D31)</f>
-        <v>25366.194000000003</v>
+        <v>26574.108000000007</v>
       </c>
       <c r="E32" s="279" t="str">
         <f>IF(E28="","",(E30*E29)*(1-E31))</f>
@@ -22715,7 +21671,7 @@
       </c>
       <c r="G32" s="278">
         <f>(G30*G29)*(1-Projections!G19)</f>
-        <v>26634.503700000001</v>
+        <v>27902.813400000006</v>
       </c>
       <c r="I32" s="43"/>
     </row>
@@ -22729,7 +21685,7 @@
       </c>
       <c r="D33" s="210">
         <f>D28-D32</f>
-        <v>-257031.45503600006</v>
+        <v>-197887.41282799991</v>
       </c>
       <c r="E33" s="210" t="str">
         <f>IF(E28="","",E28-E32)</f>
@@ -22741,7 +21697,7 @@
       </c>
       <c r="G33" s="274">
         <f>G28-G32</f>
-        <v>-262933.06995672005</v>
+        <v>-202642.38432455991</v>
       </c>
       <c r="I33" s="43" t="s">
         <v>304</v>
@@ -22757,7 +21713,7 @@
       </c>
       <c r="D34" s="246">
         <f>D33/(Common_Shares/Data!$C$4)</f>
-        <v>-0.32470891934309964</v>
+        <v>-0.24999200180375575</v>
       </c>
       <c r="E34" s="246" t="str">
         <f>IF(E33="","",E33/(Common_Shares/Data!$C$4))</f>
@@ -22769,7 +21725,7 @@
       </c>
       <c r="G34" s="139">
         <f>G33/(Common_Shares/Data!$C$4)</f>
-        <v>-0.33216445432039532</v>
+        <v>-0.25599897731552329</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="43"/>
@@ -22780,7 +21736,7 @@
       </c>
       <c r="C35" s="275">
         <f>Dashboard!C31</f>
-        <v>7</v>
+        <v>7.15</v>
       </c>
       <c r="D35" s="149">
         <f ca="1">D10</f>
@@ -22807,7 +21763,7 @@
       <c r="C36" s="75"/>
       <c r="D36" s="280">
         <f ca="1">C35*D35</f>
-        <v>0.67200000000000004</v>
+        <v>0.68640000000000001</v>
       </c>
       <c r="E36" s="280" t="str">
         <f>IF(E35="","", $D$36)</f>
@@ -22819,7 +21775,7 @@
       </c>
       <c r="G36" s="280">
         <f ca="1">D36</f>
-        <v>0.67200000000000004</v>
+        <v>0.68640000000000001</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="43"/>
@@ -22834,7 +21790,7 @@
       </c>
       <c r="D37" s="246">
         <f ca="1">D34-D36</f>
-        <v>-0.99670891934309969</v>
+        <v>-0.9363920018037557</v>
       </c>
       <c r="E37" s="246" t="str">
         <f>IF(E34="","",E34-E36)</f>
@@ -22846,7 +21802,7 @@
       </c>
       <c r="G37" s="277">
         <f ca="1">G34-G36</f>
-        <v>-1.0041644543203954</v>
+        <v>-0.94239897731552325</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>303</v>
@@ -22882,7 +21838,7 @@
       <c r="C39" s="145"/>
       <c r="D39" s="281">
         <f ca="1">D37/D38</f>
-        <v>-0.90940594830574784</v>
+        <v>-0.85437226441948511</v>
       </c>
       <c r="E39" s="281" t="str">
         <f>IF(E37="","",E37/E38)</f>
@@ -22894,7 +21850,7 @@
       </c>
       <c r="G39" s="281">
         <f ca="1">G37/G38</f>
-        <v>-1.0481834275474919</v>
+        <v>-0.98371037324595434</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -22904,10 +21860,10 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="401" t="s">
+      <c r="E40" s="402" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="331"/>
+      <c r="F40" s="380"/>
       <c r="G40" s="282">
         <f>Asset_Model!D7</f>
         <v>1.3279128360057053</v>
@@ -22916,10 +21872,10 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="399" t="s">
+      <c r="E41" s="400" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="399"/>
+      <c r="F41" s="400"/>
       <c r="G41" s="283">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
         <v>0</v>
@@ -22951,7 +21907,7 @@
       </c>
       <c r="C44" s="262">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>5.4798485626402202</v>
+        <v>8.6600434776613096</v>
       </c>
       <c r="D44" s="263" t="str">
         <f>Dashboard!J4</f>
@@ -22959,15 +21915,15 @@
       </c>
       <c r="E44" s="264">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-1.3515049745012186</v>
+        <v>-2.5540948733270765</v>
       </c>
       <c r="F44" s="264">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.0539237694730899</v>
+        <v>1.6655616594959703</v>
       </c>
       <c r="G44" s="264">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.4045481209274307</v>
+        <v>0.63932502440355332</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -23003,7 +21959,7 @@
       </c>
       <c r="C46" s="259">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>9.2793954030906143</v>
+        <v>10.961491356357126</v>
       </c>
       <c r="D46" s="257" t="str">
         <f>D45</f>
@@ -23011,15 +21967,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-2.7883026465115353</v>
+        <v>-3.4243868037119256</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.8198144775008573</v>
+        <v>2.1496961600165592</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.6850484882476876</v>
+        <v>0.80922870040773665</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -23028,7 +21984,7 @@
       </c>
       <c r="C47" s="260">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>4.3838788501121764</v>
+        <v>6.928034782129048</v>
       </c>
       <c r="D47" s="261" t="str">
         <f>D45</f>
@@ -23036,15 +21992,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-0.93706430626420134</v>
+        <v>-1.8991362253248876</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.85973771485013251</v>
+        <v>1.3586809753735443</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.32363849674194461</v>
+        <v>0.5114600195228427</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -23967,16 +22923,16 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -23991,7 +22947,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="13.9">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -24007,7 +22963,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:7" ht="13.9">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -24021,7 +22977,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="14">
+    <row r="5" spans="1:7" ht="13.9">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -24036,7 +22992,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.9">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -24051,7 +23007,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.9">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -24066,7 +23022,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.9">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -24081,7 +23037,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.9">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b10873df2abd437/Equity Research/京東方精電 0710.HK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{4AED0B43-8F8D-4597-9D42-477CB7F00989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E742396E-2279-4DBD-B3F4-48F9477057CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDF9C05-272C-4F62-8BF0-8214580ED1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,8 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -46,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="415">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1288,69 +1277,6 @@
     <t>Gross profit =</t>
   </si>
   <si>
-    <t>交通用户</t>
-  </si>
-  <si>
-    <t>批发业务</t>
-  </si>
-  <si>
-    <t>原材料及消耗品</t>
-  </si>
-  <si>
-    <t>每新增一户的收入(千元)</t>
-  </si>
-  <si>
-    <t>LNG价格 (元/吨)</t>
-  </si>
-  <si>
-    <t>Modeling Framework</t>
-  </si>
-  <si>
-    <t>Operating Expense</t>
-  </si>
-  <si>
-    <t>占比</t>
-  </si>
-  <si>
-    <t>成本端:</t>
-  </si>
-  <si>
-    <t>收入端:</t>
-  </si>
-  <si>
-    <t>平均每立方米价格 (元)</t>
-  </si>
-  <si>
-    <t>住宅用户</t>
-  </si>
-  <si>
-    <t>工商业用户</t>
-  </si>
-  <si>
-    <t>总销气量 (万立方米)</t>
-  </si>
-  <si>
-    <t>累计接驳用户</t>
-  </si>
-  <si>
-    <t>城燃住宅用户</t>
-  </si>
-  <si>
-    <t>乡镇住宅用户</t>
-  </si>
-  <si>
-    <t>新增管道燃气用户</t>
-  </si>
-  <si>
-    <t>增长空间分析：</t>
-  </si>
-  <si>
-    <t>a. 河南气化率</t>
-  </si>
-  <si>
-    <t>b. 世界主要国家气化率</t>
-  </si>
-  <si>
     <t>收入增長</t>
   </si>
   <si>
@@ -1415,42 +1341,6 @@
   </si>
   <si>
     <t>总有息债 / 账面股东权益</t>
-  </si>
-  <si>
-    <t>operating assets =</t>
-  </si>
-  <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>P/E Ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non-operating assts = </t>
-  </si>
-  <si>
-    <t>BV</t>
-  </si>
-  <si>
-    <t>discount factor</t>
-  </si>
-  <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>intrinsic Value</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>Total Assets</t>
@@ -1555,6 +1445,18 @@
   <si>
     <t>1. 价格逐渐回升
 2. No. 未来需求走势不可预测</t>
+  </si>
+  <si>
+    <t>2. Sentiment Trap</t>
+  </si>
+  <si>
+    <t>3 year range: 0.67 - 1.33</t>
+  </si>
+  <si>
+    <t>b). Rely on bottom-up research to uncover bargains in a pessimistic market.</t>
+  </si>
+  <si>
+    <t>a). It's our job as a value investor to catch the falling knife</t>
   </si>
 </sst>
 </file>
@@ -1562,36 +1464,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\x"/>
-    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1823,6 +1725,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="25">
@@ -2402,10 +2311,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2450,7 +2359,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2550,7 +2459,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2567,8 +2476,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2577,7 +2486,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2602,7 +2511,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2621,16 +2530,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2660,14 +2569,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2761,7 +2670,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2794,7 +2703,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2814,7 +2723,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2822,7 +2731,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2832,7 +2741,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2853,7 +2762,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2862,7 +2771,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2907,10 +2816,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2919,13 +2828,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2934,7 +2843,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2979,7 +2888,6 @@
     <xf numFmtId="3" fontId="30" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2992,7 +2900,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3034,7 +2942,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3046,13 +2954,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3064,13 +2972,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3100,9 +3005,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3119,42 +3021,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3186,7 +3052,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3205,29 +3071,38 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3237,10 +3112,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3265,10 +3140,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3293,13 +3168,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3312,7 +3187,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3399,7 +3274,14 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3421,6 +3303,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6040,6 +5936,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10586,17 +10488,17 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:F23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10631,27 +10533,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="360" t="s">
-        <v>413</v>
-      </c>
-      <c r="D3" s="361"/>
+      <c r="C3" s="348" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="349"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="369" t="s">
+      <c r="I3" s="357" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="369"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="362" t="s">
-        <v>414</v>
-      </c>
-      <c r="D4" s="331"/>
+      <c r="C4" s="350" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="319"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10668,10 +10570,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="363">
+      <c r="C5" s="351">
         <v>45154</v>
       </c>
-      <c r="D5" s="331"/>
+      <c r="D5" s="319"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10679,10 +10581,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="330">
+      <c r="I5" s="318">
         <v>791574976</v>
       </c>
-      <c r="J5" s="330"/>
+      <c r="J5" s="318"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10705,11 +10607,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="370">
+      <c r="I6" s="358">
         <f>I4*I5/1000000</f>
         <v>5913.0650707200002</v>
       </c>
-      <c r="J6" s="370"/>
+      <c r="J6" s="358"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10784,30 +10686,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="340">
+      <c r="C11" s="328">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="341"/>
+      <c r="D11" s="329"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="369" t="s">
+      <c r="I11" s="357" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="369"/>
+      <c r="J11" s="357"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="376">
+      <c r="C12" s="364">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="377"/>
+      <c r="D12" s="365"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10832,7 +10734,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>8.6600434776613096</v>
+        <v>8.268165254993697</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10876,28 +10778,28 @@
         <f>I4</f>
         <v>7.47</v>
       </c>
-      <c r="C16" s="356">
+      <c r="C16" s="344">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.26740178799961534</v>
-      </c>
-      <c r="E16" s="350" t="s">
+        <v>0.23965405192337053</v>
+      </c>
+      <c r="E16" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="371">
+      <c r="F16" s="359">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.9058544257105325</v>
       </c>
-      <c r="G16" s="350" t="s">
+      <c r="G16" s="338" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>5.5641455742894674</v>
       </c>
-      <c r="I16" s="345">
+      <c r="I16" s="333">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
@@ -10908,47 +10810,47 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.9447630692430877</v>
-      </c>
-      <c r="C17" s="357"/>
+        <v>8.6843739859312681</v>
+      </c>
+      <c r="C17" s="345"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>2.5464696102307727E-2</v>
-      </c>
-      <c r="E17" s="351"/>
-      <c r="F17" s="372"/>
-      <c r="G17" s="351"/>
+        <v>3.8340931112532006E-2</v>
+      </c>
+      <c r="E17" s="339"/>
+      <c r="F17" s="360"/>
+      <c r="G17" s="339"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>7.0389086435325554</v>
-      </c>
-      <c r="I17" s="346"/>
+        <v>6.7785195602207358</v>
+      </c>
+      <c r="I17" s="334"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>2.5713369735959118E-3</v>
+        <v>2.6484349979929607E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>7.15</v>
-      </c>
-      <c r="C18" s="358"/>
+        <v>7.4</v>
+      </c>
+      <c r="C18" s="346"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.33307571417582182</v>
-      </c>
-      <c r="E18" s="352"/>
-      <c r="F18" s="373"/>
-      <c r="G18" s="352"/>
+        <v>0.25327240106318616</v>
+      </c>
+      <c r="E18" s="340"/>
+      <c r="F18" s="361"/>
+      <c r="G18" s="340"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>5.244145574289468</v>
-      </c>
-      <c r="I18" s="347"/>
+        <v>5.494145574289468</v>
+      </c>
+      <c r="I18" s="335"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>3.2167832167832168E-3</v>
+        <v>3.108108108108108E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -10983,84 +10885,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="366" t="s">
-        <v>417</v>
-      </c>
-      <c r="D21" s="367"/>
-      <c r="E21" s="368"/>
-      <c r="F21" s="368"/>
-      <c r="G21" s="368"/>
-      <c r="H21" s="368"/>
-      <c r="I21" s="368"/>
-      <c r="J21" s="368"/>
+      <c r="C21" s="354" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21" s="355"/>
+      <c r="E21" s="356"/>
+      <c r="F21" s="356"/>
+      <c r="G21" s="356"/>
+      <c r="H21" s="356"/>
+      <c r="I21" s="356"/>
+      <c r="J21" s="356"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="375" t="s">
-        <v>418</v>
-      </c>
-      <c r="D22" s="361"/>
-      <c r="E22" s="361"/>
-      <c r="F22" s="361"/>
-      <c r="G22" s="375" t="s">
-        <v>419</v>
-      </c>
-      <c r="H22" s="375"/>
-      <c r="I22" s="361"/>
-      <c r="J22" s="361"/>
+      <c r="C22" s="363" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="349"/>
+      <c r="E22" s="349"/>
+      <c r="F22" s="349"/>
+      <c r="G22" s="363" t="s">
+        <v>386</v>
+      </c>
+      <c r="H22" s="363"/>
+      <c r="I22" s="349"/>
+      <c r="J22" s="349"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="348" t="s">
-        <v>421</v>
-      </c>
-      <c r="D23" s="349"/>
-      <c r="E23" s="349"/>
-      <c r="F23" s="349"/>
-      <c r="G23" s="348" t="s">
-        <v>420</v>
-      </c>
-      <c r="H23" s="348"/>
-      <c r="I23" s="349"/>
-      <c r="J23" s="349"/>
+      <c r="C23" s="336" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="337"/>
+      <c r="E23" s="337"/>
+      <c r="F23" s="337"/>
+      <c r="G23" s="336" t="s">
+        <v>387</v>
+      </c>
+      <c r="H23" s="336"/>
+      <c r="I23" s="337"/>
+      <c r="J23" s="337"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="378" t="s">
-        <v>442</v>
-      </c>
-      <c r="D24" s="378"/>
-      <c r="E24" s="378"/>
-      <c r="F24" s="378"/>
-      <c r="G24" s="378"/>
-      <c r="H24" s="378"/>
-      <c r="I24" s="378"/>
-      <c r="J24" s="378"/>
+      <c r="C24" s="366" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" s="366"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="366"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="366"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="379" t="s">
-        <v>443</v>
-      </c>
-      <c r="D25" s="379"/>
-      <c r="E25" s="379"/>
-      <c r="F25" s="379"/>
-      <c r="G25" s="379"/>
-      <c r="H25" s="379"/>
-      <c r="I25" s="379"/>
-      <c r="J25" s="379"/>
+      <c r="C25" s="367" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" s="367"/>
+      <c r="E25" s="367"/>
+      <c r="F25" s="367"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="367"/>
+      <c r="I25" s="367"/>
+      <c r="J25" s="367"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11100,208 +11002,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="364"/>
-      <c r="D28" s="365"/>
-      <c r="E28" s="355" t="str">
+      <c r="C28" s="352"/>
+      <c r="D28" s="353"/>
+      <c r="E28" s="343" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="355"/>
-      <c r="G28" s="355"/>
-      <c r="H28" s="355"/>
-      <c r="I28" s="374" t="s">
+      <c r="F28" s="343"/>
+      <c r="G28" s="343"/>
+      <c r="H28" s="343"/>
+      <c r="I28" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="374"/>
+      <c r="J28" s="362"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="344">
+      <c r="C29" s="332">
         <f>C33/D27</f>
-        <v>0.17333333333333334</v>
-      </c>
-      <c r="D29" s="338"/>
-      <c r="E29" s="343">
+        <v>0.17939393939393938</v>
+      </c>
+      <c r="D29" s="326"/>
+      <c r="E29" s="331">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="338"/>
-      <c r="G29" s="354">
+      <c r="F29" s="326"/>
+      <c r="G29" s="342">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="354"/>
-      <c r="I29" s="353">
+      <c r="H29" s="342"/>
+      <c r="I29" s="341">
         <f>C29+E29+G29</f>
-        <v>0.17333333333333334</v>
-      </c>
-      <c r="J29" s="353"/>
+        <v>0.17939393939393938</v>
+      </c>
+      <c r="J29" s="341"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="330">
+      <c r="C30" s="318">
         <v>16000</v>
       </c>
-      <c r="D30" s="331"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="331"/>
-      <c r="G30" s="330"/>
-      <c r="H30" s="330"/>
-      <c r="I30" s="359">
+      <c r="D30" s="319"/>
+      <c r="E30" s="318"/>
+      <c r="F30" s="319"/>
+      <c r="G30" s="318"/>
+      <c r="H30" s="318"/>
+      <c r="I30" s="347">
         <f>C30+E30+G30</f>
         <v>16000</v>
       </c>
-      <c r="J30" s="359"/>
+      <c r="J30" s="347"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="332">
-        <v>7.15</v>
-      </c>
-      <c r="D31" s="331"/>
-      <c r="E31" s="332"/>
-      <c r="F31" s="331"/>
-      <c r="G31" s="332"/>
-      <c r="H31" s="332"/>
-      <c r="I31" s="342"/>
-      <c r="J31" s="342"/>
+      <c r="C31" s="320">
+        <v>7.4</v>
+      </c>
+      <c r="D31" s="319"/>
+      <c r="E31" s="320"/>
+      <c r="F31" s="319"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="339">
+      <c r="C32" s="327">
         <f>C31*$I$5/1000000</f>
-        <v>5659.7610784000008</v>
-      </c>
-      <c r="D32" s="338"/>
-      <c r="E32" s="339">
+        <v>5857.6548224000007</v>
+      </c>
+      <c r="D32" s="326"/>
+      <c r="E32" s="327">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="338"/>
-      <c r="G32" s="339">
+      <c r="F32" s="326"/>
+      <c r="G32" s="327">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="339"/>
-      <c r="I32" s="342"/>
-      <c r="J32" s="342"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="335">
+      <c r="C33" s="323">
         <f>C30*C31</f>
-        <v>114400</v>
-      </c>
-      <c r="D33" s="336"/>
-      <c r="E33" s="335">
+        <v>118400</v>
+      </c>
+      <c r="D33" s="324"/>
+      <c r="E33" s="323">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="336"/>
-      <c r="G33" s="335">
+      <c r="F33" s="324"/>
+      <c r="G33" s="323">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="335"/>
-      <c r="I33" s="335">
+      <c r="H33" s="323"/>
+      <c r="I33" s="323">
         <f>C33+E33+G33</f>
-        <v>114400</v>
-      </c>
-      <c r="J33" s="335"/>
+        <v>118400</v>
+      </c>
+      <c r="J33" s="323"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="342"/>
-      <c r="D34" s="385"/>
-      <c r="E34" s="337">
+      <c r="C34" s="330"/>
+      <c r="D34" s="373"/>
+      <c r="E34" s="325">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>7.15</v>
-      </c>
-      <c r="F34" s="338"/>
+        <v>7.4</v>
+      </c>
+      <c r="F34" s="326"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="337">
+      <c r="I34" s="325">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>7.15</v>
-      </c>
-      <c r="J34" s="337"/>
+        <v>7.4</v>
+      </c>
+      <c r="J34" s="325"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="386"/>
-      <c r="D35" s="387"/>
-      <c r="E35" s="333">
+      <c r="C35" s="374"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="321">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>5659.7610784000008</v>
-      </c>
-      <c r="F35" s="334"/>
+        <v>5857.6548224000007</v>
+      </c>
+      <c r="F35" s="322"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="333">
+      <c r="I35" s="321">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>5659.7610784000008</v>
-      </c>
-      <c r="J35" s="333"/>
+        <v>5857.6548224000007</v>
+      </c>
+      <c r="J35" s="321"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="383">
+      <c r="C37" s="371">
         <f>C31</f>
-        <v>7.15</v>
-      </c>
-      <c r="D37" s="384"/>
+        <v>7.4</v>
+      </c>
+      <c r="D37" s="372"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="380" t="s">
+      <c r="G37" s="368" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="380"/>
-      <c r="I37" s="381">
+      <c r="H37" s="368"/>
+      <c r="I37" s="369">
         <f ca="1">Val_Models!C46</f>
-        <v>10.961491356357126</v>
-      </c>
-      <c r="J37" s="382"/>
+        <v>10.754215767867578</v>
+      </c>
+      <c r="J37" s="370"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="383">
+      <c r="C38" s="371">
         <f>E34</f>
-        <v>7.15</v>
-      </c>
-      <c r="D38" s="384"/>
+        <v>7.4</v>
+      </c>
+      <c r="D38" s="372"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="380" t="s">
+      <c r="G38" s="368" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="380"/>
-      <c r="I38" s="381">
+      <c r="H38" s="368"/>
+      <c r="I38" s="369">
         <f ca="1">Val_Models!C47</f>
-        <v>6.928034782129048</v>
-      </c>
-      <c r="J38" s="382"/>
+        <v>6.6145322039949574</v>
+      </c>
+      <c r="J38" s="370"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11425,11 +11327,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.53307571417582178</v>
+        <v>0.45327240106318611</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.53307571417582178</v>
+        <v>0.45327240106318611</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11444,11 +11346,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-3.1044086415517813E-2</v>
+        <v>-0.10614429675743819</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-3.1044086415517813E-2</v>
+        <v>-0.10614429675743819</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11473,11 +11375,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.6104666567896766</v>
+        <v>0.59497630444422112</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.6104666567896766</v>
+        <v>0.59497630444422112</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11492,11 +11394,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>17.17157036096113</v>
+        <v>4.2703415530559106</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>17.17157036096113</v>
+        <v>4.2703415530559106</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11511,11 +11413,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>2.5360609967979886</v>
+        <v>2.8465738816080655</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.5360609967979886</v>
+        <v>2.8465738816080655</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11530,11 +11432,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.23176961231462462</v>
+        <v>0.17569562125394833</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.23176961231462462</v>
+        <v>0.17569562125394833</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -11583,23 +11485,35 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="64" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="64" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B64" s="137" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B65" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B66" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="68" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="69" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1"/>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -12550,12 +12464,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
       <formula>$B$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12570,17 +12484,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12590,17 +12504,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:H28">
-    <cfRule type="containsBlanks" dxfId="15" priority="13">
+    <cfRule type="containsBlanks" dxfId="18" priority="13">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="13" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12647,16 +12561,16 @@
   </sheetPr>
   <dimension ref="A1:N949"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -13377,7 +13291,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="C21" s="150">
         <v>8283100</v>
@@ -13761,7 +13675,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C34" s="161">
         <v>230000</v>
@@ -13790,47 +13704,47 @@
         <v>60</v>
       </c>
       <c r="C35" s="154">
-        <f>IF(D7="","",(C7-D7)*Asset_Model!$D$68)</f>
+        <f>IF(D7="","",IF(C8&lt;0,0,(C7-D7)*Asset_Model!$D$68))</f>
         <v>1023356.9321999999</v>
       </c>
       <c r="D35" s="154">
-        <f>IF(E7="","",(D7-E7)*Asset_Model!$D$68)</f>
+        <f>IF(E7="","",IF(D8&lt;0,0,(D7-E7)*Asset_Model!$D$68))</f>
         <v>1101061.8440999999</v>
       </c>
       <c r="E35" s="154">
-        <f>IF(F7="","",(E7-F7)*Asset_Model!$D$68)</f>
+        <f>IF(F7="","",IF(E8&lt;0,0,(E7-F7)*Asset_Model!$D$68))</f>
         <v>326761.75439999998</v>
       </c>
       <c r="F35" s="154" t="str">
-        <f>IF(G7="","",(F7-G7)*Asset_Model!$D$68)</f>
+        <f>IF(G7="","",IF(F8&lt;0,0,(F7-G7)*Asset_Model!$D$68))</f>
         <v/>
       </c>
       <c r="G35" s="154" t="str">
-        <f>IF(H7="","",(G7-H7)*Asset_Model!$D$68)</f>
+        <f>IF(H7="","",IF(G8&lt;0,0,(G7-H7)*Asset_Model!$D$68))</f>
         <v/>
       </c>
       <c r="H35" s="154" t="str">
-        <f>IF(I7="","",(H7-I7)*Asset_Model!$D$68)</f>
+        <f>IF(I7="","",IF(H8&lt;0,0,(H7-I7)*Asset_Model!$D$68))</f>
         <v/>
       </c>
       <c r="I35" s="154" t="str">
-        <f>IF(J7="","",(I7-J7)*Asset_Model!$D$68)</f>
+        <f>IF(J7="","",IF(I8&lt;0,0,(I7-J7)*Asset_Model!$D$68))</f>
         <v/>
       </c>
       <c r="J35" s="154" t="str">
-        <f>IF(K7="","",(J7-K7)*Asset_Model!$D$68)</f>
+        <f>IF(K7="","",IF(J8&lt;0,0,(J7-K7)*Asset_Model!$D$68))</f>
         <v/>
       </c>
       <c r="K35" s="154" t="str">
-        <f>IF(L7="","",(K7-L7)*Asset_Model!$D$68)</f>
+        <f>IF(L7="","",IF(K8&lt;0,0,(K7-L7)*Asset_Model!$D$68))</f>
         <v/>
       </c>
       <c r="L35" s="154" t="str">
-        <f>IF(M7="","",(L7-M7)*Asset_Model!$D$68)</f>
+        <f>IF(M7="","",IF(L8&lt;0,0,(L7-M7)*Asset_Model!$D$68))</f>
         <v/>
       </c>
       <c r="M35" s="154" t="str">
-        <f>IF(N7="","",(M7-N7)*Asset_Model!$D$68)</f>
+        <f>IF(N7="","",IF(M8&lt;0,0,(M7-N7)*Asset_Model!$D$68))</f>
         <v/>
       </c>
       <c r="N35" s="6"/>
@@ -14180,7 +14094,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14231,7 +14145,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14555,7 +14469,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14606,7 +14520,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -16151,22 +16065,22 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B60:M61">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>$C$58="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:M38 D45:M49 D51:M55">
-    <cfRule type="containsBlanks" dxfId="11" priority="5">
+  <conditionalFormatting sqref="D45:M49 D51:M55 C7:M38">
+    <cfRule type="containsBlanks" dxfId="14" priority="5">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:M43">
-    <cfRule type="containsBlanks" dxfId="10" priority="7">
+    <cfRule type="containsBlanks" dxfId="13" priority="7">
       <formula>LEN(TRIM(C40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="9" priority="6">
+    <cfRule type="containsBlanks" dxfId="12" priority="6">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16199,18 +16113,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16352,7 +16266,7 @@
         <v>44742</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16364,23 +16278,23 @@
       <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="284" t="s">
+      <c r="C10" s="282" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="284" t="s">
+      <c r="D10" s="282" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="284" t="s">
+      <c r="E10" s="282" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="285" t="s">
+      <c r="F10" s="283" t="s">
         <v>202</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="284" t="s">
+      <c r="I10" s="282" t="s">
         <v>74</v>
       </c>
       <c r="K10" s="43"/>
@@ -16410,7 +16324,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9">
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16435,7 +16349,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9">
+    <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16460,7 +16374,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9">
+    <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16485,7 +16399,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9">
+    <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16510,7 +16424,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9">
+    <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16535,7 +16449,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9">
+    <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
         <v>351</v>
       </c>
@@ -16555,7 +16469,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9">
+    <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16574,7 +16488,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9">
+    <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16598,7 +16512,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="13.9">
+    <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16622,7 +16536,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9">
+    <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16664,8 +16578,8 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="285" t="s">
-        <v>434</v>
+      <c r="F23" s="283" t="s">
+        <v>401</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16673,7 +16587,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16693,16 +16607,16 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="I24" s="327">
+        <v>399</v>
+      </c>
+      <c r="I24" s="312">
         <f>I11+I12+I13</f>
         <v>721194</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16722,7 +16636,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16731,7 +16645,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16764,9 +16678,9 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="C27" s="320">
+        <v>394</v>
+      </c>
+      <c r="C27" s="305">
         <f>C21+C22</f>
         <v>2133</v>
       </c>
@@ -16796,10 +16710,10 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1">
-      <c r="B28" s="321" t="s">
+      <c r="B28" s="306" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="322">
+      <c r="C28" s="307">
         <f>SUM(C24:C27)</f>
         <v>6612998</v>
       </c>
@@ -16813,7 +16727,7 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="321" t="s">
+      <c r="H28" s="306" t="s">
         <v>53</v>
       </c>
       <c r="I28" s="190">
@@ -16907,7 +16821,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9">
+    <row r="33" spans="2:10" ht="14">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16936,7 +16850,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9">
+    <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16961,7 +16875,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9">
+    <row r="35" spans="2:10" ht="14">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16986,7 +16900,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9">
+    <row r="36" spans="2:10" ht="14">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -17010,7 +16924,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9">
+    <row r="37" spans="2:10" ht="14">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -17054,7 +16968,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9">
+    <row r="39" spans="2:10" ht="14">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17141,7 +17055,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17158,16 +17072,16 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I44" s="327">
+        <v>400</v>
+      </c>
+      <c r="I44" s="312">
         <f>I30+I31+I32</f>
         <v>84082</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17186,7 +17100,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17216,7 +17130,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17245,34 +17159,34 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B48" s="323" t="s">
+      <c r="B48" s="308" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="324">
+      <c r="C48" s="309">
         <f>SUM(C30:C42)</f>
         <v>1836346</v>
       </c>
-      <c r="D48" s="325">
+      <c r="D48" s="310">
         <f>E48/C48</f>
         <v>0.40272364249438836</v>
       </c>
-      <c r="E48" s="319">
+      <c r="E48" s="304">
         <f>SUM(E30:E42)</f>
         <v>739539.95000000007</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="323" t="s">
+      <c r="H48" s="308" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="326">
+      <c r="I48" s="311">
         <v>217792</v>
       </c>
       <c r="J48" s="13"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17303,19 +17217,19 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9">
+    <row r="51" spans="2:10" ht="14">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9">
+    <row r="52" spans="2:10" ht="14">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="284" t="str">
+      <c r="D52" s="282" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
@@ -17325,7 +17239,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9">
+    <row r="53" spans="2:10" ht="14">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17355,31 +17269,31 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.25" thickBot="1">
+    <row r="55" spans="2:10" ht="14.5" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="388">
+      <c r="D55" s="376">
         <f>D56+D57+D58</f>
         <v>805276</v>
       </c>
-      <c r="E55" s="389"/>
+      <c r="E55" s="377"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.25" thickTop="1">
+    <row r="56" spans="2:10" ht="14.5" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="359">
+      <c r="D56" s="347">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
-      <c r="E56" s="390"/>
+      <c r="E56" s="378"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="6" t="s">
@@ -17390,15 +17304,15 @@
         <v>0.1995079170063952</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="13.9">
+    <row r="57" spans="2:10" ht="14">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="395">
+      <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="331"/>
+      <c r="E57" s="319"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17411,10 +17325,10 @@
         <v>111</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="395">
+      <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="331"/>
+      <c r="E58" s="319"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17431,12 +17345,12 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9">
+    <row r="60" spans="2:10" ht="14">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="285" t="s">
+      <c r="D60" s="283" t="s">
         <v>350</v>
       </c>
       <c r="E60" s="6"/>
@@ -17466,7 +17380,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9">
+    <row r="62" spans="2:10" ht="14">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17487,16 +17401,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9">
+    <row r="63" spans="2:10" ht="14">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="359">
+      <c r="D63" s="347">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>4377711.8994286917</v>
       </c>
-      <c r="E63" s="359"/>
+      <c r="E63" s="347"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17528,11 +17442,11 @@
         <v>223</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="D66" s="393">
+      <c r="D66" s="381">
         <f>((C28-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I28)/Data!C7</f>
         <v>1.0112977915964591E-2</v>
       </c>
-      <c r="E66" s="394"/>
+      <c r="E66" s="382"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -17543,10 +17457,10 @@
         <v>222</v>
       </c>
       <c r="C67" s="6"/>
-      <c r="D67" s="391">
+      <c r="D67" s="379">
         <v>0.34289999999999998</v>
       </c>
-      <c r="E67" s="392"/>
+      <c r="E67" s="380"/>
       <c r="F67" s="109" t="s">
         <v>209</v>
       </c>
@@ -17559,10 +17473,10 @@
         <v>224</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="391">
+      <c r="D68" s="379">
         <v>0.34289999999999998</v>
       </c>
-      <c r="E68" s="392"/>
+      <c r="E68" s="380"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -17602,20 +17516,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L942"/>
+  <dimension ref="A1:L879"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -17630,7 +17544,10 @@
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="E2" s="316">
+        <f>IF(I3="",IF(H3="",1,2),3)</f>
+        <v>1</v>
+      </c>
       <c r="F2" s="115" t="s">
         <v>218</v>
       </c>
@@ -17685,7 +17602,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="C4" s="205">
         <v>1600216</v>
@@ -17707,13 +17624,13 @@
       <c r="I4" s="206"/>
       <c r="J4" s="6"/>
       <c r="K4" s="43" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="C5" s="196">
         <v>1306273</v>
@@ -17739,7 +17656,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="C6" s="196">
         <v>204561</v>
@@ -17765,7 +17682,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="C7" s="196">
         <v>127850</v>
@@ -17847,9 +17764,9 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" s="288"/>
+        <v>357</v>
+      </c>
+      <c r="C10" s="285"/>
       <c r="D10" s="171">
         <f>D9/C9-1</f>
         <v>0.266631747593298</v>
@@ -18066,11 +17983,11 @@
       <c r="K16" s="43"/>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1">
       <c r="B17" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="288"/>
+      <c r="C17" s="285"/>
       <c r="D17" s="171">
         <f t="shared" ref="D17:E17" si="4">D18/C18-1</f>
         <v>7.1776796136504117E-2</v>
@@ -18099,7 +18016,7 @@
       <c r="K17" s="45"/>
       <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1">
       <c r="B18" s="5" t="s">
         <v>207</v>
       </c>
@@ -18135,13 +18052,13 @@
       <c r="K18" s="47"/>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1">
       <c r="B19" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="287"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="287"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
       <c r="F19" s="211">
         <v>0.25</v>
       </c>
@@ -18159,37 +18076,37 @@
       </c>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+    <row r="20" spans="2:12" ht="15.75" customHeight="1">
       <c r="B20" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="288"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="288"/>
+      <c r="C20" s="285"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="285"/>
       <c r="F20" s="171">
-        <f>F21/F11</f>
-        <v>1.0464509899171344E-2</v>
+        <f>F21/F9</f>
+        <v>9.8926439801830957E-3</v>
       </c>
       <c r="G20" s="149">
-        <f>G21/G11</f>
-        <v>1.412790724827202E-2</v>
+        <f>G21/G9</f>
+        <v>1.3337084142278651E-2</v>
       </c>
       <c r="H20" s="149" t="str">
-        <f>IF(H11="","",H21/H11)</f>
+        <f>IF(H9="","",H21/H9)</f>
         <v/>
       </c>
       <c r="I20" s="149" t="str">
-        <f>IF(I11="","",I21/I11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+        <f>IF(I9="","",I21/I9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1">
       <c r="B21" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="289"/>
-      <c r="D21" s="289"/>
-      <c r="E21" s="289"/>
+      <c r="C21" s="286"/>
+      <c r="D21" s="286"/>
+      <c r="E21" s="286"/>
       <c r="F21" s="51">
         <f>IF(F18&lt;=0,F18,F18*(1-F19))</f>
         <v>106072.5</v>
@@ -18207,13 +18124,13 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+    <row r="22" spans="2:12" ht="15.75" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="290"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="290"/>
+      <c r="C22" s="287"/>
+      <c r="D22" s="287"/>
+      <c r="E22" s="287"/>
       <c r="F22" s="212">
         <f>Data!C35</f>
         <v>1023356.9321999999</v>
@@ -18231,13 +18148,13 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+    <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="291"/>
-      <c r="D23" s="291"/>
-      <c r="E23" s="291"/>
+      <c r="C23" s="288"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="288"/>
       <c r="F23" s="95">
         <f>Data!C33</f>
         <v>1176000</v>
@@ -18251,13 +18168,13 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
       <c r="B24" s="85" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="292"/>
-      <c r="D24" s="292"/>
-      <c r="E24" s="292"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="289"/>
       <c r="F24" s="214">
         <f>F22+F23</f>
         <v>2199356.9321999997</v>
@@ -18275,28 +18192,28 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+    <row r="25" spans="2:12" ht="15.75" customHeight="1">
       <c r="B25" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C25" s="288"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="288"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="285"/>
       <c r="F25" s="171">
         <f>AVERAGE(Data!C54:E54)</f>
         <v>2.6497863572380802E-2</v>
       </c>
-      <c r="G25" s="396"/>
-      <c r="H25" s="397"/>
-      <c r="I25" s="398"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+      <c r="G25" s="384"/>
+      <c r="H25" s="385"/>
+      <c r="I25" s="386"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1">
       <c r="B26" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="292"/>
-      <c r="D26" s="292"/>
-      <c r="E26" s="292"/>
+      <c r="C26" s="289"/>
+      <c r="D26" s="289"/>
+      <c r="E26" s="289"/>
       <c r="F26" s="214">
         <f>F21-F24</f>
         <v>-2093284.4321999997</v>
@@ -18314,981 +18231,76 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="C28" s="293">
-        <f t="shared" ref="C28:I28" si="6">C3</f>
-        <v>43830</v>
-      </c>
-      <c r="D28" s="293">
-        <f t="shared" si="6"/>
-        <v>44196</v>
-      </c>
-      <c r="E28" s="293">
-        <f t="shared" si="6"/>
-        <v>44561</v>
-      </c>
-      <c r="F28" s="293">
-        <f t="shared" si="6"/>
-        <v>44926</v>
-      </c>
-      <c r="G28" s="293">
-        <f t="shared" si="6"/>
-        <v>45291</v>
-      </c>
-      <c r="H28" s="293" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I28" s="293" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B30" s="117" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B32" s="301" t="str">
-        <f>"a. "&amp;B4</f>
-        <v>a. 中国</v>
-      </c>
-      <c r="C32" s="302">
-        <f>C4</f>
-        <v>1600216</v>
-      </c>
-      <c r="D32" s="302">
-        <f>D4</f>
-        <v>2562909</v>
-      </c>
-      <c r="E32" s="302">
-        <f>E4</f>
-        <v>5067853</v>
-      </c>
-      <c r="F32" s="302">
-        <f>F4</f>
-        <v>7494766</v>
-      </c>
-      <c r="G32" s="302"/>
-      <c r="H32" s="302"/>
-      <c r="I32" s="301"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B33" s="87"/>
-      <c r="C33" s="295">
-        <f>C$32*C37</f>
-        <v>289639.09600000002</v>
-      </c>
-      <c r="D33" s="295">
-        <f t="shared" ref="D33:F33" si="7">D$32*D37</f>
-        <v>602283.61499999999</v>
-      </c>
-      <c r="E33" s="295">
-        <f t="shared" si="7"/>
-        <v>1003434.8940000001</v>
-      </c>
-      <c r="F33" s="295">
-        <f t="shared" si="7"/>
-        <v>1566406.094</v>
-      </c>
-      <c r="G33" s="295"/>
-      <c r="H33" s="295"/>
-      <c r="I33" s="295"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B34" s="87"/>
-      <c r="C34" s="295">
-        <f t="shared" ref="C34:C36" si="8">$C$32*C38</f>
-        <v>566476.46399999992</v>
-      </c>
-      <c r="D34" s="295">
-        <f t="shared" ref="D34:F34" si="9">D$32*D38</f>
-        <v>1345527.2250000001</v>
-      </c>
-      <c r="E34" s="295">
-        <f t="shared" si="9"/>
-        <v>2772115.591</v>
-      </c>
-      <c r="F34" s="295">
-        <f t="shared" si="9"/>
-        <v>4346964.2799999993</v>
-      </c>
-      <c r="G34" s="295"/>
-      <c r="H34" s="295"/>
-      <c r="I34" s="295"/>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B35" s="87"/>
-      <c r="C35" s="295">
-        <f t="shared" si="8"/>
-        <v>171223.11199999999</v>
-      </c>
-      <c r="D35" s="295">
-        <f t="shared" ref="D35:F35" si="10">D$32*D39</f>
-        <v>153774.54</v>
-      </c>
-      <c r="E35" s="295">
-        <f t="shared" si="10"/>
-        <v>329410.44500000001</v>
-      </c>
-      <c r="F35" s="295">
-        <f t="shared" si="10"/>
-        <v>502149.32200000004</v>
-      </c>
-      <c r="G35" s="295"/>
-      <c r="H35" s="295"/>
-      <c r="I35" s="295"/>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B36" s="87"/>
-      <c r="C36" s="295">
-        <f t="shared" si="8"/>
-        <v>572877.32799999998</v>
-      </c>
-      <c r="D36" s="295">
-        <f t="shared" ref="D36:F36" si="11">D$32*D40</f>
-        <v>461323.62</v>
-      </c>
-      <c r="E36" s="295">
-        <f t="shared" si="11"/>
-        <v>962892.07000000007</v>
-      </c>
-      <c r="F36" s="295">
-        <f t="shared" si="11"/>
-        <v>1079246.304</v>
-      </c>
-      <c r="G36" s="295"/>
-      <c r="H36" s="295"/>
-      <c r="I36" s="295"/>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B37" s="286" t="s">
-        <v>368</v>
-      </c>
-      <c r="C37" s="300">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="D37" s="300">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E37" s="300">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="F37" s="300">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G37" s="300"/>
-      <c r="H37" s="300"/>
-      <c r="I37" s="300"/>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B38" s="286" t="s">
-        <v>369</v>
-      </c>
-      <c r="C38" s="300">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D38" s="300">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E38" s="300">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="F38" s="300">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G38" s="300"/>
-      <c r="H38" s="300"/>
-      <c r="I38" s="300"/>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B39" s="286" t="s">
-        <v>357</v>
-      </c>
-      <c r="C39" s="300">
-        <v>0.107</v>
-      </c>
-      <c r="D39" s="300">
-        <v>0.06</v>
-      </c>
-      <c r="E39" s="300">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F39" s="300">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G39" s="300"/>
-      <c r="H39" s="300"/>
-      <c r="I39" s="300"/>
-    </row>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B40" s="286" t="s">
-        <v>358</v>
-      </c>
-      <c r="C40" s="300">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="D40" s="300">
-        <v>0.18</v>
-      </c>
-      <c r="E40" s="300">
-        <v>0.19</v>
-      </c>
-      <c r="F40" s="300">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="G40" s="300"/>
-      <c r="H40" s="300"/>
-      <c r="I40" s="300"/>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B41" s="87"/>
-      <c r="C41" s="295"/>
-      <c r="D41" s="295"/>
-      <c r="E41" s="295"/>
-      <c r="F41" s="295"/>
-      <c r="G41" s="295"/>
-      <c r="H41" s="295"/>
-      <c r="I41" s="295"/>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B42" s="120"/>
-      <c r="C42" s="296"/>
-      <c r="D42" s="296"/>
-      <c r="E42" s="296"/>
-      <c r="F42" s="296"/>
-      <c r="G42" s="296"/>
-      <c r="H42" s="296"/>
-      <c r="I42" s="120"/>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B43" s="87" t="s">
-        <v>370</v>
-      </c>
-      <c r="C43" s="302">
-        <v>156640</v>
-      </c>
-      <c r="D43" s="302">
-        <v>151461</v>
-      </c>
-      <c r="E43" s="302">
-        <v>194238</v>
-      </c>
-      <c r="F43" s="302">
-        <v>191177</v>
-      </c>
-      <c r="G43" s="302"/>
-      <c r="H43" s="302"/>
-      <c r="I43" s="302"/>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B44" s="87" t="s">
-        <v>368</v>
-      </c>
-      <c r="C44" s="295">
-        <f>C$43*C48</f>
-        <v>31328</v>
-      </c>
-      <c r="D44" s="295">
-        <f t="shared" ref="D44:F44" si="12">D$43*D48</f>
-        <v>37562.328000000001</v>
-      </c>
-      <c r="E44" s="295">
-        <f t="shared" si="12"/>
-        <v>44674.740000000005</v>
-      </c>
-      <c r="F44" s="295">
-        <f t="shared" si="12"/>
-        <v>52382.498000000007</v>
-      </c>
-      <c r="G44" s="295"/>
-      <c r="H44" s="295"/>
-      <c r="I44" s="295"/>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B45" s="87" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45" s="295">
-        <f t="shared" ref="C45:F47" si="13">C$43*C49</f>
-        <v>51377.920000000006</v>
-      </c>
-      <c r="D45" s="295">
-        <f t="shared" si="13"/>
-        <v>76487.805000000008</v>
-      </c>
-      <c r="E45" s="295">
-        <f t="shared" si="13"/>
-        <v>105082.758</v>
-      </c>
-      <c r="F45" s="295">
-        <f t="shared" si="13"/>
-        <v>106294.41200000001</v>
-      </c>
-      <c r="G45" s="295"/>
-      <c r="H45" s="295"/>
-      <c r="I45" s="295"/>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B46" s="87" t="s">
-        <v>357</v>
-      </c>
-      <c r="C46" s="295">
-        <f t="shared" si="13"/>
-        <v>15664</v>
-      </c>
-      <c r="D46" s="295">
-        <f t="shared" si="13"/>
-        <v>7724.5109999999995</v>
-      </c>
-      <c r="E46" s="295">
-        <f t="shared" si="13"/>
-        <v>9129.1859999999997</v>
-      </c>
-      <c r="F46" s="295">
-        <f t="shared" si="13"/>
-        <v>7838.2570000000005</v>
-      </c>
-      <c r="G46" s="295"/>
-      <c r="H46" s="295"/>
-      <c r="I46" s="295"/>
-    </row>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B47" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="C47" s="295">
-        <f t="shared" si="13"/>
-        <v>58270.080000000002</v>
-      </c>
-      <c r="D47" s="295">
-        <f t="shared" si="13"/>
-        <v>29686.356</v>
-      </c>
-      <c r="E47" s="295">
-        <f t="shared" si="13"/>
-        <v>35351.315999999999</v>
-      </c>
-      <c r="F47" s="295">
-        <f t="shared" si="13"/>
-        <v>24661.833000000002</v>
-      </c>
-      <c r="G47" s="295"/>
-      <c r="H47" s="295"/>
-      <c r="I47" s="295"/>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B48" s="286" t="s">
-        <v>368</v>
-      </c>
-      <c r="C48" s="300">
-        <v>0.2</v>
-      </c>
-      <c r="D48" s="300">
-        <v>0.248</v>
-      </c>
-      <c r="E48" s="300">
-        <v>0.23</v>
-      </c>
-      <c r="F48" s="300">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="G48" s="300"/>
-      <c r="H48" s="300"/>
-      <c r="I48" s="300"/>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B49" s="286" t="s">
-        <v>369</v>
-      </c>
-      <c r="C49" s="300">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D49" s="300">
-        <v>0.505</v>
-      </c>
-      <c r="E49" s="300">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="F49" s="300">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="G49" s="300"/>
-      <c r="H49" s="300"/>
-      <c r="I49" s="300"/>
-    </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B50" s="286" t="s">
-        <v>357</v>
-      </c>
-      <c r="C50" s="300">
-        <v>0.1</v>
-      </c>
-      <c r="D50" s="300">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="E50" s="300">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F50" s="300">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="G50" s="300"/>
-      <c r="H50" s="300"/>
-      <c r="I50" s="300"/>
-    </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B51" s="286" t="s">
-        <v>358</v>
-      </c>
-      <c r="C51" s="300">
-        <v>0.372</v>
-      </c>
-      <c r="D51" s="300">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="E51" s="300">
-        <v>0.182</v>
-      </c>
-      <c r="F51" s="300">
-        <v>0.129</v>
-      </c>
-      <c r="G51" s="300"/>
-      <c r="H51" s="300"/>
-      <c r="I51" s="300"/>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B52" s="286"/>
-      <c r="C52" s="300"/>
-      <c r="D52" s="300"/>
-      <c r="E52" s="300"/>
-      <c r="F52" s="300"/>
-      <c r="G52" s="300"/>
-      <c r="H52" s="300"/>
-      <c r="I52" s="300"/>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="87" t="s">
-        <v>367</v>
-      </c>
-      <c r="C53" s="299">
-        <f>C32*1000/(C43*10000)</f>
-        <v>1.02158835546476</v>
-      </c>
-      <c r="D53" s="299">
-        <f>D32*1000/(D43*10000)</f>
-        <v>1.6921247053696991</v>
-      </c>
-      <c r="E53" s="299">
-        <f>E32*1000/(E43*10000)</f>
-        <v>2.6090945129171428</v>
-      </c>
-      <c r="F53" s="299">
-        <f>F32*1000/(F43*10000)</f>
-        <v>3.920328282167834</v>
-      </c>
-      <c r="G53" s="294"/>
-      <c r="H53" s="294"/>
-      <c r="I53" s="294"/>
-    </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="286" t="s">
-        <v>368</v>
-      </c>
-      <c r="C54" s="294">
-        <f t="shared" ref="C54:F57" si="14">(C33*1000)/(C$43*C48*10000)</f>
-        <v>0.9245374616956078</v>
-      </c>
-      <c r="D54" s="294">
-        <f t="shared" si="14"/>
-        <v>1.6034246200075779</v>
-      </c>
-      <c r="E54" s="294">
-        <f t="shared" si="14"/>
-        <v>2.246090058946062</v>
-      </c>
-      <c r="F54" s="294">
-        <f t="shared" si="14"/>
-        <v>2.9903233977119608</v>
-      </c>
-      <c r="G54" s="294"/>
-      <c r="H54" s="294"/>
-      <c r="I54" s="294"/>
-    </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="286" t="s">
-        <v>369</v>
-      </c>
-      <c r="C55" s="294">
-        <f t="shared" si="14"/>
-        <v>1.1025679202272101</v>
-      </c>
-      <c r="D55" s="294">
-        <f t="shared" si="14"/>
-        <v>1.7591395451863205</v>
-      </c>
-      <c r="E55" s="294">
-        <f t="shared" si="14"/>
-        <v>2.6380308661103089</v>
-      </c>
-      <c r="F55" s="294">
-        <f t="shared" si="14"/>
-        <v>4.0895510857146453</v>
-      </c>
-      <c r="G55" s="294"/>
-      <c r="H55" s="294"/>
-      <c r="I55" s="294"/>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B56" s="286" t="s">
-        <v>357</v>
-      </c>
-      <c r="C56" s="294">
-        <f t="shared" si="14"/>
-        <v>1.0930995403472932</v>
-      </c>
-      <c r="D56" s="294">
-        <f t="shared" si="14"/>
-        <v>1.9907349474937637</v>
-      </c>
-      <c r="E56" s="294">
-        <f t="shared" si="14"/>
-        <v>3.6083221987151974</v>
-      </c>
-      <c r="F56" s="294">
-        <f t="shared" si="14"/>
-        <v>6.4063901196401201</v>
-      </c>
-      <c r="G56" s="294"/>
-      <c r="H56" s="294"/>
-      <c r="I56" s="294"/>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B57" s="286" t="s">
-        <v>358</v>
-      </c>
-      <c r="C57" s="294">
-        <f t="shared" si="14"/>
-        <v>0.98314148187200012</v>
-      </c>
-      <c r="D57" s="294">
-        <f t="shared" si="14"/>
-        <v>1.5539920763599278</v>
-      </c>
-      <c r="E57" s="294">
-        <f t="shared" si="14"/>
-        <v>2.7237799860124023</v>
-      </c>
-      <c r="F57" s="294">
-        <f t="shared" si="14"/>
-        <v>4.3761804080013027</v>
-      </c>
-      <c r="G57" s="294"/>
-      <c r="H57" s="294"/>
-      <c r="I57" s="294"/>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="87"/>
-      <c r="C58" s="294"/>
-      <c r="D58" s="294"/>
-      <c r="E58" s="294"/>
-      <c r="F58" s="294"/>
-      <c r="G58" s="294"/>
-      <c r="H58" s="294"/>
-      <c r="I58" s="294"/>
-    </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B59" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="C59" s="304">
-        <v>3247483</v>
-      </c>
-      <c r="D59" s="304">
-        <v>4204256</v>
-      </c>
-      <c r="E59" s="304">
-        <v>4938642</v>
-      </c>
-      <c r="F59" s="304">
-        <v>5294315</v>
-      </c>
-      <c r="G59" s="295"/>
-      <c r="H59" s="295"/>
-      <c r="I59" s="295"/>
-    </row>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="286" t="s">
-        <v>372</v>
-      </c>
-      <c r="C60" s="295"/>
-      <c r="D60" s="295"/>
-      <c r="E60" s="295">
-        <v>3026710</v>
-      </c>
-      <c r="F60" s="295">
-        <v>3309311</v>
-      </c>
-      <c r="G60" s="295"/>
-      <c r="H60" s="295"/>
-      <c r="I60" s="295"/>
-    </row>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B61" s="286" t="s">
-        <v>373</v>
-      </c>
-      <c r="C61" s="295"/>
-      <c r="D61" s="295"/>
-      <c r="E61" s="295">
-        <v>1874556</v>
-      </c>
-      <c r="F61" s="295">
-        <v>1942692</v>
-      </c>
-      <c r="G61" s="295"/>
-      <c r="H61" s="295"/>
-      <c r="I61" s="295"/>
-    </row>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B62" s="286" t="s">
-        <v>369</v>
-      </c>
-      <c r="C62" s="295"/>
-      <c r="D62" s="295"/>
-      <c r="E62" s="295">
-        <v>37376</v>
-      </c>
-      <c r="F62" s="295">
-        <v>42312</v>
-      </c>
-      <c r="G62" s="295"/>
-      <c r="H62" s="295"/>
-      <c r="I62" s="295"/>
-    </row>
-    <row r="63" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B63" s="286" t="s">
-        <v>357</v>
-      </c>
-      <c r="C63" s="295"/>
-      <c r="D63" s="295"/>
-      <c r="E63" s="295"/>
-      <c r="F63" s="295"/>
-      <c r="G63" s="295"/>
-      <c r="H63" s="295"/>
-      <c r="I63" s="295"/>
-    </row>
-    <row r="64" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B64" s="87"/>
-      <c r="C64" s="295"/>
-      <c r="D64" s="295"/>
-      <c r="E64" s="295"/>
-      <c r="F64" s="295"/>
-      <c r="G64" s="295"/>
-      <c r="H64" s="295"/>
-      <c r="I64" s="295"/>
-    </row>
-    <row r="65" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B65" s="137" t="str">
-        <f>"b. "&amp;B8</f>
-        <v>b. 其他</v>
-      </c>
-      <c r="C65" s="302">
-        <f>C8</f>
-        <v>335078</v>
-      </c>
-      <c r="D65" s="302">
-        <f>D8</f>
-        <v>341020</v>
-      </c>
-      <c r="E65" s="302">
-        <f>E8</f>
-        <v>459880</v>
-      </c>
-      <c r="F65" s="302">
-        <f>F8</f>
-        <v>396589</v>
-      </c>
-      <c r="G65" s="137"/>
-      <c r="H65" s="137"/>
-      <c r="I65" s="137"/>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B66" s="87" t="s">
-        <v>374</v>
-      </c>
-      <c r="C66" s="295">
-        <f>C59-2354203</f>
-        <v>893280</v>
-      </c>
-      <c r="D66" s="295">
-        <f>D59-C59</f>
-        <v>956773</v>
-      </c>
-      <c r="E66" s="295">
-        <f>E59-D59</f>
-        <v>734386</v>
-      </c>
-      <c r="F66" s="295">
-        <f>F59-E59</f>
-        <v>355673</v>
-      </c>
-      <c r="G66" s="295"/>
-      <c r="H66" s="295"/>
-      <c r="I66" s="295"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B67" s="286" t="s">
-        <v>360</v>
-      </c>
-      <c r="C67" s="303">
-        <f>C65/C66</f>
-        <v>0.37510970804227117</v>
-      </c>
-      <c r="D67" s="303">
-        <f t="shared" ref="D67:F67" si="15">D65/D66</f>
-        <v>0.35642728212439106</v>
-      </c>
-      <c r="E67" s="303">
-        <f t="shared" si="15"/>
-        <v>0.62621019463878669</v>
-      </c>
-      <c r="F67" s="303">
-        <f t="shared" si="15"/>
-        <v>1.1150382514275754</v>
-      </c>
-      <c r="G67" s="87"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
-    </row>
-    <row r="68" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B68" s="286"/>
-      <c r="C68" s="298"/>
-      <c r="D68" s="298"/>
-      <c r="E68" s="298"/>
-      <c r="F68" s="298"/>
-      <c r="G68" s="286"/>
-      <c r="H68" s="286"/>
-      <c r="I68" s="286"/>
-    </row>
-    <row r="69" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B69" s="301" t="e">
-        <f>"c. "&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C69" s="302" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D69" s="302" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E69" s="302" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F69" s="302" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G69" s="302"/>
-      <c r="H69" s="302"/>
-      <c r="I69" s="302"/>
-    </row>
-    <row r="70" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B70" s="286" t="s">
-        <v>364</v>
-      </c>
-      <c r="C70" s="300" t="e">
-        <f>C69/C9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D70" s="300" t="e">
-        <f>D69/D9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E70" s="300" t="e">
-        <f>E69/E9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F70" s="300" t="e">
-        <f>F69/F9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G70" s="300"/>
-      <c r="H70" s="300"/>
-      <c r="I70" s="300"/>
-    </row>
-    <row r="71" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="72" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B72" s="117" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="74" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B74" s="137" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="302">
-        <f>C11</f>
-        <v>3214958</v>
-      </c>
-      <c r="D74" s="302">
-        <f>D11</f>
-        <v>4204600</v>
-      </c>
-      <c r="E74" s="302">
-        <f>E11</f>
-        <v>7340712</v>
-      </c>
-      <c r="F74" s="302">
-        <f>F11</f>
-        <v>10136404</v>
-      </c>
-      <c r="G74" s="301"/>
-      <c r="H74" s="301"/>
-      <c r="I74" s="301"/>
-    </row>
-    <row r="75" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B75" s="286" t="s">
-        <v>359</v>
-      </c>
-      <c r="C75" s="297"/>
-      <c r="D75" s="297"/>
-      <c r="E75" s="297">
-        <v>4668463</v>
-      </c>
-      <c r="F75" s="297">
-        <v>5278145</v>
-      </c>
-      <c r="G75" s="297"/>
-      <c r="H75" s="297"/>
-      <c r="I75" s="297"/>
-    </row>
-    <row r="76" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B76" s="286" t="s">
-        <v>355</v>
-      </c>
-      <c r="C76" s="297">
-        <f t="shared" ref="C76:E76" si="16">C74-C75</f>
-        <v>3214958</v>
-      </c>
-      <c r="D76" s="297">
-        <f t="shared" si="16"/>
-        <v>4204600</v>
-      </c>
-      <c r="E76" s="297">
-        <f t="shared" si="16"/>
-        <v>2672249</v>
-      </c>
-      <c r="F76" s="297">
-        <f>F74-F75</f>
-        <v>4858259</v>
-      </c>
-      <c r="G76" s="297"/>
-      <c r="H76" s="297"/>
-      <c r="I76" s="297"/>
-    </row>
-    <row r="77" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B77" s="286"/>
-      <c r="C77" s="286"/>
-      <c r="D77" s="286"/>
-      <c r="E77" s="286"/>
-      <c r="F77" s="286"/>
-      <c r="G77" s="286"/>
-      <c r="H77" s="286"/>
-      <c r="I77" s="286"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B78" s="87" t="s">
-        <v>361</v>
-      </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-    </row>
-    <row r="79" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B79" s="87"/>
-      <c r="C79" s="87"/>
-      <c r="D79" s="87"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="87"/>
-      <c r="H79" s="87"/>
-      <c r="I79" s="87"/>
-    </row>
-    <row r="80" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B80" s="137" t="s">
-        <v>363</v>
-      </c>
-      <c r="C80" s="137"/>
-      <c r="D80" s="137"/>
-      <c r="E80" s="137"/>
-      <c r="F80" s="137"/>
-      <c r="G80" s="137"/>
-      <c r="H80" s="137"/>
-      <c r="I80" s="137"/>
-    </row>
-    <row r="81" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="82" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B82" s="117" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="84" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B84" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="86" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B86" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="88" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="89" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B89" s="137" t="s">
-        <v>344</v>
-      </c>
-      <c r="C89" s="302"/>
-      <c r="D89" s="302"/>
-      <c r="E89" s="302"/>
-      <c r="F89" s="302">
-        <v>514000</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="15.75" customHeight="1">
-      <c r="C90" s="302"/>
-      <c r="D90" s="302"/>
-      <c r="E90" s="302"/>
-      <c r="F90" s="296">
-        <v>117000</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="92" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="93" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="94" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="95" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="96" spans="2:6" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -20072,81 +19084,18 @@
     <row r="877" ht="15.75" customHeight="1"/>
     <row r="878" ht="15.75" customHeight="1"/>
     <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G25:I25"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="G19:G21">
-    <cfRule type="containsBlanks" dxfId="8" priority="18">
+    <cfRule type="containsBlanks" dxfId="11" priority="18">
       <formula>LEN(TRIM(G19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsBlanks" dxfId="7" priority="7">
+    <cfRule type="containsBlanks" dxfId="10" priority="7">
       <formula>LEN(TRIM(G25))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20156,17 +19105,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H24">
-    <cfRule type="containsBlanks" dxfId="6" priority="26">
+    <cfRule type="containsBlanks" dxfId="9" priority="26">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:I21">
-    <cfRule type="containsBlanks" dxfId="5" priority="20">
+    <cfRule type="containsBlanks" dxfId="8" priority="20">
       <formula>LEN(TRIM(H21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I24 H26:I26">
-    <cfRule type="containsBlanks" dxfId="4" priority="8">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(H22))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="9">
@@ -20179,7 +19128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I24">
-    <cfRule type="containsBlanks" dxfId="3" priority="22">
+    <cfRule type="containsBlanks" dxfId="6" priority="22">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20193,798 +19142,743 @@
   <dimension ref="B18:S125"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="88" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="19" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="19" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
-      <c r="C18" s="306">
+      <c r="C18" s="291">
         <f t="shared" ref="C18:G18" si="0">D18-1</f>
         <v>2012</v>
       </c>
-      <c r="D18" s="306">
+      <c r="D18" s="291">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="E18" s="306">
+      <c r="E18" s="291">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="F18" s="306">
+      <c r="F18" s="291">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="G18" s="306">
+      <c r="G18" s="291">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="H18" s="306">
+      <c r="H18" s="291">
         <f t="shared" ref="H18:K18" si="1">I18-1</f>
         <v>2017</v>
       </c>
-      <c r="I18" s="306">
+      <c r="I18" s="291">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="J18" s="306">
+      <c r="J18" s="291">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
-      <c r="K18" s="306">
+      <c r="K18" s="291">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="L18" s="306">
+      <c r="L18" s="291">
         <f>M18-1</f>
         <v>2021</v>
       </c>
-      <c r="M18" s="306">
+      <c r="M18" s="291">
         <v>2022</v>
       </c>
-      <c r="N18" s="305"/>
-      <c r="O18" s="305"/>
-      <c r="P18" s="305"/>
-      <c r="Q18" s="305"/>
-      <c r="R18" s="305"/>
-      <c r="S18" s="305"/>
-    </row>
-    <row r="19" spans="2:19" ht="13.9">
+      <c r="N18" s="290"/>
+      <c r="O18" s="290"/>
+      <c r="P18" s="290"/>
+      <c r="Q18" s="290"/>
+      <c r="R18" s="290"/>
+      <c r="S18" s="290"/>
+    </row>
+    <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C19" s="329"/>
-      <c r="D19" s="329"/>
-      <c r="E19" s="329"/>
-      <c r="F19" s="329"/>
-      <c r="G19" s="329"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329"/>
-      <c r="J19" s="329">
+        <v>403</v>
+      </c>
+      <c r="C19" s="314"/>
+      <c r="D19" s="314"/>
+      <c r="E19" s="314"/>
+      <c r="F19" s="314"/>
+      <c r="G19" s="314"/>
+      <c r="H19" s="314"/>
+      <c r="I19" s="314"/>
+      <c r="J19" s="314">
         <v>1600216</v>
       </c>
-      <c r="K19" s="329">
+      <c r="K19" s="314">
         <v>2562909</v>
       </c>
-      <c r="L19" s="329">
+      <c r="L19" s="314">
         <v>5067853</v>
       </c>
-      <c r="M19" s="329">
+      <c r="M19" s="314">
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="13.9">
+    <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C20" s="329"/>
-      <c r="D20" s="329"/>
-      <c r="E20" s="329"/>
-      <c r="F20" s="329"/>
-      <c r="G20" s="329"/>
-      <c r="H20" s="329"/>
-      <c r="I20" s="329"/>
-      <c r="J20" s="329">
+        <v>404</v>
+      </c>
+      <c r="C20" s="314"/>
+      <c r="D20" s="314"/>
+      <c r="E20" s="314"/>
+      <c r="F20" s="314"/>
+      <c r="G20" s="314"/>
+      <c r="H20" s="314"/>
+      <c r="I20" s="314"/>
+      <c r="J20" s="314">
         <v>1306273</v>
       </c>
-      <c r="K20" s="329">
+      <c r="K20" s="314">
         <v>1152691</v>
       </c>
-      <c r="L20" s="329">
+      <c r="L20" s="314">
         <v>1440522</v>
       </c>
-      <c r="M20" s="329">
+      <c r="M20" s="314">
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="13.9">
+    <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C21" s="329"/>
-      <c r="D21" s="329"/>
-      <c r="E21" s="329"/>
-      <c r="F21" s="329"/>
-      <c r="G21" s="329"/>
-      <c r="H21" s="329"/>
-      <c r="I21" s="329"/>
-      <c r="J21" s="329">
+        <v>405</v>
+      </c>
+      <c r="C21" s="314"/>
+      <c r="D21" s="314"/>
+      <c r="E21" s="314"/>
+      <c r="F21" s="314"/>
+      <c r="G21" s="314"/>
+      <c r="H21" s="314"/>
+      <c r="I21" s="314"/>
+      <c r="J21" s="314">
         <v>204561</v>
       </c>
-      <c r="K21" s="329">
+      <c r="K21" s="314">
         <v>207215</v>
       </c>
-      <c r="L21" s="329">
+      <c r="L21" s="314">
         <v>435503</v>
       </c>
-      <c r="M21" s="329">
+      <c r="M21" s="314">
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="13.9">
+    <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C22" s="329"/>
-      <c r="D22" s="329"/>
-      <c r="E22" s="329"/>
-      <c r="F22" s="329"/>
-      <c r="G22" s="329"/>
-      <c r="H22" s="329"/>
-      <c r="I22" s="329"/>
-      <c r="J22" s="329">
+        <v>406</v>
+      </c>
+      <c r="C22" s="314"/>
+      <c r="D22" s="314"/>
+      <c r="E22" s="314"/>
+      <c r="F22" s="314"/>
+      <c r="G22" s="314"/>
+      <c r="H22" s="314"/>
+      <c r="I22" s="314"/>
+      <c r="J22" s="314">
         <v>127850</v>
       </c>
-      <c r="K22" s="329">
+      <c r="K22" s="314">
         <v>263079</v>
       </c>
-      <c r="L22" s="329">
+      <c r="L22" s="314">
         <v>334185</v>
       </c>
-      <c r="M22" s="329">
+      <c r="M22" s="314">
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="13.9">
+    <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C23" s="329"/>
-      <c r="D23" s="329"/>
-      <c r="E23" s="329"/>
-      <c r="F23" s="329"/>
-      <c r="G23" s="329"/>
-      <c r="H23" s="329"/>
-      <c r="I23" s="329"/>
-      <c r="J23" s="329">
+      <c r="C23" s="314"/>
+      <c r="D23" s="314"/>
+      <c r="E23" s="314"/>
+      <c r="F23" s="314"/>
+      <c r="G23" s="314"/>
+      <c r="H23" s="314"/>
+      <c r="I23" s="314"/>
+      <c r="J23" s="314">
         <v>335078</v>
       </c>
-      <c r="K23" s="329">
+      <c r="K23" s="314">
         <v>341020</v>
       </c>
-      <c r="L23" s="329">
+      <c r="L23" s="314">
         <v>459880</v>
       </c>
-      <c r="M23" s="329">
+      <c r="M23" s="314">
         <v>396589</v>
       </c>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="307"/>
-      <c r="C24" s="309"/>
-      <c r="D24" s="309"/>
-      <c r="E24" s="309"/>
-      <c r="F24" s="309"/>
-      <c r="G24" s="309"/>
-      <c r="H24" s="310"/>
-      <c r="I24" s="310"/>
-      <c r="J24" s="310"/>
-      <c r="K24" s="310"/>
-      <c r="L24" s="310"/>
-      <c r="M24" s="310"/>
+      <c r="B24" s="292"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="294"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="295"/>
+      <c r="I24" s="295"/>
+      <c r="J24" s="295"/>
+      <c r="K24" s="295"/>
+      <c r="L24" s="295"/>
+      <c r="M24" s="295"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="307"/>
-      <c r="C25" s="308"/>
-      <c r="D25" s="311"/>
-      <c r="E25" s="311"/>
-      <c r="F25" s="311"/>
-      <c r="G25" s="311"/>
-      <c r="H25" s="311"/>
-      <c r="I25" s="311"/>
-      <c r="J25" s="311"/>
-      <c r="K25" s="311"/>
-      <c r="L25" s="311"/>
-      <c r="M25" s="311"/>
+      <c r="B25" s="292"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="296"/>
+      <c r="E25" s="296"/>
+      <c r="F25" s="296"/>
+      <c r="G25" s="296"/>
+      <c r="H25" s="296"/>
+      <c r="I25" s="296"/>
+      <c r="J25" s="296"/>
+      <c r="K25" s="296"/>
+      <c r="L25" s="296"/>
+      <c r="M25" s="296"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="C26" s="308"/>
-      <c r="D26" s="308"/>
-      <c r="E26" s="308"/>
-      <c r="F26" s="308"/>
-      <c r="G26" s="308"/>
-      <c r="H26" s="308"/>
-      <c r="I26" s="308"/>
-      <c r="J26" s="308"/>
-      <c r="K26" s="308"/>
-      <c r="L26" s="308"/>
-      <c r="M26" s="308"/>
-    </row>
-    <row r="46" spans="2:13" ht="13.15">
-      <c r="B46" s="312" t="s">
-        <v>379</v>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
+      <c r="E26" s="293"/>
+      <c r="F26" s="293"/>
+      <c r="G26" s="293"/>
+      <c r="H26" s="293"/>
+      <c r="I26" s="293"/>
+      <c r="J26" s="293"/>
+      <c r="K26" s="293"/>
+      <c r="L26" s="293"/>
+      <c r="M26" s="293"/>
+    </row>
+    <row r="46" spans="2:13" ht="13">
+      <c r="B46" s="297" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
-      <c r="C47" s="306">
+      <c r="C47" s="291">
         <f t="shared" ref="C47:M47" si="2">C18</f>
         <v>2012</v>
       </c>
-      <c r="D47" s="306">
+      <c r="D47" s="291">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="E47" s="306">
+      <c r="E47" s="291">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="F47" s="306">
+      <c r="F47" s="291">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="G47" s="306">
+      <c r="G47" s="291">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="H47" s="306">
+      <c r="H47" s="291">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="I47" s="306">
+      <c r="I47" s="291">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="J47" s="306">
+      <c r="J47" s="291">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="K47" s="306">
+      <c r="K47" s="291">
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="L47" s="306">
+      <c r="L47" s="291">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="M47" s="306">
+      <c r="M47" s="291">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="307"/>
-      <c r="C48" s="311"/>
-      <c r="D48" s="311"/>
-      <c r="E48" s="311"/>
-      <c r="F48" s="311"/>
-      <c r="G48" s="311"/>
-      <c r="H48" s="311"/>
-      <c r="I48" s="311"/>
-      <c r="J48" s="311"/>
-      <c r="K48" s="311"/>
-      <c r="L48" s="311"/>
-      <c r="M48" s="311"/>
+      <c r="B48" s="292"/>
+      <c r="C48" s="296"/>
+      <c r="D48" s="296"/>
+      <c r="E48" s="296"/>
+      <c r="F48" s="296"/>
+      <c r="G48" s="296"/>
+      <c r="H48" s="296"/>
+      <c r="I48" s="296"/>
+      <c r="J48" s="296"/>
+      <c r="K48" s="296"/>
+      <c r="L48" s="296"/>
+      <c r="M48" s="296"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="307"/>
-      <c r="C49" s="311"/>
-      <c r="D49" s="311"/>
-      <c r="E49" s="311"/>
-      <c r="F49" s="311"/>
-      <c r="G49" s="311"/>
-      <c r="H49" s="311"/>
-      <c r="I49" s="311"/>
-      <c r="J49" s="311"/>
-      <c r="K49" s="311"/>
-      <c r="L49" s="311"/>
-      <c r="M49" s="311"/>
+      <c r="B49" s="292"/>
+      <c r="C49" s="296"/>
+      <c r="D49" s="296"/>
+      <c r="E49" s="296"/>
+      <c r="F49" s="296"/>
+      <c r="G49" s="296"/>
+      <c r="H49" s="296"/>
+      <c r="I49" s="296"/>
+      <c r="J49" s="296"/>
+      <c r="K49" s="296"/>
+      <c r="L49" s="296"/>
+      <c r="M49" s="296"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="307"/>
-      <c r="C50" s="311"/>
-      <c r="D50" s="311"/>
-      <c r="E50" s="311"/>
-      <c r="F50" s="311"/>
-      <c r="G50" s="311"/>
-      <c r="H50" s="311"/>
-      <c r="I50" s="311"/>
-      <c r="J50" s="311"/>
-      <c r="K50" s="311"/>
-      <c r="L50" s="311"/>
-      <c r="M50" s="311"/>
-    </row>
-    <row r="71" spans="2:13" ht="13.15">
-      <c r="B71" s="312" t="s">
-        <v>389</v>
+      <c r="B50" s="292"/>
+      <c r="C50" s="296"/>
+      <c r="D50" s="296"/>
+      <c r="E50" s="296"/>
+      <c r="F50" s="296"/>
+      <c r="G50" s="296"/>
+      <c r="H50" s="296"/>
+      <c r="I50" s="296"/>
+      <c r="J50" s="296"/>
+      <c r="K50" s="296"/>
+      <c r="L50" s="296"/>
+      <c r="M50" s="296"/>
+    </row>
+    <row r="71" spans="2:13" ht="13">
+      <c r="B71" s="297" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
-      <c r="B72" s="307"/>
-      <c r="C72" s="306">
+      <c r="B72" s="292"/>
+      <c r="C72" s="291">
         <f>C47</f>
         <v>2012</v>
       </c>
-      <c r="D72" s="306">
+      <c r="D72" s="291">
         <f t="shared" ref="D72:M72" si="3">D47</f>
         <v>2013</v>
       </c>
-      <c r="E72" s="306">
+      <c r="E72" s="291">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="F72" s="306">
+      <c r="F72" s="291">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="G72" s="306">
+      <c r="G72" s="291">
         <f t="shared" si="3"/>
         <v>2016</v>
       </c>
-      <c r="H72" s="306">
+      <c r="H72" s="291">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="I72" s="306">
+      <c r="I72" s="291">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="J72" s="306">
+      <c r="J72" s="291">
         <f t="shared" si="3"/>
         <v>2019</v>
       </c>
-      <c r="K72" s="306">
+      <c r="K72" s="291">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="L72" s="306">
+      <c r="L72" s="291">
         <f t="shared" si="3"/>
         <v>2021</v>
       </c>
-      <c r="M72" s="306">
+      <c r="M72" s="291">
         <f t="shared" si="3"/>
         <v>2022</v>
       </c>
     </row>
     <row r="73" spans="2:13">
-      <c r="B73" s="307" t="s">
-        <v>380</v>
-      </c>
-      <c r="C73" s="311"/>
-      <c r="D73" s="311"/>
-      <c r="E73" s="311"/>
-      <c r="F73" s="311"/>
-      <c r="G73" s="311"/>
-      <c r="H73" s="311"/>
-      <c r="I73" s="311"/>
-      <c r="J73" s="311"/>
-      <c r="K73" s="311"/>
-      <c r="L73" s="311"/>
-      <c r="M73" s="311"/>
+      <c r="B73" s="292" t="s">
+        <v>359</v>
+      </c>
+      <c r="C73" s="296"/>
+      <c r="D73" s="296"/>
+      <c r="E73" s="296"/>
+      <c r="F73" s="296"/>
+      <c r="G73" s="296"/>
+      <c r="H73" s="296"/>
+      <c r="I73" s="296"/>
+      <c r="J73" s="296"/>
+      <c r="K73" s="296"/>
+      <c r="L73" s="296"/>
+      <c r="M73" s="296"/>
     </row>
     <row r="74" spans="2:13">
-      <c r="B74" s="307" t="s">
-        <v>381</v>
-      </c>
-      <c r="C74" s="308"/>
-      <c r="D74" s="308"/>
-      <c r="E74" s="308"/>
-      <c r="F74" s="308"/>
-      <c r="G74" s="308"/>
-      <c r="H74" s="308"/>
-      <c r="I74" s="308"/>
-      <c r="J74" s="311"/>
-      <c r="K74" s="311"/>
-      <c r="L74" s="311"/>
-      <c r="M74" s="311"/>
+      <c r="B74" s="292" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" s="293"/>
+      <c r="D74" s="293"/>
+      <c r="E74" s="293"/>
+      <c r="F74" s="293"/>
+      <c r="G74" s="293"/>
+      <c r="H74" s="293"/>
+      <c r="I74" s="293"/>
+      <c r="J74" s="296"/>
+      <c r="K74" s="296"/>
+      <c r="L74" s="296"/>
+      <c r="M74" s="296"/>
     </row>
     <row r="75" spans="2:13">
-      <c r="B75" s="307" t="s">
-        <v>382</v>
-      </c>
-      <c r="C75" s="308"/>
-      <c r="D75" s="308"/>
-      <c r="E75" s="308"/>
-      <c r="F75" s="308"/>
-      <c r="G75" s="308"/>
-      <c r="H75" s="308"/>
-      <c r="I75" s="308"/>
-      <c r="J75" s="311"/>
-      <c r="K75" s="311"/>
-      <c r="L75" s="311"/>
-      <c r="M75" s="311"/>
+      <c r="B75" s="292" t="s">
+        <v>361</v>
+      </c>
+      <c r="C75" s="293"/>
+      <c r="D75" s="293"/>
+      <c r="E75" s="293"/>
+      <c r="F75" s="293"/>
+      <c r="G75" s="293"/>
+      <c r="H75" s="293"/>
+      <c r="I75" s="293"/>
+      <c r="J75" s="296"/>
+      <c r="K75" s="296"/>
+      <c r="L75" s="296"/>
+      <c r="M75" s="296"/>
     </row>
     <row r="76" spans="2:13">
-      <c r="B76" s="307" t="s">
-        <v>383</v>
-      </c>
-      <c r="J76" s="311"/>
-      <c r="K76" s="311"/>
-      <c r="L76" s="311"/>
-      <c r="M76" s="311"/>
-    </row>
-    <row r="78" spans="2:13" ht="13.15">
-      <c r="B78" s="312" t="s">
-        <v>388</v>
+      <c r="B76" s="292" t="s">
+        <v>362</v>
+      </c>
+      <c r="J76" s="296"/>
+      <c r="K76" s="296"/>
+      <c r="L76" s="296"/>
+      <c r="M76" s="296"/>
+    </row>
+    <row r="78" spans="2:13" ht="13">
+      <c r="B78" s="297" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
-      <c r="C79" s="306">
+      <c r="C79" s="291">
         <f>C72</f>
         <v>2012</v>
       </c>
-      <c r="D79" s="306">
+      <c r="D79" s="291">
         <f>D72</f>
         <v>2013</v>
       </c>
-      <c r="E79" s="306">
+      <c r="E79" s="291">
         <f t="shared" ref="E79:M79" si="4">E72</f>
         <v>2014</v>
       </c>
-      <c r="F79" s="306">
+      <c r="F79" s="291">
         <f t="shared" si="4"/>
         <v>2015</v>
       </c>
-      <c r="G79" s="306">
+      <c r="G79" s="291">
         <f t="shared" si="4"/>
         <v>2016</v>
       </c>
-      <c r="H79" s="306">
+      <c r="H79" s="291">
         <f t="shared" si="4"/>
         <v>2017</v>
       </c>
-      <c r="I79" s="306">
+      <c r="I79" s="291">
         <f t="shared" si="4"/>
         <v>2018</v>
       </c>
-      <c r="J79" s="306">
+      <c r="J79" s="291">
         <f t="shared" si="4"/>
         <v>2019</v>
       </c>
-      <c r="K79" s="306">
+      <c r="K79" s="291">
         <f t="shared" si="4"/>
         <v>2020</v>
       </c>
-      <c r="L79" s="306">
+      <c r="L79" s="291">
         <f t="shared" si="4"/>
         <v>2021</v>
       </c>
-      <c r="M79" s="306">
+      <c r="M79" s="291">
         <f t="shared" si="4"/>
         <v>2022</v>
       </c>
     </row>
     <row r="80" spans="2:13">
-      <c r="B80" s="307" t="s">
-        <v>386</v>
-      </c>
-      <c r="J80" s="310"/>
-      <c r="K80" s="310"/>
-      <c r="L80" s="310"/>
-      <c r="M80" s="310"/>
+      <c r="B80" s="292" t="s">
+        <v>365</v>
+      </c>
+      <c r="J80" s="295"/>
+      <c r="K80" s="295"/>
+      <c r="L80" s="295"/>
+      <c r="M80" s="295"/>
     </row>
     <row r="81" spans="2:13">
-      <c r="B81" s="307" t="s">
-        <v>387</v>
-      </c>
-      <c r="J81" s="310"/>
-      <c r="K81" s="310"/>
-      <c r="L81" s="310"/>
-      <c r="M81" s="310"/>
+      <c r="B81" s="292" t="s">
+        <v>366</v>
+      </c>
+      <c r="J81" s="295"/>
+      <c r="K81" s="295"/>
+      <c r="L81" s="295"/>
+      <c r="M81" s="295"/>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="307" t="s">
-        <v>385</v>
-      </c>
-      <c r="J82" s="311"/>
-      <c r="K82" s="311"/>
-      <c r="L82" s="311"/>
-      <c r="M82" s="311"/>
+      <c r="B82" s="292" t="s">
+        <v>364</v>
+      </c>
+      <c r="J82" s="296"/>
+      <c r="K82" s="296"/>
+      <c r="L82" s="296"/>
+      <c r="M82" s="296"/>
     </row>
     <row r="103" spans="2:13" ht="15">
-      <c r="C103" s="306">
+      <c r="C103" s="291">
         <v>2012</v>
       </c>
-      <c r="D103" s="306">
+      <c r="D103" s="291">
         <v>2013</v>
       </c>
-      <c r="E103" s="306">
+      <c r="E103" s="291">
         <v>2014</v>
       </c>
-      <c r="F103" s="306">
+      <c r="F103" s="291">
         <v>2015</v>
       </c>
-      <c r="G103" s="306">
+      <c r="G103" s="291">
         <v>2016</v>
       </c>
-      <c r="H103" s="306">
+      <c r="H103" s="291">
         <v>2017</v>
       </c>
-      <c r="I103" s="306">
+      <c r="I103" s="291">
         <v>2018</v>
       </c>
-      <c r="J103" s="306">
+      <c r="J103" s="291">
         <v>2019</v>
       </c>
-      <c r="K103" s="306">
+      <c r="K103" s="291">
         <v>2020</v>
       </c>
-      <c r="L103" s="306">
+      <c r="L103" s="291">
         <v>2021</v>
       </c>
-      <c r="M103" s="306">
+      <c r="M103" s="291">
         <v>2022</v>
       </c>
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>390</v>
-      </c>
-      <c r="J104" s="313">
+        <v>369</v>
+      </c>
+      <c r="J104" s="298">
         <f>Data!F19</f>
         <v>25020</v>
       </c>
-      <c r="K104" s="313">
+      <c r="K104" s="298">
         <f>Data!E19</f>
         <v>68639</v>
       </c>
-      <c r="L104" s="313">
+      <c r="L104" s="298">
         <f>Data!D19</f>
         <v>327798</v>
       </c>
-      <c r="M104" s="313">
+      <c r="M104" s="298">
         <f>Data!C19</f>
         <v>582451</v>
       </c>
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>391</v>
-      </c>
-      <c r="J105" s="313">
+        <v>370</v>
+      </c>
+      <c r="J105" s="298">
         <f>Data!F33</f>
         <v>69000</v>
       </c>
-      <c r="K105" s="313">
+      <c r="K105" s="298">
         <f>Data!E33</f>
         <v>56000</v>
       </c>
-      <c r="L105" s="313">
+      <c r="L105" s="298">
         <f>Data!D33</f>
         <v>247000</v>
       </c>
-      <c r="M105" s="313">
+      <c r="M105" s="298">
         <f>Data!C33</f>
         <v>1176000</v>
       </c>
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>392</v>
-      </c>
-      <c r="J106" s="313">
+        <v>371</v>
+      </c>
+      <c r="J106" s="298">
         <f>Data!F40</f>
         <v>7352</v>
       </c>
-      <c r="K106" s="313">
+      <c r="K106" s="298">
         <f>Data!E40</f>
         <v>37000</v>
       </c>
-      <c r="L106" s="313">
+      <c r="L106" s="298">
         <f>Data!D40</f>
         <v>36302</v>
       </c>
-      <c r="M106" s="313">
+      <c r="M106" s="298">
         <f>Data!C40</f>
         <v>182000</v>
       </c>
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>393</v>
-      </c>
-      <c r="L107" s="313">
+        <v>372</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107" s="298">
         <f>Data!D41</f>
         <v>0</v>
       </c>
-      <c r="M107" s="313">
+      <c r="M107" s="298">
         <f>Data!C41</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>395</v>
-      </c>
-      <c r="J108" s="313">
+        <v>374</v>
+      </c>
+      <c r="J108" s="298">
         <f>Data!F34</f>
         <v>0</v>
       </c>
-      <c r="K108" s="313">
+      <c r="K108" s="298">
         <f>Data!E34</f>
         <v>0</v>
       </c>
-      <c r="L108" s="313">
+      <c r="L108" s="298">
         <f>Data!D34</f>
         <v>0</v>
       </c>
-      <c r="M108" s="313">
+      <c r="M108" s="298">
         <f>Data!C34</f>
         <v>230000</v>
       </c>
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>397</v>
-      </c>
-      <c r="J111" s="313">
+        <v>376</v>
+      </c>
+      <c r="J111" s="298">
         <v>1315974</v>
       </c>
-      <c r="K111" s="313">
+      <c r="K111" s="298">
         <v>2298560</v>
       </c>
-      <c r="L111" s="313">
+      <c r="L111" s="298">
         <v>2061289</v>
       </c>
-      <c r="M111" s="313">
+      <c r="M111" s="298">
         <v>2916855</v>
       </c>
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>398</v>
-      </c>
-      <c r="J112" s="313">
+        <v>377</v>
+      </c>
+      <c r="J112" s="298">
         <v>3886094</v>
       </c>
-      <c r="K112" s="313">
+      <c r="K112" s="298">
         <v>2774281</v>
       </c>
-      <c r="L112" s="313">
+      <c r="L112" s="298">
         <v>4254707</v>
       </c>
-      <c r="M112" s="313">
+      <c r="M112" s="298">
         <v>4294664</v>
       </c>
     </row>
     <row r="113" spans="2:15">
-      <c r="B113" s="307" t="s">
-        <v>399</v>
-      </c>
-      <c r="J113" s="314">
+      <c r="B113" s="292" t="s">
+        <v>378</v>
+      </c>
+      <c r="J113" s="299">
         <v>1.3370230781251284</v>
       </c>
-      <c r="K113" s="314">
+      <c r="K113" s="299">
         <v>1.0795113892766026</v>
       </c>
-      <c r="L113" s="314">
+      <c r="L113" s="299">
         <v>1.2103831624020565</v>
       </c>
-      <c r="M113" s="314">
+      <c r="M113" s="299">
         <v>1.309293938120297</v>
       </c>
     </row>
     <row r="116" spans="2:15">
-      <c r="G116" s="307" t="s">
-        <v>400</v>
-      </c>
-      <c r="H116" s="308"/>
-      <c r="I116" s="316" t="s">
-        <v>401</v>
-      </c>
-      <c r="J116" s="316" t="s">
-        <v>402</v>
-      </c>
-      <c r="K116" s="316" t="s">
-        <v>403</v>
-      </c>
-      <c r="L116" s="316" t="s">
-        <v>411</v>
-      </c>
-      <c r="M116" s="316" t="s">
-        <v>406</v>
-      </c>
+      <c r="G116" s="292"/>
+      <c r="H116" s="293"/>
+      <c r="I116" s="301"/>
+      <c r="J116" s="301"/>
+      <c r="K116" s="301"/>
+      <c r="L116" s="301"/>
+      <c r="M116" s="301"/>
     </row>
     <row r="117" spans="2:15">
-      <c r="H117" s="308"/>
-      <c r="I117" s="310">
-        <f>(M104+L104)/2</f>
-        <v>455124.5</v>
-      </c>
-      <c r="J117" s="308"/>
-      <c r="K117" s="308">
-        <v>10</v>
-      </c>
-      <c r="M117" s="308">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N117" s="315" t="s">
-        <v>21</v>
-      </c>
-      <c r="O117" s="310">
-        <f>I117*K117/M117</f>
-        <v>4137495.4545454541</v>
-      </c>
+      <c r="H117" s="293"/>
+      <c r="I117" s="295"/>
+      <c r="J117" s="293"/>
+      <c r="K117" s="293"/>
+      <c r="M117" s="293"/>
+      <c r="N117" s="300"/>
+      <c r="O117" s="295"/>
     </row>
     <row r="119" spans="2:15">
-      <c r="G119" s="307" t="s">
-        <v>404</v>
-      </c>
-      <c r="I119" s="316" t="s">
-        <v>405</v>
-      </c>
-      <c r="J119" s="316" t="s">
-        <v>402</v>
-      </c>
-      <c r="K119" s="316" t="s">
-        <v>410</v>
-      </c>
-      <c r="L119" s="316" t="s">
-        <v>408</v>
-      </c>
-      <c r="M119" s="316" t="s">
-        <v>407</v>
-      </c>
+      <c r="G119" s="292"/>
+      <c r="I119" s="301"/>
+      <c r="J119" s="301"/>
+      <c r="K119" s="301"/>
+      <c r="L119" s="301"/>
+      <c r="M119" s="301"/>
     </row>
     <row r="120" spans="2:15">
-      <c r="I120" s="310">
-        <f>Asset_Model!C35+Asset_Model!C31+Asset_Model!C36</f>
-        <v>10891</v>
-      </c>
-      <c r="J120" s="316" t="s">
-        <v>402</v>
-      </c>
-      <c r="K120" s="308">
-        <v>0.8</v>
-      </c>
-      <c r="L120" s="315"/>
-      <c r="M120" s="310">
-        <f>Val_Models!C17</f>
-        <v>-805276</v>
-      </c>
-      <c r="N120" s="307" t="s">
-        <v>21</v>
-      </c>
-      <c r="O120" s="317">
-        <f>I120*K120+M120</f>
-        <v>-796563.2</v>
-      </c>
+      <c r="I120" s="295"/>
+      <c r="J120" s="301"/>
+      <c r="K120" s="293"/>
+      <c r="L120" s="300"/>
+      <c r="M120" s="295"/>
+      <c r="N120" s="292"/>
+      <c r="O120" s="302"/>
     </row>
     <row r="122" spans="2:15">
-      <c r="G122" s="307"/>
+      <c r="G122" s="292"/>
     </row>
     <row r="123" spans="2:15">
-      <c r="K123" s="316" t="s">
-        <v>409</v>
-      </c>
-      <c r="L123" s="315" t="s">
-        <v>21</v>
-      </c>
-      <c r="M123" s="310">
-        <f>O117+O120</f>
-        <v>3340932.2545454539</v>
-      </c>
+      <c r="K123" s="301"/>
+      <c r="L123" s="300"/>
+      <c r="M123" s="295"/>
     </row>
     <row r="125" spans="2:15">
-      <c r="M125" s="318">
-        <f>M123*Data!C4/Common_Shares</f>
-        <v>4.2206137837099265</v>
-      </c>
+      <c r="M125" s="303"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21001,18 +19895,18 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D46" sqref="B43:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -21098,7 +19992,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="47" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="J4" s="35"/>
     </row>
@@ -21140,7 +20034,7 @@
       </c>
       <c r="E6" s="171"/>
       <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
+      <c r="G6" s="285"/>
       <c r="H6" s="6"/>
       <c r="I6" s="45"/>
     </row>
@@ -21148,19 +20042,19 @@
       <c r="B7" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="328">
+      <c r="C7" s="313">
         <f>Projections!F24</f>
         <v>2199356.9321999997</v>
       </c>
-      <c r="D7" s="328">
+      <c r="D7" s="313">
         <f>Projections!G24</f>
         <v>316516.54482800013</v>
       </c>
-      <c r="E7" s="248" t="str">
+      <c r="E7" s="247" t="str">
         <f>Projections!H24</f>
         <v/>
       </c>
-      <c r="F7" s="248"/>
+      <c r="F7" s="247"/>
       <c r="G7" s="103"/>
       <c r="H7" s="49"/>
       <c r="I7" s="35"/>
@@ -21187,7 +20081,7 @@
         <f>IF(F4="","",Projections!I21-F7)</f>
         <v/>
       </c>
-      <c r="G8" s="245"/>
+      <c r="G8" s="315"/>
       <c r="H8" s="49"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
@@ -21201,19 +20095,19 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>-2.6444550366887793</v>
       </c>
-      <c r="D9" s="249">
+      <c r="D9" s="248">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>-0.21642081928067405</v>
       </c>
-      <c r="E9" s="249" t="str">
+      <c r="E9" s="248" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="F9" s="249" t="str">
+      <c r="F9" s="248" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="250">
+      <c r="G9" s="249">
         <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Common_Shares</f>
         <v>-0.21642081928067408</v>
       </c>
@@ -21225,17 +20119,17 @@
       <c r="B10" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="247"/>
-      <c r="D10" s="149">
-        <f ca="1">Dashboard!C12</f>
-        <v>9.6000000000000002E-2</v>
+      <c r="C10" s="246"/>
+      <c r="D10" s="149" t="str">
+        <f>IF(Projections!$E2=1,"",Dashboard!C12)</f>
+        <v/>
       </c>
       <c r="E10" s="149" t="str">
-        <f>IF(E4="","",D10)</f>
+        <f>IF(Projections!$E2=2,"",IF(E4="","",D10))</f>
         <v/>
       </c>
       <c r="F10" s="149" t="str">
-        <f>IF(F4="","",D10)</f>
+        <f>IF(Projections!$E2=3,"",IF(F4="","",D10))</f>
         <v/>
       </c>
       <c r="G10" s="149">
@@ -21251,21 +20145,21 @@
         <v>125</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="251">
-        <f ca="1">IF(D4="","",1+D10)</f>
+      <c r="D11" s="250" t="str">
+        <f>IF(D10="","",1+D10)</f>
+        <v/>
+      </c>
+      <c r="E11" s="250" t="str">
+        <f>IF(E10="","",(1+D10)*(1+E10))</f>
+        <v/>
+      </c>
+      <c r="F11" s="250" t="str">
+        <f>IF(F10="","",(1+D10)*(1+E10)*(1+F10))</f>
+        <v/>
+      </c>
+      <c r="G11" s="250">
+        <f ca="1">IF(F10="",IF(E10="",1,D11),E11)*(1+G10)</f>
         <v>1.0960000000000001</v>
-      </c>
-      <c r="E11" s="251" t="str">
-        <f>IF(E4="","",(1+D10)*(1+E10))</f>
-        <v/>
-      </c>
-      <c r="F11" s="251" t="str">
-        <f>IF(F4="","",(1+D10)*(1+E10)*(1+F10))</f>
-        <v/>
-      </c>
-      <c r="G11" s="251">
-        <f ca="1">IF(F4="",IF(E4="",D11,E11),F11)*(1+G10)</f>
-        <v>1.2012160000000003</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="36"/>
@@ -21276,20 +20170,20 @@
         <f>"PV "&amp;B8&amp;" per share"</f>
         <v>PV FCFF per share</v>
       </c>
-      <c r="C12" s="252"/>
-      <c r="D12" s="253">
-        <f ca="1">IF(D9="","",D9/D11)</f>
-        <v>-0.19746425116849822</v>
-      </c>
-      <c r="E12" s="253" t="str">
-        <f>IF(E9="","",E9/E11)</f>
-        <v/>
-      </c>
-      <c r="F12" s="253" t="str">
-        <f>IF(F9="","",F9/F11)</f>
-        <v/>
-      </c>
-      <c r="G12" s="254"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="252" t="str">
+        <f>IF(D11="","",D9/D11)</f>
+        <v/>
+      </c>
+      <c r="E12" s="252" t="str">
+        <f>IF(E11="","",E9/E11)</f>
+        <v/>
+      </c>
+      <c r="F12" s="252" t="str">
+        <f>IF(F11="","",F9/F11)</f>
+        <v/>
+      </c>
+      <c r="G12" s="253"/>
       <c r="H12" s="48"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
@@ -21348,7 +20242,7 @@
       <c r="E16" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="G16" s="265">
+      <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5*Exchange_Rate</f>
         <v>1.9058544257105325</v>
       </c>
@@ -21365,7 +20259,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="351" t="str">
+      <c r="E17" s="339" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -21388,7 +20282,7 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-9.1848316221521439E-2</v>
       </c>
-      <c r="E18" s="351"/>
+      <c r="E18" s="339"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
@@ -21410,10 +20304,10 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="399" t="s">
+      <c r="E20" s="387" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="399"/>
+      <c r="F20" s="387"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
@@ -21421,13 +20315,13 @@
         <f>"TV after Year "&amp;G4</f>
         <v>TV after Year 1</v>
       </c>
-      <c r="C21" s="266" t="s">
-        <v>422</v>
+      <c r="C21" s="265" t="s">
+        <v>389</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="E21" s="267" t="s">
+      <c r="E21" s="266" t="s">
         <v>194</v>
       </c>
       <c r="F21" s="108" t="str">
@@ -21444,24 +20338,24 @@
       <c r="B22" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="C22" s="268">
-        <v>0.8</v>
-      </c>
-      <c r="D22" s="269">
+      <c r="C22" s="267">
+        <v>0.67</v>
+      </c>
+      <c r="D22" s="268">
         <f>C22*D4*Data!C4/Common_Shares</f>
-        <v>11.003056589803064</v>
+        <v>9.2150598939600652</v>
       </c>
       <c r="E22" s="239">
         <f>IF(D22="",IF(G9&lt;0,G9,G9*C22/G11),D22)</f>
-        <v>11.003056589803064</v>
+        <v>9.2150598939600652</v>
       </c>
       <c r="F22" s="239">
-        <f ca="1">SUM(D12:F12)+E22+$G$16</f>
-        <v>12.7114467643451</v>
-      </c>
-      <c r="G22" s="272">
-        <f ca="1">F22*Exchange_Rate</f>
-        <v>12.7114467643451</v>
+        <f>SUM(D12:F12)+E22+$G$16</f>
+        <v>11.120914319670598</v>
+      </c>
+      <c r="G22" s="271">
+        <f>F22*Exchange_Rate</f>
+        <v>11.120914319670598</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -21469,37 +20363,39 @@
       <c r="B23" s="132" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="270">
-        <v>1.36</v>
-      </c>
-      <c r="D23" s="271">
+      <c r="C23" s="269">
+        <v>1.33</v>
+      </c>
+      <c r="D23" s="270">
         <f>C23*D4*Data!C4/Common_Shares</f>
-        <v>18.705196202665206</v>
+        <v>18.292581580547591</v>
       </c>
       <c r="E23" s="98">
         <f>IF(D23="",IF(G9&lt;0,G9,G9*C23/G11),D23)</f>
-        <v>18.705196202665206</v>
+        <v>18.292581580547591</v>
       </c>
       <c r="F23" s="98">
-        <f ca="1">SUM(D12:F12)+E23+$G$16</f>
-        <v>20.413586377207242</v>
-      </c>
-      <c r="G23" s="273">
-        <f ca="1">F23*Exchange_Rate</f>
-        <v>20.413586377207242</v>
-      </c>
-      <c r="I23" s="43"/>
+        <f>SUM(D12:F12)+E23+$G$16</f>
+        <v>20.198436006258124</v>
+      </c>
+      <c r="G23" s="272">
+        <f>F23*Exchange_Rate</f>
+        <v>20.198436006258124</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="15.5" customHeight="1">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="400" t="s">
+      <c r="E24" s="388" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="401"/>
+      <c r="F24" s="389"/>
       <c r="G24" s="143">
-        <f ca="1">MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>16.33970467483266</v>
+        <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
+        <v>15.397075428459509</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21576,10 +20472,7 @@
         <f>F8</f>
         <v/>
       </c>
-      <c r="G28" s="161">
-        <f>D28*1.02</f>
-        <v>-174739.5709245599</v>
-      </c>
+      <c r="G28" s="161"/>
       <c r="I28" s="43" t="s">
         <v>317</v>
       </c>
@@ -21596,9 +20489,7 @@
       </c>
       <c r="E29" s="180"/>
       <c r="F29" s="207"/>
-      <c r="G29" s="207">
-        <v>0.04</v>
-      </c>
+      <c r="G29" s="207"/>
       <c r="I29" s="43"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
@@ -21615,10 +20506,7 @@
       </c>
       <c r="E30" s="161"/>
       <c r="F30" s="161"/>
-      <c r="G30" s="161">
-        <f>IF(F30&lt;&gt;"",F30,IF(E30&lt;&gt;"",E30,D30))*1.05</f>
-        <v>930093.78000000014</v>
-      </c>
+      <c r="G30" s="161"/>
       <c r="I30" s="43" t="s">
         <v>309</v>
       </c>
@@ -21643,36 +20531,30 @@
         <f>Projections!I19</f>
         <v/>
       </c>
-      <c r="G31" s="171">
-        <f>IF(F31&lt;&gt;"",F31,IF(E31&lt;&gt;"",E31,D31))</f>
-        <v>0.25</v>
-      </c>
+      <c r="G31" s="171"/>
       <c r="I31" s="43"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B32" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="C32" s="278">
+      <c r="C32" s="276">
         <f>C30*(C29*(1-Projections!F19))</f>
         <v>24158.28</v>
       </c>
-      <c r="D32" s="278">
+      <c r="D32" s="276">
         <f>(D30*D29)*(1-D31)</f>
         <v>26574.108000000007</v>
       </c>
-      <c r="E32" s="279" t="str">
+      <c r="E32" s="277" t="str">
         <f>IF(E28="","",(E30*E29)*(1-E31))</f>
         <v/>
       </c>
-      <c r="F32" s="279" t="str">
+      <c r="F32" s="277" t="str">
         <f>IF(F28="","",(F30*F29)*(1-F31))</f>
         <v/>
       </c>
-      <c r="G32" s="278">
-        <f>(G30*G29)*(1-Projections!G19)</f>
-        <v>27902.813400000006</v>
-      </c>
+      <c r="G32" s="276"/>
       <c r="I32" s="43"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
@@ -21695,10 +20577,7 @@
         <f>IF(F28="","",F28-F32)</f>
         <v/>
       </c>
-      <c r="G33" s="274">
-        <f>G28-G32</f>
-        <v>-202642.38432455991</v>
-      </c>
+      <c r="G33" s="317"/>
       <c r="I33" s="43" t="s">
         <v>304</v>
       </c>
@@ -21711,21 +20590,21 @@
         <f>C33/(Common_Shares/Data!$C$4)</f>
         <v>-2.6749742935279444</v>
       </c>
-      <c r="D34" s="246">
+      <c r="D34" s="245">
         <f>D33/(Common_Shares/Data!$C$4)</f>
         <v>-0.24999200180375575</v>
       </c>
-      <c r="E34" s="246" t="str">
+      <c r="E34" s="245" t="str">
         <f>IF(E33="","",E33/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="F34" s="246" t="str">
+      <c r="F34" s="245" t="str">
         <f>IF(F33="","",F33/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
       <c r="G34" s="139">
-        <f>G33/(Common_Shares/Data!$C$4)</f>
-        <v>-0.25599897731552329</v>
+        <f>INDEX(D34:F34,Projections!E2)</f>
+        <v>-0.24999200180375575</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="43"/>
@@ -21734,13 +20613,13 @@
       <c r="B35" s="141" t="s">
         <v>306</v>
       </c>
-      <c r="C35" s="275">
+      <c r="C35" s="273">
         <f>Dashboard!C31</f>
-        <v>7.15</v>
-      </c>
-      <c r="D35" s="149">
-        <f ca="1">D10</f>
-        <v>9.6000000000000002E-2</v>
+        <v>7.4</v>
+      </c>
+      <c r="D35" s="149" t="str">
+        <f>D10</f>
+        <v/>
       </c>
       <c r="E35" s="149" t="str">
         <f>IF(E10="","",E10)</f>
@@ -21761,21 +20640,21 @@
         <v>305</v>
       </c>
       <c r="C36" s="75"/>
-      <c r="D36" s="280">
-        <f ca="1">C35*D35</f>
-        <v>0.68640000000000001</v>
-      </c>
-      <c r="E36" s="280" t="str">
+      <c r="D36" s="278" t="str">
+        <f>IF(D35="","",C35*D35)</f>
+        <v/>
+      </c>
+      <c r="E36" s="278" t="str">
         <f>IF(E35="","", $D$36)</f>
         <v/>
       </c>
-      <c r="F36" s="280" t="str">
+      <c r="F36" s="278" t="str">
         <f>IF(F35="","", $D$36)</f>
         <v/>
       </c>
-      <c r="G36" s="280">
-        <f ca="1">D36</f>
-        <v>0.68640000000000001</v>
+      <c r="G36" s="278">
+        <f ca="1">C35*G35</f>
+        <v>0.71040000000000003</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="43"/>
@@ -21784,25 +20663,25 @@
       <c r="B37" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C37" s="276">
+      <c r="C37" s="274">
         <f>Qualitative_Analysis!E64^2</f>
         <v>0.22190829081632654</v>
       </c>
-      <c r="D37" s="246">
-        <f ca="1">D34-D36</f>
-        <v>-0.9363920018037557</v>
-      </c>
-      <c r="E37" s="246" t="str">
-        <f>IF(E34="","",E34-E36)</f>
-        <v/>
-      </c>
-      <c r="F37" s="246" t="str">
-        <f>IF(F34="","",F34-F36)</f>
-        <v/>
-      </c>
-      <c r="G37" s="277">
+      <c r="D37" s="245" t="str">
+        <f>IF(D36="","",D34-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="245" t="str">
+        <f>IF(E36="","",E34-E36)</f>
+        <v/>
+      </c>
+      <c r="F37" s="245" t="str">
+        <f>IF(F36="","",F34-F36)</f>
+        <v/>
+      </c>
+      <c r="G37" s="275">
         <f ca="1">G34-G36</f>
-        <v>-0.94239897731552325</v>
+        <v>-0.96039200180375572</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>303</v>
@@ -21813,9 +20692,9 @@
         <v>125</v>
       </c>
       <c r="C38" s="144"/>
-      <c r="D38" s="149">
-        <f ca="1">D11</f>
-        <v>1.0960000000000001</v>
+      <c r="D38" s="149" t="str">
+        <f>D11</f>
+        <v/>
       </c>
       <c r="E38" s="149" t="str">
         <f>E11</f>
@@ -21826,8 +20705,8 @@
         <v/>
       </c>
       <c r="G38" s="149">
-        <f ca="1">IF(F30="",IF(E30="",D38,E38),F38)*(1+G35-C37)</f>
-        <v>0.95800451326530622</v>
+        <f ca="1">IF(F36="",IF(E36="",1,D38),E38)*(1+G35-C37)</f>
+        <v>0.87409170918367352</v>
       </c>
       <c r="I38" s="43"/>
     </row>
@@ -21836,21 +20715,21 @@
         <v>311</v>
       </c>
       <c r="C39" s="145"/>
-      <c r="D39" s="281">
-        <f ca="1">D37/D38</f>
-        <v>-0.85437226441948511</v>
-      </c>
-      <c r="E39" s="281" t="str">
+      <c r="D39" s="279" t="str">
+        <f>IF(D37="","",D37/D38)</f>
+        <v/>
+      </c>
+      <c r="E39" s="279" t="str">
         <f>IF(E37="","",E37/E38)</f>
         <v/>
       </c>
-      <c r="F39" s="281" t="str">
+      <c r="F39" s="279" t="str">
         <f>IF(F37="","",F37/F38)</f>
         <v/>
       </c>
-      <c r="G39" s="281">
+      <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-0.98371037324595434</v>
+        <v>-1.0987313936436707</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -21860,11 +20739,11 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="402" t="s">
+      <c r="E40" s="390" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="380"/>
-      <c r="G40" s="282">
+      <c r="F40" s="368"/>
+      <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.3279128360057053</v>
       </c>
@@ -21872,19 +20751,19 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="400" t="s">
+      <c r="E41" s="388" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="400"/>
-      <c r="G41" s="283">
+      <c r="F41" s="388"/>
+      <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>0</v>
+        <v>0.22918144236203464</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="255" t="s">
+      <c r="B43" s="254" t="s">
         <v>334</v>
       </c>
       <c r="C43" s="6"/>
@@ -21905,25 +20784,25 @@
       <c r="B44" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="262">
+      <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>8.6600434776613096</v>
-      </c>
-      <c r="D44" s="263" t="str">
+        <v>8.268165254993697</v>
+      </c>
+      <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E44" s="264">
+      <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-2.5540948733270765</v>
-      </c>
-      <c r="F44" s="264">
+        <v>-2.4059062230264465</v>
+      </c>
+      <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.6655616594959703</v>
-      </c>
-      <c r="G44" s="264">
+        <v>1.5901928297031129</v>
+      </c>
+      <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.63932502440355332</v>
+        <v>0.61039473613000628</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -21931,11 +20810,11 @@
       <c r="B45" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C45" s="256">
+      <c r="C45" s="255">
         <f>C4*Data!C4*1/Common_Shares*Exchange_Rate</f>
         <v>13.545603796348407</v>
       </c>
-      <c r="D45" s="257" t="str">
+      <c r="D45" s="256" t="str">
         <f>D44</f>
         <v>HKD</v>
       </c>
@@ -21954,53 +20833,53 @@
       <c r="I45" s="43"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B46" s="258" t="s">
+      <c r="B46" s="257" t="s">
         <v>315</v>
       </c>
-      <c r="C46" s="259">
+      <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.961491356357126</v>
-      </c>
-      <c r="D46" s="257" t="str">
+        <v>10.754215767867578</v>
+      </c>
+      <c r="D46" s="256" t="str">
         <f>D45</f>
         <v>HKD</v>
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-3.4243868037119256</v>
+        <v>-3.3460055926064856</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.1496961600165592</v>
+        <v>2.109046624095269</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.80922870040773665</v>
+        <v>0.79392664436019267</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="B47" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="C47" s="260">
+      <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>6.928034782129048</v>
-      </c>
-      <c r="D47" s="261" t="str">
+        <v>6.6145322039949574</v>
+      </c>
+      <c r="D47" s="260" t="str">
         <f>D45</f>
         <v>HKD</v>
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-1.8991362253248876</v>
+        <v>-1.7805853050843836</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.3586809753735443</v>
+        <v>1.2971988953845566</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.5114600195228427</v>
+        <v>0.48831578890400495</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -22881,22 +21760,37 @@
     <mergeCell ref="E40:F40"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
+  <conditionalFormatting sqref="D10:D12">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(D10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D39">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(D35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D22:G23">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F12 E28:F39">
-    <cfRule type="containsBlanks" dxfId="1" priority="17">
+  <conditionalFormatting sqref="E4:F12">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F39">
+    <cfRule type="containsBlanks" dxfId="1" priority="21">
+      <formula>LEN(TRIM(E28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G28:G32">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+    <cfRule type="containsBlanks" dxfId="0" priority="8">
       <formula>LEN(TRIM(G28))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{B6E9FFE5-BFA5-4858-88BE-381E3175A48C}">
       <formula1>"P/E, P/S, P/D, P/FCFF"</formula1>
     </dataValidation>
@@ -22923,16 +21817,16 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -22947,7 +21841,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.9">
+    <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -22963,7 +21857,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.9">
+    <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -22977,7 +21871,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9">
+    <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -22992,7 +21886,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="13.9">
+    <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -23007,7 +21901,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="13.9">
+    <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -23022,7 +21916,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="13.9">
+    <row r="8" spans="1:7" ht="14">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -23037,7 +21931,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="13.9">
+    <row r="9" spans="1:7" ht="14">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDF9C05-272C-4F62-8BF0-8214580ED1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EF576C-1F94-46B0-9648-9EF57627DE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,19 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1464,34 +1475,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\x"/>
+    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="0.0%"/>
+    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2311,7 +2322,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="391">
@@ -2359,7 +2370,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2459,7 +2470,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2476,8 +2487,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2486,7 +2497,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2511,7 +2522,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2530,16 +2541,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2569,14 +2580,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2670,7 +2681,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2703,7 +2714,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2723,7 +2734,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2731,7 +2742,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2741,7 +2752,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2762,7 +2773,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,7 +2782,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2816,10 +2827,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2828,13 +2839,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2843,7 +2854,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2900,7 +2911,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2942,7 +2953,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2954,13 +2965,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2972,10 +2983,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3052,7 +3063,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3071,7 +3082,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3087,22 +3098,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3112,10 +3123,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3140,10 +3151,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3168,13 +3179,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3187,7 +3198,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10280,10 +10291,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -10489,16 +10496,16 @@
   <dimension ref="A1:L969"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10559,7 +10566,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>7.47</v>
+        <v>7.83</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10597,7 +10604,7 @@
       </c>
       <c r="D6" s="220">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
-        <v>44985</v>
+        <v>45351</v>
       </c>
       <c r="E6" s="128">
         <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
@@ -10609,7 +10616,7 @@
       <c r="H6" s="84"/>
       <c r="I6" s="358">
         <f>I4*I5/1000000</f>
-        <v>5913.0650707200002</v>
+        <v>6198.0320620800003</v>
       </c>
       <c r="J6" s="358"/>
       <c r="K6" s="91"/>
@@ -10620,7 +10627,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>3.0779299368988496E-2</v>
+        <v>2.936415916811546E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10651,11 +10658,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.152038661999036</v>
+        <v>10.641293537276098</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.8502382949267664E-2</v>
+        <v>9.3973537756197892E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10675,11 +10682,11 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>1.4366839645237965</v>
+        <v>1.5059217459466303</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.55147043367780657</v>
+        <v>0.57804732204782139</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -10734,7 +10741,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>8.268165254993697</v>
+        <v>8.2637388301155497</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10776,58 +10783,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>7.47</v>
+        <v>7.83</v>
       </c>
       <c r="C16" s="344">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.23965405192337053</v>
+        <v>0.17316404920565032</v>
       </c>
       <c r="E16" s="338" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="359">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>1.9058544257105325</v>
+        <v>1.9014280008323869</v>
       </c>
       <c r="G16" s="338" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>5.5641455742894674</v>
+        <v>5.9285719991676133</v>
       </c>
       <c r="I16" s="333">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>3.0789825970548861E-3</v>
+        <v>2.9374201787994892E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.6843739859312681</v>
+        <v>8.6814327846863399</v>
       </c>
       <c r="C17" s="345"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>3.8340931112532006E-2</v>
+        <v>3.849078509783177E-2</v>
       </c>
       <c r="E17" s="339"/>
       <c r="F17" s="360"/>
       <c r="G17" s="339"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>6.7785195602207358</v>
+        <v>6.7800047838539532</v>
       </c>
       <c r="I17" s="334"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>2.6484349979929607E-3</v>
+        <v>2.6493322669699148E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10838,14 +10845,14 @@
       <c r="C18" s="346"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.25327240106318616</v>
+        <v>0.25295601422705971</v>
       </c>
       <c r="E18" s="340"/>
       <c r="F18" s="361"/>
       <c r="G18" s="340"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>5.494145574289468</v>
+        <v>5.4985719991676136</v>
       </c>
       <c r="I18" s="335"/>
       <c r="J18" s="158">
@@ -11180,7 +11187,7 @@
       <c r="H37" s="368"/>
       <c r="I37" s="369">
         <f ca="1">Val_Models!C46</f>
-        <v>10.754215767867578</v>
+        <v>10.751874505280242</v>
       </c>
       <c r="J37" s="370"/>
     </row>
@@ -11201,7 +11208,7 @@
       <c r="H38" s="368"/>
       <c r="I38" s="369">
         <f ca="1">Val_Models!C47</f>
-        <v>6.6145322039949574</v>
+        <v>6.6109910640924401</v>
       </c>
       <c r="J38" s="370"/>
     </row>
@@ -11327,11 +11334,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.45327240106318611</v>
+        <v>0.45295601422705967</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.45327240106318611</v>
+        <v>0.45295601422705967</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11346,11 +11353,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.10614429675743819</v>
+        <v>-0.1066228291766973</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-0.10614429675743819</v>
+        <v>-0.1066228291766973</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11375,11 +11382,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.59497630444422112</v>
+        <v>0.59489681251868254</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.59497630444422112</v>
+        <v>0.59489681251868254</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11394,11 +11401,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>4.2703415530559106</v>
+        <v>4.2482085471246753</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>4.2703415530559106</v>
+        <v>4.2482085471246753</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11413,11 +11420,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>2.8465738816080655</v>
+        <v>2.8485533933560045</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.8465738816080655</v>
+        <v>2.8485533933560045</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11432,11 +11439,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.17569562125394833</v>
+        <v>0.17536558073138203</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.17569562125394833</v>
+        <v>0.17536558073138203</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -12565,12 +12572,12 @@
       <selection activeCell="C35" sqref="C35:M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16069,7 +16076,7 @@
       <formula>$C$58="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:M49 D51:M55 C7:M38">
+  <conditionalFormatting sqref="C7:M38 D45:M49 D51:M55">
     <cfRule type="containsBlanks" dxfId="14" priority="5">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
@@ -16109,22 +16116,22 @@
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16202,11 +16209,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="193">
         <f>E49-I49-E53</f>
-        <v>1051142.5712913082</v>
+        <v>1047638.7241246243</v>
       </c>
       <c r="E6" s="149">
         <f>1-D6/D3</f>
-        <v>0.74280305391782897</v>
+        <v>0.74366038651515942</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16227,7 +16234,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.3279128360057053</v>
+        <v>1.3234864111275597</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -16263,7 +16270,7 @@
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="188">
-        <v>44742</v>
+        <v>45107</v>
       </c>
       <c r="E9" s="189" t="s">
         <v>390</v>
@@ -16324,7 +16331,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="14">
+    <row r="12" spans="1:11" ht="13.9">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16349,7 +16356,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="14">
+    <row r="13" spans="1:11" ht="13.9">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16374,7 +16381,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="14">
+    <row r="14" spans="1:11" ht="13.9">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16399,7 +16406,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="14">
+    <row r="15" spans="1:11" ht="13.9">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16424,7 +16431,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="14">
+    <row r="16" spans="1:11" ht="13.9">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16449,7 +16456,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="14">
+    <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
         <v>351</v>
       </c>
@@ -16469,7 +16476,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="14">
+    <row r="18" spans="2:10" ht="13.9">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16488,7 +16495,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="14">
+    <row r="19" spans="2:10" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16512,7 +16519,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="14">
+    <row r="20" spans="2:10" ht="13.9">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16536,7 +16543,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="14">
+    <row r="21" spans="2:10" ht="13.9">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16821,7 +16828,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="14">
+    <row r="33" spans="2:10" ht="13.9">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16850,7 +16857,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="14">
+    <row r="34" spans="2:10" ht="13.9">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16875,7 +16882,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="14">
+    <row r="35" spans="2:10" ht="13.9">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16900,7 +16907,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="14">
+    <row r="36" spans="2:10" ht="13.9">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16924,7 +16931,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="14">
+    <row r="37" spans="2:10" ht="13.9">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16968,7 +16975,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="14">
+    <row r="39" spans="2:10" ht="13.9">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17217,14 +17224,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="14">
+    <row r="51" spans="2:10" ht="13.9">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="14">
+    <row r="52" spans="2:10" ht="13.9">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17239,7 +17246,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="14">
+    <row r="53" spans="2:10" ht="13.9">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17249,11 +17256,11 @@
       </c>
       <c r="D53" s="54">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4366839645237965</v>
+        <v>1.5059217459466303</v>
       </c>
       <c r="E53" s="51">
         <f>MAX(C53,C53*Dashboard!I10)</f>
-        <v>72704.828708691246</v>
+        <v>76208.675875375178</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -17269,7 +17276,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.5" thickBot="1">
+    <row r="55" spans="2:10" ht="14.25" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17284,7 +17291,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.5" thickTop="1">
+    <row r="56" spans="2:10" ht="14.25" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
@@ -17304,7 +17311,7 @@
         <v>0.1995079170063952</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="14">
+    <row r="57" spans="2:10" ht="13.9">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17345,7 +17352,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="14">
+    <row r="60" spans="2:10" ht="13.9">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17380,7 +17387,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="14">
+    <row r="62" spans="2:10" ht="13.9">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17401,14 +17408,14 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="14">
+    <row r="63" spans="2:10" ht="13.9">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="347">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>4377711.8994286917</v>
+        <v>4666182.7379553756</v>
       </c>
       <c r="E63" s="347"/>
       <c r="F63" s="6"/>
@@ -17518,18 +17525,18 @@
   </sheetPr>
   <dimension ref="A1:L879"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19145,12 +19152,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="19" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="19" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19204,7 +19211,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="14">
+    <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>403</v>
       </c>
@@ -19228,7 +19235,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="14">
+    <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
         <v>404</v>
       </c>
@@ -19252,7 +19259,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="14">
+    <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
         <v>405</v>
       </c>
@@ -19276,7 +19283,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="14">
+    <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
         <v>406</v>
       </c>
@@ -19300,7 +19307,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="14">
+    <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
         <v>355</v>
       </c>
@@ -19365,7 +19372,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13">
+    <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
         <v>358</v>
       </c>
@@ -19458,7 +19465,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13">
+    <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
         <v>368</v>
       </c>
@@ -19567,7 +19574,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13">
+    <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
         <v>367</v>
       </c>
@@ -19899,14 +19906,14 @@
       <selection activeCell="D46" sqref="B43:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20224,7 +20231,7 @@
       </c>
       <c r="G15" s="199">
         <f>C15+C16+C17+C18</f>
-        <v>1508626.6712913087</v>
+        <v>1505122.8241246247</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -20244,7 +20251,7 @@
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5*Exchange_Rate</f>
-        <v>1.9058544257105325</v>
+        <v>1.9014280008323869</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20276,11 +20283,11 @@
       </c>
       <c r="C18" s="51">
         <f>-Asset_Model!E53</f>
-        <v>-72704.828708691246</v>
+        <v>-76208.675875375178</v>
       </c>
       <c r="D18" s="106">
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>-9.1848316221521439E-2</v>
+        <v>-9.6274741099667077E-2</v>
       </c>
       <c r="E18" s="339"/>
       <c r="F18" s="89">
@@ -20289,7 +20296,7 @@
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>-1.0753931775487193</v>
+        <v>-1.0798196024268651</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20351,11 +20358,11 @@
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>11.120914319670598</v>
+        <v>11.116487894792453</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>11.120914319670598</v>
+        <v>11.116487894792453</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20376,11 +20383,11 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>20.198436006258124</v>
+        <v>20.194009581379976</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>20.198436006258124</v>
+        <v>20.194009581379976</v>
       </c>
       <c r="I23" s="43" t="s">
         <v>412</v>
@@ -20395,7 +20402,7 @@
       <c r="F24" s="389"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>15.397075428459509</v>
+        <v>15.392649003581361</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20745,7 +20752,7 @@
       <c r="F40" s="368"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.3279128360057053</v>
+        <v>1.3234864111275597</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20757,7 +20764,7 @@
       <c r="F41" s="388"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>0.22918144236203464</v>
+        <v>0.22475501748388904</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20786,7 +20793,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>8.268165254993697</v>
+        <v>8.2637388301155497</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20794,15 +20801,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-2.4059062230264465</v>
+        <v>-2.4059062230264461</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.5901928297031129</v>
+        <v>1.5893415079303412</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.61039473613000628</v>
+        <v>0.61006795668593738</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20820,7 +20827,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-4.4015682661076507</v>
+        <v>-4.4032421175502856</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20838,7 +20845,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.754215767867578</v>
+        <v>10.751874505280242</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20846,15 +20853,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-3.3460055926064856</v>
+        <v>-3.346794096196783</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.109046624095269</v>
+        <v>2.1085874709536054</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.79392664436019267</v>
+        <v>0.79375380137566898</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20863,7 +20870,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>6.6145322039949574</v>
+        <v>6.6109910640924401</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20871,15 +20878,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-1.7805853050843836</v>
+        <v>-1.7809200753729104</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.2971988953845566</v>
+        <v>1.2965044301331556</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.48831578890400495</v>
+        <v>0.48805436534874996</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21817,16 +21824,16 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21841,7 +21848,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="13.9">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21857,7 +21864,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:7" ht="13.9">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21871,7 +21878,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="14">
+    <row r="5" spans="1:7" ht="13.9">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21886,7 +21893,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.9">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21901,7 +21908,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.9">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21916,7 +21923,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.9">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21931,7 +21938,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.9">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EF576C-1F94-46B0-9648-9EF57627DE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6D2DC-DE79-4F61-9731-4465105E74A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1249,9 +1249,6 @@
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>FCInv</t>
-  </si>
-  <si>
     <t>FCInv / Sales</t>
   </si>
   <si>
@@ -1468,6 +1465,9 @@
   </si>
   <si>
     <t>a). It's our job as a value investor to catch the falling knife</t>
+  </si>
+  <si>
+    <t>FCInv - D&amp;A</t>
   </si>
 </sst>
 </file>
@@ -3094,84 +3094,39 @@
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3179,6 +3134,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3195,9 +3151,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3210,6 +3173,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3222,26 +3194,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10540,27 +10540,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="348" t="s">
-        <v>380</v>
-      </c>
-      <c r="D3" s="349"/>
+      <c r="C3" s="333" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="334"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="357" t="s">
+      <c r="I3" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="357"/>
+      <c r="J3" s="345"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="350" t="s">
-        <v>381</v>
-      </c>
-      <c r="D4" s="319"/>
+      <c r="C4" s="335" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="336"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10577,10 +10577,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="351">
+      <c r="C5" s="337">
         <v>45154</v>
       </c>
-      <c r="D5" s="319"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10588,10 +10588,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="318">
+      <c r="I5" s="346">
         <v>791574976</v>
       </c>
-      <c r="J5" s="318"/>
+      <c r="J5" s="346"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10614,11 +10614,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="358">
+      <c r="I6" s="347">
         <f>I4*I5/1000000</f>
         <v>6198.0320620800003</v>
       </c>
-      <c r="J6" s="358"/>
+      <c r="J6" s="347"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10693,30 +10693,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="328">
+      <c r="C11" s="358">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="329"/>
+      <c r="D11" s="359"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="357" t="s">
+      <c r="I11" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="357"/>
+      <c r="J11" s="345"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="364">
+      <c r="C12" s="356">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="365"/>
+      <c r="D12" s="357"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10741,7 +10741,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>8.2637388301155497</v>
+        <v>8.3089712758100784</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10785,28 +10785,28 @@
         <f>I4</f>
         <v>7.83</v>
       </c>
-      <c r="C16" s="344">
+      <c r="C16" s="370">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.17316404920565032</v>
-      </c>
-      <c r="E16" s="338" t="s">
+        <v>0.17621957064670113</v>
+      </c>
+      <c r="E16" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="359">
+      <c r="F16" s="348">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.9014280008323869</v>
       </c>
-      <c r="G16" s="338" t="s">
+      <c r="G16" s="351" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>5.9285719991676133</v>
       </c>
-      <c r="I16" s="333">
+      <c r="I16" s="364">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
@@ -10817,24 +10817,24 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.6814327846863399</v>
-      </c>
-      <c r="C17" s="345"/>
+        <v>8.7114881294058666</v>
+      </c>
+      <c r="C17" s="371"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>3.849078509783177E-2</v>
-      </c>
-      <c r="E17" s="339"/>
-      <c r="F17" s="360"/>
-      <c r="G17" s="339"/>
+        <v>3.696423367549162E-2</v>
+      </c>
+      <c r="E17" s="352"/>
+      <c r="F17" s="349"/>
+      <c r="G17" s="352"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>6.7800047838539532</v>
-      </c>
-      <c r="I17" s="334"/>
+        <v>6.8100601285734799</v>
+      </c>
+      <c r="I17" s="365"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>2.6493322669699148E-3</v>
+        <v>2.6401918545194214E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10842,19 +10842,19 @@
         <f>C37</f>
         <v>7.4</v>
       </c>
-      <c r="C18" s="346"/>
+      <c r="C18" s="372"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.25295601422705971</v>
-      </c>
-      <c r="E18" s="340"/>
-      <c r="F18" s="361"/>
-      <c r="G18" s="340"/>
+        <v>0.25618908623833359</v>
+      </c>
+      <c r="E18" s="353"/>
+      <c r="F18" s="350"/>
+      <c r="G18" s="353"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>5.4985719991676136</v>
       </c>
-      <c r="I18" s="335"/>
+      <c r="I18" s="366"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>3.108108108108108E-3</v>
@@ -10892,84 +10892,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="354" t="s">
-        <v>384</v>
-      </c>
-      <c r="D21" s="355"/>
-      <c r="E21" s="356"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="356"/>
-      <c r="H21" s="356"/>
-      <c r="I21" s="356"/>
-      <c r="J21" s="356"/>
+      <c r="C21" s="340" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="341"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="342"/>
+      <c r="G21" s="342"/>
+      <c r="H21" s="342"/>
+      <c r="I21" s="342"/>
+      <c r="J21" s="342"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="363" t="s">
+      <c r="C22" s="355" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" s="334"/>
+      <c r="E22" s="334"/>
+      <c r="F22" s="334"/>
+      <c r="G22" s="355" t="s">
         <v>385</v>
       </c>
-      <c r="D22" s="349"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="349"/>
-      <c r="G22" s="363" t="s">
-        <v>386</v>
-      </c>
-      <c r="H22" s="363"/>
-      <c r="I22" s="349"/>
-      <c r="J22" s="349"/>
+      <c r="H22" s="355"/>
+      <c r="I22" s="334"/>
+      <c r="J22" s="334"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="336" t="s">
-        <v>388</v>
-      </c>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="336" t="s">
+      <c r="C23" s="343" t="s">
         <v>387</v>
       </c>
-      <c r="H23" s="336"/>
-      <c r="I23" s="337"/>
-      <c r="J23" s="337"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="343" t="s">
+        <v>386</v>
+      </c>
+      <c r="H23" s="343"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="344"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="366" t="s">
-        <v>409</v>
-      </c>
-      <c r="D24" s="366"/>
-      <c r="E24" s="366"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="366"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
+      <c r="C24" s="318" t="s">
+        <v>408</v>
+      </c>
+      <c r="D24" s="318"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="367" t="s">
-        <v>410</v>
-      </c>
-      <c r="D25" s="367"/>
-      <c r="E25" s="367"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
+      <c r="C25" s="319" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" s="319"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="319"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="319"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="319"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11009,208 +11009,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="352"/>
-      <c r="D28" s="353"/>
-      <c r="E28" s="343" t="str">
+      <c r="C28" s="338"/>
+      <c r="D28" s="339"/>
+      <c r="E28" s="369" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="343"/>
-      <c r="G28" s="343"/>
-      <c r="H28" s="343"/>
-      <c r="I28" s="362" t="s">
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="369"/>
+      <c r="I28" s="354" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="362"/>
+      <c r="J28" s="354"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="332">
+      <c r="C29" s="363">
         <f>C33/D27</f>
         <v>0.17939393939393938</v>
       </c>
-      <c r="D29" s="326"/>
-      <c r="E29" s="331">
+      <c r="D29" s="362"/>
+      <c r="E29" s="361">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="326"/>
-      <c r="G29" s="342">
+      <c r="F29" s="362"/>
+      <c r="G29" s="368">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="342"/>
-      <c r="I29" s="341">
+      <c r="H29" s="368"/>
+      <c r="I29" s="367">
         <f>C29+E29+G29</f>
         <v>0.17939393939393938</v>
       </c>
-      <c r="J29" s="341"/>
+      <c r="J29" s="367"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="318">
+      <c r="C30" s="346">
         <v>16000</v>
       </c>
-      <c r="D30" s="319"/>
-      <c r="E30" s="318"/>
-      <c r="F30" s="319"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="318"/>
-      <c r="I30" s="347">
+      <c r="D30" s="336"/>
+      <c r="E30" s="346"/>
+      <c r="F30" s="336"/>
+      <c r="G30" s="346"/>
+      <c r="H30" s="346"/>
+      <c r="I30" s="373">
         <f>C30+E30+G30</f>
         <v>16000</v>
       </c>
-      <c r="J30" s="347"/>
+      <c r="J30" s="373"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="320">
+      <c r="C31" s="360">
         <v>7.4</v>
       </c>
-      <c r="D31" s="319"/>
-      <c r="E31" s="320"/>
-      <c r="F31" s="319"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="D31" s="336"/>
+      <c r="E31" s="360"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="327"/>
+      <c r="J31" s="327"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="327">
+      <c r="C32" s="325">
         <f>C31*$I$5/1000000</f>
         <v>5857.6548224000007</v>
       </c>
-      <c r="D32" s="326"/>
-      <c r="E32" s="327">
+      <c r="D32" s="362"/>
+      <c r="E32" s="325">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="326"/>
-      <c r="G32" s="327">
+      <c r="F32" s="362"/>
+      <c r="G32" s="325">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="327"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="327"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="323">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>118400</v>
       </c>
-      <c r="D33" s="324"/>
-      <c r="E33" s="323">
+      <c r="D33" s="375"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="324"/>
-      <c r="G33" s="323">
+      <c r="F33" s="375"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="323"/>
-      <c r="I33" s="323">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>118400</v>
       </c>
-      <c r="J33" s="323"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="373"/>
-      <c r="E34" s="325">
+      <c r="C34" s="327"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="329">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>7.4</v>
       </c>
-      <c r="F34" s="326"/>
+      <c r="F34" s="362"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="325">
+      <c r="I34" s="329">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>7.4</v>
       </c>
-      <c r="J34" s="325"/>
+      <c r="J34" s="329"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="374"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="321">
+      <c r="C35" s="331"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="328">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>5857.6548224000007</v>
       </c>
-      <c r="F35" s="322"/>
+      <c r="F35" s="374"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="321">
+      <c r="I35" s="328">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>5857.6548224000007</v>
       </c>
-      <c r="J35" s="321"/>
+      <c r="J35" s="328"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="371">
+      <c r="C37" s="323">
         <f>C31</f>
         <v>7.4</v>
       </c>
-      <c r="D37" s="372"/>
+      <c r="D37" s="324"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="368" t="s">
+      <c r="G37" s="320" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="368"/>
-      <c r="I37" s="369">
+      <c r="H37" s="320"/>
+      <c r="I37" s="321">
         <f ca="1">Val_Models!C46</f>
-        <v>10.751874505280242</v>
-      </c>
-      <c r="J37" s="370"/>
+        <v>10.775799238163669</v>
+      </c>
+      <c r="J37" s="322"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="371">
+      <c r="C38" s="323">
         <f>E34</f>
         <v>7.4</v>
       </c>
-      <c r="D38" s="372"/>
+      <c r="D38" s="324"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="368" t="s">
+      <c r="G38" s="320" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="368"/>
-      <c r="I38" s="369">
+      <c r="H38" s="320"/>
+      <c r="I38" s="321">
         <f ca="1">Val_Models!C47</f>
-        <v>6.6109910640924401</v>
-      </c>
-      <c r="J38" s="370"/>
+        <v>6.6471770206480629</v>
+      </c>
+      <c r="J38" s="322"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11334,11 +11334,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.45295601422705967</v>
+        <v>0.45618908623833354</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.45295601422705967</v>
+        <v>0.45618908623833354</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11353,11 +11353,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.1066228291766973</v>
+        <v>-0.10173283504755914</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-0.1066228291766973</v>
+        <v>-0.10173283504755914</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11382,11 +11382,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.59489681251868254</v>
+        <v>0.59570911913272373</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.59489681251868254</v>
+        <v>0.59570911913272373</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11401,11 +11401,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>4.2482085471246753</v>
+        <v>4.484187293365701</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>4.2482085471246753</v>
+        <v>4.484187293365701</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11420,11 +11420,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>2.8485533933560045</v>
+        <v>2.8284540582916762</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.8485533933560045</v>
+        <v>2.8284540582916762</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11439,11 +11439,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.17536558073138203</v>
+        <v>0.17873717482450327</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.17536558073138203</v>
+        <v>0.17873717482450327</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -11494,17 +11494,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12412,6 +12412,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12428,46 +12468,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -13298,7 +13298,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C21" s="150">
         <v>8283100</v>
@@ -13583,7 +13583,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C31" s="150">
         <v>1490300</v>
@@ -13635,7 +13635,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C33" s="161">
         <v>1176000</v>
@@ -13682,7 +13682,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C34" s="161">
         <v>230000</v>
@@ -13810,7 +13810,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="155" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C37" s="149">
         <f>IF(C36="","",C33/C7)</f>
@@ -13861,7 +13861,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="157" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
@@ -14101,7 +14101,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14152,7 +14152,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14476,7 +14476,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14527,7 +14527,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -16116,7 +16116,7 @@
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -16273,7 +16273,7 @@
         <v>45107</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16398,7 +16398,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I14" s="179">
         <v>0</v>
@@ -16458,7 +16458,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C17" s="179">
         <v>2593351</v>
@@ -16586,7 +16586,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16594,7 +16594,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16614,7 +16614,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16623,7 +16623,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16652,7 +16652,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16685,7 +16685,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I33" s="179">
         <v>0</v>
@@ -17062,7 +17062,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17079,7 +17079,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17088,7 +17088,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17137,7 +17137,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17193,7 +17193,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17296,7 +17296,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="347">
+      <c r="D56" s="373">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
@@ -17319,7 +17319,7 @@
       <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="319"/>
+      <c r="E57" s="336"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17335,7 +17335,7 @@
       <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="319"/>
+      <c r="E58" s="336"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17358,7 +17358,7 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="283" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="15"/>
@@ -17413,11 +17413,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="347">
+      <c r="D63" s="373">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>4666182.7379553756</v>
       </c>
-      <c r="E63" s="347"/>
+      <c r="E63" s="373"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17525,8 +17525,8 @@
   </sheetPr>
   <dimension ref="A1:L879"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -17609,7 +17609,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="205">
         <v>1600216</v>
@@ -17631,13 +17631,13 @@
       <c r="I4" s="206"/>
       <c r="J4" s="6"/>
       <c r="K4" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C5" s="196">
         <v>1306273</v>
@@ -17663,7 +17663,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C6" s="196">
         <v>204561</v>
@@ -17689,7 +17689,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C7" s="196">
         <v>127850</v>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="B8" s="118" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C8" s="196">
         <v>335078</v>
@@ -17771,7 +17771,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C10" s="285"/>
       <c r="D10" s="171">
@@ -17863,7 +17863,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C13" s="51">
         <f>C9-C11</f>
@@ -18157,7 +18157,7 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="14" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="C23" s="288"/>
       <c r="D23" s="288"/>
@@ -18177,7 +18177,7 @@
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1">
       <c r="B24" s="85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C24" s="289"/>
       <c r="D24" s="289"/>
@@ -19213,7 +19213,7 @@
     </row>
     <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19237,7 +19237,7 @@
     </row>
     <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19261,7 +19261,7 @@
     </row>
     <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19309,7 +19309,7 @@
     </row>
     <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C23" s="314"/>
       <c r="D23" s="314"/>
@@ -19374,7 +19374,7 @@
     </row>
     <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -19467,7 +19467,7 @@
     </row>
     <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -19519,7 +19519,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="292" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C73" s="296"/>
       <c r="D73" s="296"/>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="292" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="292" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="292" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J76" s="296"/>
       <c r="K76" s="296"/>
@@ -19576,7 +19576,7 @@
     </row>
     <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -19627,7 +19627,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="292" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J80" s="295"/>
       <c r="K80" s="295"/>
@@ -19636,7 +19636,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="292" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J81" s="295"/>
       <c r="K81" s="295"/>
@@ -19645,7 +19645,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="292" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J82" s="296"/>
       <c r="K82" s="296"/>
@@ -19689,7 +19689,7 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
@@ -19710,7 +19710,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
@@ -19731,7 +19731,7 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
@@ -19752,7 +19752,7 @@
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -19771,7 +19771,7 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J108" s="298">
         <f>Data!F34</f>
@@ -19792,7 +19792,7 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J111" s="298">
         <v>1315974</v>
@@ -19809,7 +19809,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J112" s="298">
         <v>3886094</v>
@@ -19826,7 +19826,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="292" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J113" s="299">
         <v>1.3370230781251284</v>
@@ -19902,8 +19902,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D46" sqref="B43:G47"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -19999,7 +19999,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J4" s="35"/>
     </row>
@@ -20165,7 +20165,7 @@
         <v/>
       </c>
       <c r="G11" s="250">
-        <f ca="1">IF(F10="",IF(E10="",1,D11),E11)*(1+G10)</f>
+        <f ca="1">IF(F9="",IF(E9="",1,D11),E11)*(1+G10)</f>
         <v>1.0960000000000001</v>
       </c>
       <c r="H11" s="39"/>
@@ -20266,7 +20266,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="339" t="str">
+      <c r="E17" s="352" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20289,7 +20289,7 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-9.6274741099667077E-2</v>
       </c>
-      <c r="E18" s="339"/>
+      <c r="E18" s="352"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
@@ -20323,7 +20323,7 @@
         <v>TV after Year 1</v>
       </c>
       <c r="C21" s="265" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>326</v>
@@ -20390,7 +20390,7 @@
         <v>20.194009581379976</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.5" customHeight="1">
@@ -20712,8 +20712,8 @@
         <v/>
       </c>
       <c r="G38" s="149">
-        <f ca="1">IF(F36="",IF(E36="",1,D38),E38)*(1+G35-C37)</f>
-        <v>0.87409170918367352</v>
+        <f ca="1">IF(F34="",IF(E34="",1,D38),E38)*(1+G35)*(1+G35-C37)</f>
+        <v>0.95800451326530622</v>
       </c>
       <c r="I38" s="43"/>
     </row>
@@ -20736,7 +20736,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-1.0987313936436707</v>
+        <v>-1.002492147485101</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20749,7 +20749,7 @@
       <c r="E40" s="390" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="368"/>
+      <c r="F40" s="320"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.3234864111275597</v>
@@ -20764,7 +20764,7 @@
       <c r="F41" s="388"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>0.22475501748388904</v>
+        <v>0.32099426364245875</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>8.2637388301155497</v>
+        <v>8.3089712758100784</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20801,15 +20801,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-2.4059062230264461</v>
+        <v>-2.4230108608693968</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.5893415079303412</v>
+        <v>1.5980409362309467</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.61006795668593738</v>
+        <v>0.61340722796351033</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20845,7 +20845,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.751874505280242</v>
+        <v>10.775799238163669</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20853,15 +20853,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-3.346794096196783</v>
+        <v>-3.355841227855858</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.1085874709536054</v>
+        <v>2.1132794334555052</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.79375380137566898</v>
+        <v>0.79552003736212806</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20870,7 +20870,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>6.6109910640924401</v>
+        <v>6.6471770206480629</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20878,15 +20878,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-1.7809200753729104</v>
+        <v>-1.794603785647271</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.2965044301331556</v>
+        <v>1.303600983815975</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.48805436534874996</v>
+        <v>0.49072578237080827</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -22072,7 +22072,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="119" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6D2DC-DE79-4F61-9731-4465105E74A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B800FF87-F5E4-4B63-9954-19D23D04EEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,8 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="32"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -46,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="416">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1252,9 +1241,6 @@
     <t>FCInv / Sales</t>
   </si>
   <si>
-    <t>FCInv = Δ PP&amp;E + R&amp;D</t>
-  </si>
-  <si>
     <t>Reinvestment =</t>
   </si>
   <si>
@@ -1467,7 +1453,13 @@
     <t>a). It's our job as a value investor to catch the falling knife</t>
   </si>
   <si>
-    <t>FCInv - D&amp;A</t>
+    <t xml:space="preserve">FCInv </t>
+  </si>
+  <si>
+    <t>FCInv = Δ PP&amp;E + D&amp;A</t>
+  </si>
+  <si>
+    <t>- D&amp;A</t>
   </si>
 </sst>
 </file>
@@ -1475,34 +1467,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\x"/>
-    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1745,7 +1737,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1888,6 +1880,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2322,10 +2320,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2370,7 +2368,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2470,7 +2468,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2487,8 +2485,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2497,7 +2495,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2522,7 +2520,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2541,16 +2539,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2580,14 +2578,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2681,7 +2679,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2714,7 +2712,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2734,7 +2732,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2742,7 +2740,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2752,7 +2750,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2773,7 +2771,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2782,7 +2780,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2827,10 +2825,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2839,13 +2837,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2854,7 +2852,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2911,7 +2909,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2953,7 +2951,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2965,13 +2963,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2983,10 +2981,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3063,7 +3061,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3082,7 +3080,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3092,6 +3090,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3111,17 +3118,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3135,13 +3142,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3161,7 +3168,7 @@
     <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3200,14 +3207,14 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3219,10 +3226,10 @@
     <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3285,7 +3292,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3347,6 +3354,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
@@ -3370,6 +3384,13 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10495,17 +10516,17 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10540,27 +10561,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="333" t="s">
-        <v>379</v>
-      </c>
-      <c r="D3" s="334"/>
+      <c r="C3" s="336" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="345" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="345"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="335" t="s">
-        <v>380</v>
-      </c>
-      <c r="D4" s="336"/>
+      <c r="C4" s="338" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10577,10 +10598,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="337">
+      <c r="C5" s="340">
         <v>45154</v>
       </c>
-      <c r="D5" s="336"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10588,10 +10609,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="346">
+      <c r="I5" s="349">
         <v>791574976</v>
       </c>
-      <c r="J5" s="346"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10614,11 +10635,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="347">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
         <v>6198.0320620800003</v>
       </c>
-      <c r="J6" s="347"/>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10693,30 +10714,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="358">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="359"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="345" t="s">
+      <c r="I11" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="345"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="356">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="357"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10741,7 +10762,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>8.3089712758100784</v>
+        <v>8.4067921463450137</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10785,28 +10806,28 @@
         <f>I4</f>
         <v>7.83</v>
       </c>
-      <c r="C16" s="370">
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.17621957064670113</v>
-      </c>
-      <c r="E16" s="351" t="s">
+        <v>0.1828275212607422</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="348">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.9014280008323869</v>
       </c>
-      <c r="G16" s="351" t="s">
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>5.9285719991676133</v>
       </c>
-      <c r="I16" s="364">
+      <c r="I16" s="367">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
@@ -10817,47 +10838,47 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.7114881294058666</v>
-      </c>
-      <c r="C17" s="371"/>
+        <v>8.7764866042738117</v>
+      </c>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>3.696423367549162E-2</v>
-      </c>
-      <c r="E17" s="352"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="352"/>
+        <v>3.369862903898424E-2</v>
+      </c>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>6.8100601285734799</v>
-      </c>
-      <c r="I17" s="365"/>
+        <v>6.8750586034414249</v>
+      </c>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>2.6401918545194214E-3</v>
+        <v>2.6206386492745154E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>7.4</v>
-      </c>
-      <c r="C18" s="372"/>
+        <v>7.44</v>
+      </c>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.25618908623833359</v>
-      </c>
-      <c r="E18" s="353"/>
-      <c r="F18" s="350"/>
-      <c r="G18" s="353"/>
+        <v>0.25531444777844237</v>
+      </c>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>5.4985719991676136</v>
-      </c>
-      <c r="I18" s="366"/>
+        <v>5.5385719991676137</v>
+      </c>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>3.108108108108108E-3</v>
+        <v>3.0913978494623655E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -10892,84 +10913,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="340" t="s">
-        <v>383</v>
-      </c>
-      <c r="D21" s="341"/>
-      <c r="E21" s="342"/>
-      <c r="F21" s="342"/>
-      <c r="G21" s="342"/>
-      <c r="H21" s="342"/>
-      <c r="I21" s="342"/>
-      <c r="J21" s="342"/>
+      <c r="C21" s="343" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="355" t="s">
+      <c r="C22" s="358" t="s">
+        <v>383</v>
+      </c>
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>384</v>
       </c>
-      <c r="D22" s="334"/>
-      <c r="E22" s="334"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="355" t="s">
-        <v>385</v>
-      </c>
-      <c r="H22" s="355"/>
-      <c r="I22" s="334"/>
-      <c r="J22" s="334"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="343" t="s">
-        <v>387</v>
-      </c>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="343" t="s">
+      <c r="C23" s="346" t="s">
         <v>386</v>
       </c>
-      <c r="H23" s="343"/>
-      <c r="I23" s="344"/>
-      <c r="J23" s="344"/>
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
+        <v>385</v>
+      </c>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="318" t="s">
-        <v>408</v>
-      </c>
-      <c r="D24" s="318"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="318"/>
+      <c r="C24" s="321" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="319" t="s">
-        <v>409</v>
-      </c>
-      <c r="D25" s="319"/>
-      <c r="E25" s="319"/>
-      <c r="F25" s="319"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="319"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
+      <c r="C25" s="322" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11009,208 +11030,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="338"/>
-      <c r="D28" s="339"/>
-      <c r="E28" s="369" t="str">
+      <c r="C28" s="341"/>
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="369"/>
-      <c r="I28" s="354" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="354"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="363">
+      <c r="C29" s="366">
         <f>C33/D27</f>
-        <v>0.17939393939393938</v>
-      </c>
-      <c r="D29" s="362"/>
-      <c r="E29" s="361">
+        <v>0.18036363636363636</v>
+      </c>
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="362"/>
-      <c r="G29" s="368">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="368"/>
-      <c r="I29" s="367">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
-        <v>0.17939393939393938</v>
-      </c>
-      <c r="J29" s="367"/>
+        <v>0.18036363636363636</v>
+      </c>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="346">
+      <c r="C30" s="349">
         <v>16000</v>
       </c>
-      <c r="D30" s="336"/>
-      <c r="E30" s="346"/>
-      <c r="F30" s="336"/>
-      <c r="G30" s="346"/>
-      <c r="H30" s="346"/>
-      <c r="I30" s="373">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349"/>
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>16000</v>
       </c>
-      <c r="J30" s="373"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="360">
-        <v>7.4</v>
-      </c>
-      <c r="D31" s="336"/>
-      <c r="E31" s="360"/>
-      <c r="F31" s="336"/>
-      <c r="G31" s="360"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="327"/>
+      <c r="C31" s="363">
+        <v>7.44</v>
+      </c>
+      <c r="D31" s="339"/>
+      <c r="E31" s="363"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="325">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
-        <v>5857.6548224000007</v>
-      </c>
-      <c r="D32" s="362"/>
-      <c r="E32" s="325">
+        <v>5889.3178214400004</v>
+      </c>
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="362"/>
-      <c r="G32" s="325">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="325"/>
-      <c r="I32" s="327"/>
-      <c r="J32" s="327"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
-        <v>118400</v>
-      </c>
-      <c r="D33" s="375"/>
-      <c r="E33" s="326">
+        <v>119040</v>
+      </c>
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="375"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
-        <v>118400</v>
-      </c>
-      <c r="J33" s="326"/>
+        <v>119040</v>
+      </c>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="327"/>
-      <c r="D34" s="330"/>
-      <c r="E34" s="329">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>7.4</v>
-      </c>
-      <c r="F34" s="362"/>
+        <v>7.44</v>
+      </c>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="329">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>7.4</v>
-      </c>
-      <c r="J34" s="329"/>
+        <v>7.44</v>
+      </c>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="331"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="328">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>5857.6548224000007</v>
-      </c>
-      <c r="F35" s="374"/>
+        <v>5889.3178214400004</v>
+      </c>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="328">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>5857.6548224000007</v>
-      </c>
-      <c r="J35" s="328"/>
+        <v>5889.3178214400004</v>
+      </c>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="323">
+      <c r="C37" s="326">
         <f>C31</f>
-        <v>7.4</v>
-      </c>
-      <c r="D37" s="324"/>
+        <v>7.44</v>
+      </c>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="320" t="s">
+      <c r="G37" s="323" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="320"/>
-      <c r="I37" s="321">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
-        <v>10.775799238163669</v>
-      </c>
-      <c r="J37" s="322"/>
+        <v>10.827539491471612</v>
+      </c>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="323">
+      <c r="C38" s="326">
         <f>E34</f>
-        <v>7.4</v>
-      </c>
-      <c r="D38" s="324"/>
+        <v>7.44</v>
+      </c>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="320" t="s">
+      <c r="G38" s="323" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="320"/>
-      <c r="I38" s="321">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
-        <v>6.6471770206480629</v>
-      </c>
-      <c r="J38" s="322"/>
+        <v>6.7254337170760108</v>
+      </c>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11334,11 +11355,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.45618908623833354</v>
+        <v>0.45531444777844232</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.45618908623833354</v>
+        <v>0.45531444777844232</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11353,11 +11374,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.10173283504755914</v>
+        <v>-9.6043855231718989E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-0.10173283504755914</v>
+        <v>-9.6043855231718989E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11382,11 +11403,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.59570911913272373</v>
+        <v>0.59619055326831849</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.59570911913272373</v>
+        <v>0.59619055326831849</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11401,11 +11422,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>4.484187293365701</v>
+        <v>4.7406931623052166</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>4.484187293365701</v>
+        <v>4.7406931623052166</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11420,11 +11441,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>2.8284540582916762</v>
+        <v>2.8233649296961296</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.8284540582916762</v>
+        <v>2.8233649296961296</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11439,11 +11460,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.17873717482450327</v>
+        <v>0.18099365684417548</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.17873717482450327</v>
+        <v>0.18099365684417548</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -11494,17 +11515,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12471,12 +12492,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>$B$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12491,17 +12512,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12511,17 +12532,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:H28">
-    <cfRule type="containsBlanks" dxfId="18" priority="13">
+    <cfRule type="containsBlanks" dxfId="20" priority="13">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="16" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12568,16 +12589,16 @@
   </sheetPr>
   <dimension ref="A1:N949"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:M35"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -13298,7 +13319,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" s="150">
         <v>8283100</v>
@@ -13583,7 +13604,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="155" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C31" s="150">
         <v>1490300</v>
@@ -13635,7 +13656,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="C33" s="161">
         <v>1176000</v>
@@ -13682,7 +13703,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C34" s="161">
         <v>230000</v>
@@ -13861,7 +13882,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="157" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
@@ -14101,7 +14122,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14152,7 +14173,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14476,7 +14497,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14527,7 +14548,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -16072,22 +16093,22 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B60:M61">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$C$58="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:M38 D45:M49 D51:M55">
-    <cfRule type="containsBlanks" dxfId="14" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:M43">
-    <cfRule type="containsBlanks" dxfId="13" priority="7">
+    <cfRule type="containsBlanks" dxfId="15" priority="7">
       <formula>LEN(TRIM(C40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="12" priority="6">
+    <cfRule type="containsBlanks" dxfId="14" priority="6">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16116,22 +16137,22 @@
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16273,7 +16294,7 @@
         <v>45107</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16331,7 +16352,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9">
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16356,7 +16377,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9">
+    <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16381,7 +16402,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9">
+    <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16398,7 +16419,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I14" s="179">
         <v>0</v>
@@ -16406,7 +16427,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9">
+    <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16431,7 +16452,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9">
+    <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16456,9 +16477,9 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9">
+    <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C17" s="179">
         <v>2593351</v>
@@ -16476,7 +16497,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9">
+    <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16495,7 +16516,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9">
+    <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16519,7 +16540,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="13.9">
+    <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16543,7 +16564,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9">
+    <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16586,7 +16607,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16594,7 +16615,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16614,7 +16635,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16623,7 +16644,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16643,7 +16664,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16652,7 +16673,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16685,7 +16706,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -16828,7 +16849,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9">
+    <row r="33" spans="2:10" ht="14">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16850,14 +16871,14 @@
         <v>0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I33" s="179">
         <v>0</v>
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9">
+    <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16882,7 +16903,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9">
+    <row r="35" spans="2:10" ht="14">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16907,7 +16928,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9">
+    <row r="36" spans="2:10" ht="14">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16931,7 +16952,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9">
+    <row r="37" spans="2:10" ht="14">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16975,7 +16996,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9">
+    <row r="39" spans="2:10" ht="14">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17062,7 +17083,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17079,7 +17100,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17088,7 +17109,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17107,7 +17128,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17137,7 +17158,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17193,7 +17214,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17224,14 +17245,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9">
+    <row r="51" spans="2:10" ht="14">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9">
+    <row r="52" spans="2:10" ht="14">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17246,7 +17267,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9">
+    <row r="53" spans="2:10" ht="14">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17276,31 +17297,31 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.25" thickBot="1">
+    <row r="55" spans="2:10" ht="14.5" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="376">
+      <c r="D55" s="379">
         <f>D56+D57+D58</f>
         <v>805276</v>
       </c>
-      <c r="E55" s="377"/>
+      <c r="E55" s="380"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.25" thickTop="1">
+    <row r="56" spans="2:10" ht="14.5" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="373">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
-      <c r="E56" s="378"/>
+      <c r="E56" s="381"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="6" t="s">
@@ -17311,15 +17332,15 @@
         <v>0.1995079170063952</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="13.9">
+    <row r="57" spans="2:10" ht="14">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="383">
+      <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="336"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17332,10 +17353,10 @@
         <v>111</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="383">
+      <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="336"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17352,13 +17373,13 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9">
+    <row r="60" spans="2:10" ht="14">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="283" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="15"/>
@@ -17387,7 +17408,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9">
+    <row r="62" spans="2:10" ht="14">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17408,16 +17429,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9">
+    <row r="63" spans="2:10" ht="14">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="373">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>4666182.7379553756</v>
       </c>
-      <c r="E63" s="373"/>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17449,11 +17470,11 @@
         <v>223</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="D66" s="381">
+      <c r="D66" s="384">
         <f>((C28-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I28)/Data!C7</f>
         <v>1.0112977915964591E-2</v>
       </c>
-      <c r="E66" s="382"/>
+      <c r="E66" s="385"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -17464,10 +17485,10 @@
         <v>222</v>
       </c>
       <c r="C67" s="6"/>
-      <c r="D67" s="379">
+      <c r="D67" s="382">
         <v>0.34289999999999998</v>
       </c>
-      <c r="E67" s="380"/>
+      <c r="E67" s="383"/>
       <c r="F67" s="109" t="s">
         <v>209</v>
       </c>
@@ -17480,10 +17501,10 @@
         <v>224</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="379">
+      <c r="D68" s="382">
         <v>0.34289999999999998</v>
       </c>
-      <c r="E68" s="380"/>
+      <c r="E68" s="383"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -17523,20 +17544,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L879"/>
+  <dimension ref="A1:L880"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -17609,7 +17630,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C4" s="205">
         <v>1600216</v>
@@ -17631,13 +17652,13 @@
       <c r="I4" s="206"/>
       <c r="J4" s="6"/>
       <c r="K4" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C5" s="196">
         <v>1306273</v>
@@ -17663,7 +17684,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="196">
         <v>204561</v>
@@ -17689,7 +17710,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C7" s="196">
         <v>127850</v>
@@ -17715,7 +17736,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="B8" s="118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C8" s="196">
         <v>335078</v>
@@ -17771,7 +17792,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C10" s="285"/>
       <c r="D10" s="171">
@@ -17863,7 +17884,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C13" s="51">
         <f>C9-C11</f>
@@ -18156,89 +18177,109 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B23" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C23" s="288"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="288"/>
-      <c r="F23" s="95">
+      <c r="B23" s="318" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" s="319"/>
+      <c r="D23" s="319">
+        <v>140695</v>
+      </c>
+      <c r="E23" s="319">
+        <v>157454</v>
+      </c>
+      <c r="F23" s="319">
+        <v>160871</v>
+      </c>
+      <c r="G23" s="320">
+        <f>F23</f>
+        <v>160871</v>
+      </c>
+      <c r="H23" s="320"/>
+      <c r="I23" s="320"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B24" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" s="288"/>
+      <c r="D24" s="288"/>
+      <c r="E24" s="288"/>
+      <c r="F24" s="95">
         <f>Data!C33</f>
         <v>1176000</v>
       </c>
-      <c r="G23" s="161">
+      <c r="G24" s="161">
         <v>260000</v>
       </c>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161" t="str">
-        <f>IF(I16="","",IF(ABS(H24+I24)=ABS(H24)+ABS(I24),IF(I24&lt;0,-1,1)*(I24-H24)/H24,"Turn"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B24" s="85" t="s">
-        <v>346</v>
-      </c>
-      <c r="C24" s="289"/>
-      <c r="D24" s="289"/>
-      <c r="E24" s="289"/>
-      <c r="F24" s="214">
-        <f>F22+F23</f>
-        <v>2199356.9321999997</v>
-      </c>
-      <c r="G24" s="214">
-        <f>IF(G16="","",G22+G23)</f>
-        <v>316516.54482800013</v>
-      </c>
-      <c r="H24" s="214" t="str">
-        <f>IF(H16="","",H22+H23)</f>
-        <v/>
-      </c>
-      <c r="I24" s="214" t="str">
-        <f>IF(I16="","",I22+I23)</f>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161" t="str">
+        <f>IF(I16="","",IF(ABS(H25+I25)=ABS(H25)+ABS(I25),IF(I25&lt;0,-1,1)*(I25-H25)/H25,"Turn"))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" s="289"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="289"/>
+      <c r="F25" s="214">
+        <f>F22-F23+F24</f>
+        <v>2038485.9321999999</v>
+      </c>
+      <c r="G25" s="214">
+        <f>IF(G16="","",G22-G23+G24)</f>
+        <v>155645.5448280001</v>
+      </c>
+      <c r="H25" s="214" t="str">
+        <f>IF(H16="","",H22-H23+H24)</f>
+        <v/>
+      </c>
+      <c r="I25" s="214" t="str">
+        <f>IF(I16="","",I22-I23+I24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B26" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C25" s="285"/>
-      <c r="D25" s="285"/>
-      <c r="E25" s="285"/>
-      <c r="F25" s="171">
+      <c r="C26" s="285"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="171">
         <f>AVERAGE(Data!C54:E54)</f>
         <v>2.6497863572380802E-2</v>
       </c>
-      <c r="G25" s="384"/>
-      <c r="H25" s="385"/>
-      <c r="I25" s="386"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B26" s="84" t="s">
+      <c r="G26" s="387"/>
+      <c r="H26" s="388"/>
+      <c r="I26" s="389"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B27" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="289"/>
-      <c r="D26" s="289"/>
-      <c r="E26" s="289"/>
-      <c r="F26" s="214">
-        <f>F21-F24</f>
-        <v>-2093284.4321999997</v>
-      </c>
-      <c r="G26" s="214">
-        <f>G21-G24</f>
-        <v>-171313.30482799991</v>
-      </c>
-      <c r="H26" s="214" t="str">
-        <f>IF(H21="","",H21-H24)</f>
-        <v/>
-      </c>
-      <c r="I26" s="214" t="str">
-        <f>IF(I21="","",I21-I24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
+      <c r="C27" s="289"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="214">
+        <f>F21-F25</f>
+        <v>-1932413.4321999999</v>
+      </c>
+      <c r="G27" s="214">
+        <f>G21-G25</f>
+        <v>-10442.304827999877</v>
+      </c>
+      <c r="H27" s="214" t="str">
+        <f>IF(H21="","",H21-H25)</f>
+        <v/>
+      </c>
+      <c r="I27" s="214" t="str">
+        <f>IF(I21="","",I21-I25)</f>
+        <v/>
+      </c>
+    </row>
     <row r="28" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
@@ -19091,51 +19132,70 @@
     <row r="877" ht="15.75" customHeight="1"/>
     <row r="878" ht="15.75" customHeight="1"/>
     <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
+  <conditionalFormatting sqref="C23:G23">
+    <cfRule type="containsBlanks" priority="2">
+      <formula>LEN(TRIM(C23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:I23">
+    <cfRule type="containsBlanks" dxfId="13" priority="1">
+      <formula>LEN(TRIM(C23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G19:G21">
-    <cfRule type="containsBlanks" dxfId="11" priority="18">
+    <cfRule type="containsBlanks" dxfId="12" priority="22">
       <formula>LEN(TRIM(G19))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsBlanks" dxfId="10" priority="7">
-      <formula>LEN(TRIM(G25))=0</formula>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsBlanks" dxfId="11" priority="11">
+      <formula>LEN(TRIM(G26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H14 H16:H18">
-    <cfRule type="containsBlanks" priority="27">
+    <cfRule type="containsBlanks" priority="31">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H24">
-    <cfRule type="containsBlanks" dxfId="9" priority="26">
+  <conditionalFormatting sqref="H11:H22">
+    <cfRule type="containsBlanks" dxfId="10" priority="30">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:I21">
-    <cfRule type="containsBlanks" dxfId="8" priority="20">
+    <cfRule type="containsBlanks" dxfId="9" priority="24">
       <formula>LEN(TRIM(H21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I24 H26:I26">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
+  <conditionalFormatting sqref="H22:I25">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(H22))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="9">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(H22))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="containsBlanks" dxfId="7" priority="12">
+      <formula>LEN(TRIM(H27))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="13">
+      <formula>LEN(TRIM(H27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I10:I18">
-    <cfRule type="containsBlanks" priority="23">
+    <cfRule type="containsBlanks" priority="27">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I24">
-    <cfRule type="containsBlanks" dxfId="6" priority="22">
+  <conditionalFormatting sqref="I10:I22">
+    <cfRule type="containsBlanks" dxfId="6" priority="26">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19152,12 +19212,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="19" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="19" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19211,9 +19271,9 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="13.9">
+    <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19235,9 +19295,9 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="13.9">
+    <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19259,9 +19319,9 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="13.9">
+    <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19283,9 +19343,9 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="13.9">
+    <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19307,9 +19367,9 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="13.9">
+    <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C23" s="314"/>
       <c r="D23" s="314"/>
@@ -19372,9 +19432,9 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13.15">
+    <row r="46" spans="2:13" ht="13">
       <c r="B46" s="297" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -19465,9 +19525,9 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13.15">
+    <row r="71" spans="2:13" ht="13">
       <c r="B71" s="297" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -19519,7 +19579,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="292" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C73" s="296"/>
       <c r="D73" s="296"/>
@@ -19535,7 +19595,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="292" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -19551,7 +19611,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="292" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -19567,16 +19627,16 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="292" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J76" s="296"/>
       <c r="K76" s="296"/>
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13.15">
+    <row r="78" spans="2:13" ht="13">
       <c r="B78" s="297" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -19627,7 +19687,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="292" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J80" s="295"/>
       <c r="K80" s="295"/>
@@ -19636,7 +19696,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="292" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J81" s="295"/>
       <c r="K81" s="295"/>
@@ -19645,7 +19705,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="292" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J82" s="296"/>
       <c r="K82" s="296"/>
@@ -19689,7 +19749,7 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
@@ -19710,7 +19770,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
@@ -19731,7 +19791,7 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
@@ -19752,7 +19812,7 @@
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -19771,7 +19831,7 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J108" s="298">
         <f>Data!F34</f>
@@ -19792,7 +19852,7 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J111" s="298">
         <v>1315974</v>
@@ -19809,7 +19869,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J112" s="298">
         <v>3886094</v>
@@ -19826,7 +19886,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="292" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J113" s="299">
         <v>1.3370230781251284</v>
@@ -19903,17 +19963,17 @@
   <dimension ref="A1:J916"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -19999,7 +20059,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J4" s="35"/>
     </row>
@@ -20033,11 +20093,11 @@
       </c>
       <c r="C6" s="171">
         <f>C7/C4</f>
-        <v>0.20511871706240814</v>
+        <v>0.1901153982970728</v>
       </c>
       <c r="D6" s="171">
         <f>D7/D4</f>
-        <v>2.9072407687282625E-2</v>
+        <v>1.4296221818065754E-2</v>
       </c>
       <c r="E6" s="171"/>
       <c r="F6" s="171"/>
@@ -20050,15 +20110,15 @@
         <v>68</v>
       </c>
       <c r="C7" s="313">
-        <f>Projections!F24</f>
-        <v>2199356.9321999997</v>
+        <f>Projections!F25</f>
+        <v>2038485.9321999999</v>
       </c>
       <c r="D7" s="313">
-        <f>Projections!G24</f>
-        <v>316516.54482800013</v>
+        <f>Projections!G25</f>
+        <v>155645.5448280001</v>
       </c>
       <c r="E7" s="247" t="str">
-        <f>Projections!H24</f>
+        <f>Projections!H25</f>
         <v/>
       </c>
       <c r="F7" s="247"/>
@@ -20074,11 +20134,11 @@
       </c>
       <c r="C8" s="51">
         <f>IF(C4="","",Projections!F21-C7)</f>
-        <v>-2093284.4321999997</v>
+        <v>-1932413.4321999999</v>
       </c>
       <c r="D8" s="210">
         <f>Projections!G21-D7</f>
-        <v>-171313.30482799991</v>
+        <v>-10442.304827999877</v>
       </c>
       <c r="E8" s="210" t="str">
         <f>IF(E4="","",Projections!H21-E7)</f>
@@ -20100,11 +20160,11 @@
       </c>
       <c r="C9" s="167">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>-2.6444550366887793</v>
+        <v>-2.4412260250632278</v>
       </c>
       <c r="D9" s="248">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>-0.21642081928067405</v>
+        <v>-1.319180765512208E-2</v>
       </c>
       <c r="E9" s="248" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
@@ -20116,7 +20176,7 @@
       </c>
       <c r="G9" s="249">
         <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Common_Shares</f>
-        <v>-0.21642081928067408</v>
+        <v>-1.319180765512208E-2</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="35"/>
@@ -20266,7 +20326,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="352" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20289,7 +20349,7 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-9.6274741099667077E-2</v>
       </c>
-      <c r="E18" s="352"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
@@ -20311,10 +20371,10 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="387" t="s">
+      <c r="E20" s="390" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="387"/>
+      <c r="F20" s="390"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
@@ -20323,7 +20383,7 @@
         <v>TV after Year 1</v>
       </c>
       <c r="C21" s="265" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>326</v>
@@ -20390,16 +20450,16 @@
         <v>20.194009581379976</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.5" customHeight="1">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="388" t="s">
+      <c r="E24" s="391" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="389"/>
+      <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
         <v>15.392649003581361</v>
@@ -20465,11 +20525,11 @@
       </c>
       <c r="C28" s="51">
         <f>C8</f>
-        <v>-2093284.4321999997</v>
+        <v>-1932413.4321999999</v>
       </c>
       <c r="D28" s="51">
         <f>D8</f>
-        <v>-171313.30482799991</v>
+        <v>-10442.304827999877</v>
       </c>
       <c r="E28" s="51" t="str">
         <f>E8</f>
@@ -20570,11 +20630,11 @@
       </c>
       <c r="C33" s="51">
         <f>C28-C32</f>
-        <v>-2117442.7121999995</v>
+        <v>-1956571.7122</v>
       </c>
       <c r="D33" s="210">
         <f>D28-D32</f>
-        <v>-197887.41282799991</v>
+        <v>-37016.412827999884</v>
       </c>
       <c r="E33" s="210" t="str">
         <f>IF(E28="","",E28-E32)</f>
@@ -20595,11 +20655,11 @@
       </c>
       <c r="C34" s="139">
         <f>C33/(Common_Shares/Data!$C$4)</f>
-        <v>-2.6749742935279444</v>
+        <v>-2.4717452819023928</v>
       </c>
       <c r="D34" s="245">
         <f>D33/(Common_Shares/Data!$C$4)</f>
-        <v>-0.24999200180375575</v>
+        <v>-4.6762990178203769E-2</v>
       </c>
       <c r="E34" s="245" t="str">
         <f>IF(E33="","",E33/(Common_Shares/Data!$C$4))</f>
@@ -20611,7 +20671,7 @@
       </c>
       <c r="G34" s="139">
         <f>INDEX(D34:F34,Projections!E2)</f>
-        <v>-0.24999200180375575</v>
+        <v>-4.6762990178203769E-2</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="43"/>
@@ -20622,7 +20682,7 @@
       </c>
       <c r="C35" s="273">
         <f>Dashboard!C31</f>
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="D35" s="149" t="str">
         <f>D10</f>
@@ -20661,7 +20721,7 @@
       </c>
       <c r="G36" s="278">
         <f ca="1">C35*G35</f>
-        <v>0.71040000000000003</v>
+        <v>0.7142400000000001</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="43"/>
@@ -20688,7 +20748,7 @@
       </c>
       <c r="G37" s="275">
         <f ca="1">G34-G36</f>
-        <v>-0.96039200180375572</v>
+        <v>-0.76100299017820383</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>303</v>
@@ -20736,7 +20796,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-1.002492147485101</v>
+        <v>-0.79436263570864252</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20746,10 +20806,10 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="390" t="s">
+      <c r="E40" s="393" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="320"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.3234864111275597</v>
@@ -20758,13 +20818,13 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="388" t="s">
+      <c r="E41" s="391" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="388"/>
+      <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>0.32099426364245875</v>
+        <v>0.5291237754189172</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20793,7 +20853,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>8.3089712758100784</v>
+        <v>8.4067921463450137</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20801,15 +20861,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-2.4230108608693968</v>
+        <v>-2.664793869442768</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.5980409362309467</v>
+        <v>1.6168545474884166</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.61340722796351033</v>
+        <v>0.6206288233981343</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20827,7 +20887,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-4.4032421175502856</v>
+        <v>-4.7698065135998355</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20845,7 +20905,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.775799238163669</v>
+        <v>10.827539491471612</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20853,15 +20913,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-3.355841227855858</v>
+        <v>-3.6564051828867576</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.1132794334555052</v>
+        <v>2.1234263943240976</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.79552003736212806</v>
+        <v>0.79933974551879883</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20870,7 +20930,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>6.6471770206480629</v>
+        <v>6.7254337170760108</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20878,15 +20938,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-1.794603785647271</v>
+        <v>-1.9760586142852881</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.303600983815975</v>
+        <v>1.3189481764869044</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.49072578237080827</v>
+        <v>0.49650305871850747</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21824,16 +21884,16 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21848,7 +21908,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.9">
+    <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21864,7 +21924,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.9">
+    <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21878,7 +21938,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9">
+    <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21893,7 +21953,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="13.9">
+    <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21908,7 +21968,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="13.9">
+    <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21923,7 +21983,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="13.9">
+    <row r="8" spans="1:7" ht="14">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21938,7 +21998,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="13.9">
+    <row r="9" spans="1:7" ht="14">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>
@@ -22072,7 +22132,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="119" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B800FF87-F5E4-4B63-9954-19D23D04EEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE805C7-4A3F-49A4-A6F2-76FD8C619DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40470" yWindow="6210" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -3101,6 +3101,134 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3118,137 +3246,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10561,33 +10561,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>7.83</v>
+        <v>7.69</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10598,10 +10598,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>45154</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10609,10 +10609,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>791574976</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10635,11 +10635,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
-        <v>6198.0320620800003</v>
-      </c>
-      <c r="J6" s="350"/>
+        <v>6087.2115654400004</v>
+      </c>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>2.936415916811546E-2</v>
+        <v>2.9898747241397145E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10679,11 +10679,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.641293537276098</v>
+        <v>10.45102775244613</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.3973537756197892E-2</v>
+        <v>9.5684369392851687E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10703,41 +10703,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>1.5059217459466303</v>
+        <v>1.4789959420599728</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57804732204782139</v>
+        <v>0.56771186545948238</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10762,7 +10762,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>8.4067921463450137</v>
+        <v>8.4085135337976258</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10804,58 +10804,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>7.83</v>
-      </c>
-      <c r="C16" s="373">
+        <v>7.69</v>
+      </c>
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.1828275212607422</v>
-      </c>
-      <c r="E16" s="354" t="s">
+        <v>0.20812093400231446</v>
+      </c>
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>1.9014280008323869</v>
-      </c>
-      <c r="G16" s="354" t="s">
+        <v>1.9031493882849992</v>
+      </c>
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>5.9285719991676133</v>
-      </c>
-      <c r="I16" s="367">
+        <v>5.7868506117150016</v>
+      </c>
+      <c r="I16" s="336">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>2.9374201787994892E-3</v>
+        <v>2.9908972691807538E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.7764866042738117</v>
-      </c>
-      <c r="C17" s="374"/>
+        <v>8.7776304047579501</v>
+      </c>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>3.369862903898424E-2</v>
-      </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+        <v>3.3641596097301329E-2</v>
+      </c>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>6.8750586034414249</v>
-      </c>
-      <c r="I17" s="368"/>
+        <v>6.8744810164729504</v>
+      </c>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>2.6206386492745154E-3</v>
+        <v>2.620297157594236E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10863,19 +10863,19 @@
         <f>C37</f>
         <v>7.44</v>
       </c>
-      <c r="C18" s="375"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.25531444777844237</v>
-      </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+        <v>0.25543682560185443</v>
+      </c>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>5.5385719991676137</v>
-      </c>
-      <c r="I18" s="369"/>
+        <v>5.5368506117150016</v>
+      </c>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>3.0913978494623655E-3</v>
@@ -10913,84 +10913,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
         <v>386</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="321" t="s">
+      <c r="C24" s="369" t="s">
         <v>407</v>
       </c>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="370" t="s">
         <v>408</v>
       </c>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11030,208 +11030,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341"/>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="C28" s="355"/>
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>0.18036363636363636</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
         <v>0.18036363636363636</v>
       </c>
-      <c r="J29" s="370"/>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
+      <c r="C30" s="321">
         <v>16000</v>
       </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349"/>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
         <v>16000</v>
       </c>
-      <c r="J30" s="376"/>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
+      <c r="C31" s="323">
         <v>7.44</v>
       </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>5889.3178214400004</v>
       </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>119040</v>
       </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>119040</v>
       </c>
-      <c r="J33" s="329"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>7.44</v>
       </c>
-      <c r="F34" s="365"/>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>7.44</v>
       </c>
-      <c r="J34" s="332"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>5889.3178214400004</v>
       </c>
-      <c r="F35" s="377"/>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>5889.3178214400004</v>
       </c>
-      <c r="J35" s="331"/>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="374">
         <f>C31</f>
         <v>7.44</v>
       </c>
-      <c r="D37" s="327"/>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>10.827539491471612</v>
-      </c>
-      <c r="J37" s="325"/>
+        <v>10.828449982477798</v>
+      </c>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
         <v>7.44</v>
       </c>
-      <c r="D38" s="327"/>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>6.7254337170760108</v>
-      </c>
-      <c r="J38" s="325"/>
+        <v>6.7268108270381006</v>
+      </c>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11355,11 +11355,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.45531444777844232</v>
+        <v>0.45543682560185439</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.45531444777844232</v>
+        <v>0.45543682560185439</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11374,11 +11374,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-9.6043855231718989E-2</v>
+        <v>-9.5858759806706995E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-9.6043855231718989E-2</v>
+        <v>-9.5858759806706995E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11403,11 +11403,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.59619055326831849</v>
+        <v>0.59622130059316103</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.59619055326831849</v>
+        <v>0.59622130059316103</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11422,11 +11422,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>4.7406931623052166</v>
+        <v>4.751123700329666</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>4.7406931623052166</v>
+        <v>4.751123700329666</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11441,11 +11441,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>2.8233649296961296</v>
+        <v>2.8226123948316717</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.8233649296961296</v>
+        <v>2.8226123948316717</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11460,11 +11460,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.18099365684417548</v>
+        <v>0.18112134862855814</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.18099365684417548</v>
+        <v>0.18112134862855814</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -12433,14 +12433,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12457,38 +12481,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -16230,11 +16230,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="193">
         <f>E49-I49-E53</f>
-        <v>1047638.7241246243</v>
+        <v>1049001.3313561124</v>
       </c>
       <c r="E6" s="149">
         <f>1-D6/D3</f>
-        <v>0.74366038651515942</v>
+        <v>0.74332697939397541</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16255,7 +16255,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.3234864111275597</v>
+        <v>1.3252077985801718</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -17277,11 +17277,11 @@
       </c>
       <c r="D53" s="54">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5059217459466303</v>
+        <v>1.4789959420599725</v>
       </c>
       <c r="E53" s="51">
         <f>MAX(C53,C53*Dashboard!I10)</f>
-        <v>76208.675875375178</v>
+        <v>74846.068643886974</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -17317,7 +17317,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
@@ -17340,7 +17340,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17356,7 +17356,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17434,11 +17434,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>4666182.7379553756</v>
-      </c>
-      <c r="E63" s="376"/>
+        <v>4553999.6340838866</v>
+      </c>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20291,7 +20291,7 @@
       </c>
       <c r="G15" s="199">
         <f>C15+C16+C17+C18</f>
-        <v>1505122.8241246247</v>
+        <v>1506485.4313561129</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -20311,7 +20311,7 @@
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5*Exchange_Rate</f>
-        <v>1.9014280008323869</v>
+        <v>1.9031493882849992</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20326,7 +20326,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20343,20 +20343,20 @@
       </c>
       <c r="C18" s="51">
         <f>-Asset_Model!E53</f>
-        <v>-76208.675875375178</v>
+        <v>-74846.068643886974</v>
       </c>
       <c r="D18" s="106">
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>-9.6274741099667077E-2</v>
-      </c>
-      <c r="E18" s="355"/>
+        <v>-9.4553353647054875E-2</v>
+      </c>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>-1.0798196024268651</v>
+        <v>-1.0780982149742528</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20418,11 +20418,11 @@
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>11.116487894792453</v>
+        <v>11.118209282245065</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>11.116487894792453</v>
+        <v>11.118209282245065</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20443,11 +20443,11 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>20.194009581379976</v>
+        <v>20.195730968832589</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>20.194009581379976</v>
+        <v>20.195730968832589</v>
       </c>
       <c r="I23" s="43" t="s">
         <v>410</v>
@@ -20462,7 +20462,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>15.392649003581361</v>
+        <v>15.394370391033974</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20809,10 +20809,10 @@
       <c r="E40" s="393" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.3234864111275597</v>
+        <v>1.3252077985801718</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20824,7 +20824,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>0.5291237754189172</v>
+        <v>0.53084516287152927</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>8.4067921463450137</v>
+        <v>8.4085135337976258</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20865,11 +20865,11 @@
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.6168545474884166</v>
+        <v>1.6171856170667165</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.6206288233981343</v>
+        <v>0.62075590429304994</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-4.7698065135998355</v>
+        <v>-4.7691013812462808</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.827539491471612</v>
+        <v>10.828449982477798</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20913,15 +20913,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-3.6564051828867576</v>
+        <v>-3.656073015181637</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.1234263943240976</v>
+        <v>2.1236049538791888</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.79933974551879883</v>
+        <v>0.79940696223500252</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20930,7 +20930,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>6.7254337170760108</v>
+        <v>6.7268108270381006</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20938,15 +20938,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-1.9760586142852881</v>
+        <v>-1.9759175878145769</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.3189481764869044</v>
+        <v>1.3192182463068938</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.49650305871850747</v>
+        <v>0.49660472343443995</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE805C7-4A3F-49A4-A6F2-76FD8C619DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14AF594F-2B41-4A73-83EA-036DCAC8EC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40470" yWindow="6210" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38160" yWindow="6510" windowWidth="14400" windowHeight="7515" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3101,84 +3101,39 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3186,6 +3141,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3202,9 +3158,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3217,6 +3180,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3229,26 +3201,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10516,8 +10516,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:D32"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10561,33 +10561,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>7.69</v>
+        <v>7.85</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10598,10 +10598,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>45154</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10609,10 +10609,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>791574976</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10635,11 +10635,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
-        <v>6087.2115654400004</v>
-      </c>
-      <c r="J6" s="361"/>
+        <v>6213.8635615999992</v>
+      </c>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>2.9898747241397145E-2</v>
+        <v>2.9289346023738096E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10679,11 +10679,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.45102775244613</v>
+        <v>10.668474363680378</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.5684369392851687E-2</v>
+        <v>9.3734114730067458E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10703,41 +10703,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>1.4789959420599728</v>
+        <v>1.5097682893590099</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.56771186545948238</v>
+        <v>0.57952381584615553</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10762,7 +10762,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>8.4085135337976258</v>
+        <v>8.4013654649396585</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10804,81 +10804,81 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>7.69</v>
-      </c>
-      <c r="C16" s="347">
+        <v>7.85</v>
+      </c>
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.20812093400231446</v>
-      </c>
-      <c r="E16" s="341" t="s">
+        <v>0.178938747086405</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>1.9031493882849992</v>
-      </c>
-      <c r="G16" s="341" t="s">
+        <v>1.9011820883391566</v>
+      </c>
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>5.7868506117150016</v>
-      </c>
-      <c r="I16" s="336">
+        <v>5.9488179116608428</v>
+      </c>
+      <c r="I16" s="367">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>2.9908972691807538E-3</v>
+        <v>2.9299363057324842E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.7776304047579501</v>
-      </c>
-      <c r="C17" s="348"/>
+        <v>8.772880768290003</v>
+      </c>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>3.3641596097301329E-2</v>
-      </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+        <v>3.3878522976690251E-2</v>
+      </c>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>6.8744810164729504</v>
-      </c>
-      <c r="I17" s="337"/>
+        <v>6.8716986799508462</v>
+      </c>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>2.620297157594236E-3</v>
+        <v>2.6217157861229117E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>7.44</v>
-      </c>
-      <c r="C18" s="349"/>
+        <v>7.55</v>
+      </c>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.25543682560185443</v>
-      </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+        <v>0.23373101518255357</v>
+      </c>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>5.5368506117150016</v>
-      </c>
-      <c r="I18" s="338"/>
+        <v>5.648817911660843</v>
+      </c>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>3.0913978494623655E-3</v>
+        <v>3.0463576158940397E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -10913,84 +10913,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>386</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="369" t="s">
+      <c r="C24" s="321" t="s">
         <v>407</v>
       </c>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="370" t="s">
+      <c r="C25" s="322" t="s">
         <v>408</v>
       </c>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11030,208 +11030,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355"/>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="C28" s="341"/>
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
-        <v>0.18036363636363636</v>
-      </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+        <v>0.16015151515151516</v>
+      </c>
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
-        <v>0.18036363636363636</v>
-      </c>
-      <c r="J29" s="344"/>
+        <v>0.16015151515151516</v>
+      </c>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
-        <v>16000</v>
-      </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="C30" s="349">
+        <v>14000</v>
+      </c>
+      <c r="D30" s="339"/>
+      <c r="E30" s="349"/>
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
-        <v>16000</v>
-      </c>
-      <c r="J30" s="350"/>
+        <v>14000</v>
+      </c>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
-        <v>7.44</v>
-      </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323"/>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="C31" s="363">
+        <v>7.55</v>
+      </c>
+      <c r="D31" s="339"/>
+      <c r="E31" s="363"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
-        <v>5889.3178214400004</v>
-      </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+        <v>5976.3910688000005</v>
+      </c>
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
-        <v>119040</v>
-      </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+        <v>105700</v>
+      </c>
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
-        <v>119040</v>
-      </c>
-      <c r="J33" s="326"/>
+        <v>105700</v>
+      </c>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>7.44</v>
-      </c>
-      <c r="F34" s="329"/>
+        <v>7.55</v>
+      </c>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>7.44</v>
-      </c>
-      <c r="J34" s="328"/>
+        <v>7.55</v>
+      </c>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>5889.3178214400004</v>
-      </c>
-      <c r="F35" s="325"/>
+        <v>5976.3910688000005</v>
+      </c>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>5889.3178214400004</v>
-      </c>
-      <c r="J35" s="324"/>
+        <v>5976.3910688000005</v>
+      </c>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>C31</f>
-        <v>7.44</v>
-      </c>
-      <c r="D37" s="375"/>
+        <v>7.55</v>
+      </c>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
-        <v>10.828449982477798</v>
-      </c>
-      <c r="J37" s="373"/>
+        <v>10.824669164628279</v>
+      </c>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
-        <v>7.44</v>
-      </c>
-      <c r="D38" s="375"/>
+        <v>7.55</v>
+      </c>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
-        <v>6.7268108270381006</v>
-      </c>
-      <c r="J38" s="373"/>
+        <v>6.7210923719517268</v>
+      </c>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11355,11 +11355,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.45543682560185439</v>
+        <v>0.43373101518255353</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.45543682560185439</v>
+        <v>0.43373101518255353</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11374,11 +11374,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-9.5858759806706995E-2</v>
+        <v>-0.10978908980771829</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-9.5858759806706995E-2</v>
+        <v>-0.10978908980771829</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11403,11 +11403,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.59622130059316103</v>
+        <v>0.59265768655112971</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.59622130059316103</v>
+        <v>0.59265768655112971</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11422,11 +11422,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>4.751123700329666</v>
+        <v>3.9505839418304549</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>4.751123700329666</v>
+        <v>3.9505839418304549</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11441,11 +11441,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>2.8226123948316717</v>
+        <v>2.9322395795558545</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.8226123948316717</v>
+        <v>2.9322395795558545</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11460,11 +11460,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.18112134862855814</v>
+        <v>0.16695371573924997</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.18112134862855814</v>
+        <v>0.16695371573924997</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -12433,6 +12433,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12449,46 +12489,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12556,7 +12556,7 @@
       <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="6">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -16230,11 +16230,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="193">
         <f>E49-I49-E53</f>
-        <v>1049001.3313561124</v>
+        <v>1047444.0659486974</v>
       </c>
       <c r="E6" s="149">
         <f>1-D6/D3</f>
-        <v>0.74332697939397541</v>
+        <v>0.74370801610390003</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16255,7 +16255,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.3252077985801718</v>
+        <v>1.3232404986343296</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -17277,11 +17277,11 @@
       </c>
       <c r="D53" s="54">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4789959420599725</v>
+        <v>1.5097682893590099</v>
       </c>
       <c r="E53" s="51">
         <f>MAX(C53,C53*Dashboard!I10)</f>
-        <v>74846.068643886974</v>
+        <v>76403.334051302052</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -17317,7 +17317,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
@@ -17340,7 +17340,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17356,7 +17356,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17434,11 +17434,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>4553999.6340838866</v>
-      </c>
-      <c r="E63" s="350"/>
+        <v>4682208.8956513014</v>
+      </c>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -19962,8 +19962,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -20283,7 +20283,7 @@
         <v>2359881</v>
       </c>
       <c r="D15" s="106">
-        <f>C15/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
+        <f>C15/(Dashboard!I5/Data!C4)</f>
         <v>2.9812476032592521</v>
       </c>
       <c r="E15" s="52" t="s">
@@ -20291,7 +20291,7 @@
       </c>
       <c r="G15" s="199">
         <f>C15+C16+C17+C18</f>
-        <v>1506485.4313561129</v>
+        <v>1504928.1659486978</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -20303,15 +20303,15 @@
         <v>26726.5</v>
       </c>
       <c r="D16" s="106">
-        <f>C16/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
+        <f>C16/(Dashboard!I5/Data!C4)</f>
         <v>3.3763699978307547E-2</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>275</v>
       </c>
       <c r="G16" s="264">
-        <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5*Exchange_Rate</f>
-        <v>1.9031493882849992</v>
+        <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
+        <v>1.9011820883391566</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20323,10 +20323,10 @@
         <v>-805276</v>
       </c>
       <c r="D17" s="106">
-        <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
+        <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20343,20 +20343,20 @@
       </c>
       <c r="C18" s="51">
         <f>-Asset_Model!E53</f>
-        <v>-74846.068643886974</v>
+        <v>-76403.334051302052</v>
       </c>
       <c r="D18" s="106">
-        <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>-9.4553353647054875E-2</v>
-      </c>
-      <c r="E18" s="342"/>
+        <f>C18/(Dashboard!I5/Data!C4)</f>
+        <v>-9.6520653592897368E-2</v>
+      </c>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>-1.0780982149742528</v>
+        <v>-1.0800655149200953</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20418,11 +20418,11 @@
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>11.118209282245065</v>
+        <v>11.116241982299222</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>11.118209282245065</v>
+        <v>11.116241982299222</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20443,11 +20443,11 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>20.195730968832589</v>
+        <v>20.193763668886746</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>20.195730968832589</v>
+        <v>20.193763668886746</v>
       </c>
       <c r="I23" s="43" t="s">
         <v>410</v>
@@ -20462,7 +20462,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>15.394370391033974</v>
+        <v>15.392403091088131</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20682,7 +20682,7 @@
       </c>
       <c r="C35" s="273">
         <f>Dashboard!C31</f>
-        <v>7.44</v>
+        <v>7.55</v>
       </c>
       <c r="D35" s="149" t="str">
         <f>D10</f>
@@ -20721,7 +20721,7 @@
       </c>
       <c r="G36" s="278">
         <f ca="1">C35*G35</f>
-        <v>0.7142400000000001</v>
+        <v>0.7248</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="43"/>
@@ -20748,7 +20748,7 @@
       </c>
       <c r="G37" s="275">
         <f ca="1">G34-G36</f>
-        <v>-0.76100299017820383</v>
+        <v>-0.77156299017820373</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>303</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-0.79436263570864252</v>
+        <v>-0.80538554828763098</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20809,10 +20809,10 @@
       <c r="E40" s="393" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.3252077985801718</v>
+        <v>1.3232404986343296</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20824,7 +20824,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>0.53084516287152927</v>
+        <v>0.51785495034669859</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>8.4085135337976258</v>
+        <v>8.4013654649396585</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20861,15 +20861,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-2.664793869442768</v>
+        <v>-2.6626716698353019</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.6171856170667165</v>
+        <v>1.615810849207874</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.62075590429304994</v>
+        <v>0.62022820032610726</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-4.7691013812462808</v>
+        <v>-4.7699072467932009</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.828449982477798</v>
+        <v>10.824669164628279</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20913,15 +20913,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-3.656073015181637</v>
+        <v>-3.6553301434093974</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.1236049538791888</v>
+        <v>2.1228634845527439</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.79940696223500252</v>
+        <v>0.79912784452963026</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20930,7 +20930,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>6.7268108270381006</v>
+        <v>6.7210923719517268</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20938,15 +20938,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-1.9759175878145769</v>
+        <v>-1.9743810012379883</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.3192182463068938</v>
+        <v>1.318096780208827</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.49660472343443995</v>
+        <v>0.49618256026088575</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14AF594F-2B41-4A73-83EA-036DCAC8EC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF4A8A8-425F-4B61-9051-053E821CE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38160" yWindow="6510" windowWidth="14400" windowHeight="7515" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1330" yWindow="2700" windowWidth="14400" windowHeight="7520" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3101,6 +3101,134 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3118,137 +3246,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10561,27 +10561,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10598,10 +10598,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>45154</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10609,10 +10609,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>791574976</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10635,11 +10635,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
         <v>6213.8635615999992</v>
       </c>
-      <c r="J6" s="350"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10714,30 +10714,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10806,28 +10806,28 @@
         <f>I4</f>
         <v>7.85</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>0.178938747086405</v>
       </c>
-      <c r="E16" s="354" t="s">
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.9011820883391566</v>
       </c>
-      <c r="G16" s="354" t="s">
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>5.9488179116608428</v>
       </c>
-      <c r="I16" s="367">
+      <c r="I16" s="336">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
@@ -10840,19 +10840,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>8.772880768290003</v>
       </c>
-      <c r="C17" s="374"/>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>3.3878522976690251E-2</v>
       </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>6.8716986799508462</v>
       </c>
-      <c r="I17" s="368"/>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>2.6217157861229117E-3</v>
@@ -10863,19 +10863,19 @@
         <f>C37</f>
         <v>7.55</v>
       </c>
-      <c r="C18" s="375"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>0.23373101518255357</v>
       </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>5.648817911660843</v>
       </c>
-      <c r="I18" s="369"/>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>3.0463576158940397E-3</v>
@@ -10913,84 +10913,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
         <v>386</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="321" t="s">
+      <c r="C24" s="369" t="s">
         <v>407</v>
       </c>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="370" t="s">
         <v>408</v>
       </c>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11030,208 +11030,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341"/>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="C28" s="355"/>
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>0.16015151515151516</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
         <v>0.16015151515151516</v>
       </c>
-      <c r="J29" s="370"/>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
+      <c r="C30" s="321">
         <v>14000</v>
       </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349"/>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
         <v>14000</v>
       </c>
-      <c r="J30" s="376"/>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
+      <c r="C31" s="323">
         <v>7.55</v>
       </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>5976.3910688000005</v>
       </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>105700</v>
       </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>105700</v>
       </c>
-      <c r="J33" s="329"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>7.55</v>
       </c>
-      <c r="F34" s="365"/>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>7.55</v>
       </c>
-      <c r="J34" s="332"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>5976.3910688000005</v>
       </c>
-      <c r="F35" s="377"/>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>5976.3910688000005</v>
       </c>
-      <c r="J35" s="331"/>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="374">
         <f>C31</f>
         <v>7.55</v>
       </c>
-      <c r="D37" s="327"/>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
         <v>10.824669164628279</v>
       </c>
-      <c r="J37" s="325"/>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
         <v>7.55</v>
       </c>
-      <c r="D38" s="327"/>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
         <v>6.7210923719517268</v>
       </c>
-      <c r="J38" s="325"/>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12433,14 +12433,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12457,38 +12481,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -17317,7 +17317,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
@@ -17340,7 +17340,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17356,7 +17356,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17434,11 +17434,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>4682208.8956513014</v>
       </c>
-      <c r="E63" s="376"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20326,7 +20326,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20349,7 +20349,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.6520653592897368E-2</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
@@ -20809,7 +20809,7 @@
       <c r="E40" s="393" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.3232404986343296</v>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF4A8A8-425F-4B61-9051-053E821CE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4540F04A-26F4-4851-BE3E-DE66A8A3096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="2700" windowWidth="14400" windowHeight="7520" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,19 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1467,34 +1478,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\x"/>
+    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="0.0%"/>
+    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2320,7 +2331,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="394">
@@ -2368,7 +2379,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2468,7 +2479,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2485,8 +2496,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2495,7 +2506,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2520,7 +2531,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2539,16 +2550,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2578,14 +2589,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2679,7 +2690,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2712,7 +2723,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2732,7 +2743,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2740,7 +2751,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2750,7 +2761,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,7 +2782,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2780,7 +2791,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2825,10 +2836,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,13 +2848,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2852,7 +2863,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2909,7 +2920,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2951,7 +2962,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2963,13 +2974,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2981,10 +2992,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3061,7 +3072,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3080,7 +3091,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3101,41 +3112,122 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3145,23 +3237,10 @@
     <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3179,76 +3258,8 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10520,13 +10531,13 @@
       <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10561,27 +10572,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10598,10 +10609,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>45154</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10609,10 +10620,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>791574976</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10635,11 +10646,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
         <v>6213.8635615999992</v>
       </c>
-      <c r="J6" s="361"/>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10714,30 +10725,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10806,28 +10817,28 @@
         <f>I4</f>
         <v>7.85</v>
       </c>
-      <c r="C16" s="347">
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>0.178938747086405</v>
       </c>
-      <c r="E16" s="341" t="s">
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.9011820883391566</v>
       </c>
-      <c r="G16" s="341" t="s">
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>5.9488179116608428</v>
       </c>
-      <c r="I16" s="336">
+      <c r="I16" s="367">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
@@ -10840,19 +10851,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>8.772880768290003</v>
       </c>
-      <c r="C17" s="348"/>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>3.3878522976690251E-2</v>
       </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>6.8716986799508462</v>
       </c>
-      <c r="I17" s="337"/>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>2.6217157861229117E-3</v>
@@ -10863,19 +10874,19 @@
         <f>C37</f>
         <v>7.55</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>0.23373101518255357</v>
       </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>5.648817911660843</v>
       </c>
-      <c r="I18" s="338"/>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>3.0463576158940397E-3</v>
@@ -10913,84 +10924,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>386</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="369" t="s">
+      <c r="C24" s="321" t="s">
         <v>407</v>
       </c>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="370" t="s">
+      <c r="C25" s="322" t="s">
         <v>408</v>
       </c>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11030,208 +11041,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355"/>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="C28" s="341"/>
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>0.16015151515151516</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.16015151515151516</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>14000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349"/>
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>14000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>7.55</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323"/>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="D31" s="339"/>
+      <c r="E31" s="363"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>5976.3910688000005</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>105700</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>105700</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>7.55</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>7.55</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>5976.3910688000005</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>5976.3910688000005</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>C31</f>
         <v>7.55</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
         <v>10.824669164628279</v>
       </c>
-      <c r="J37" s="373"/>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>7.55</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
         <v>6.7210923719517268</v>
       </c>
-      <c r="J38" s="373"/>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12433,6 +12444,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12449,46 +12500,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12593,12 +12604,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16141,18 +16152,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16352,7 +16363,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="14">
+    <row r="12" spans="1:11" ht="13.9">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16377,7 +16388,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="14">
+    <row r="13" spans="1:11" ht="13.9">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16402,7 +16413,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="14">
+    <row r="14" spans="1:11" ht="13.9">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16427,7 +16438,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="14">
+    <row r="15" spans="1:11" ht="13.9">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16452,7 +16463,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="14">
+    <row r="16" spans="1:11" ht="13.9">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16477,7 +16488,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="14">
+    <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
         <v>349</v>
       </c>
@@ -16497,7 +16508,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="14">
+    <row r="18" spans="2:10" ht="13.9">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16516,7 +16527,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="14">
+    <row r="19" spans="2:10" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16540,7 +16551,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="14">
+    <row r="20" spans="2:10" ht="13.9">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16564,7 +16575,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="14">
+    <row r="21" spans="2:10" ht="13.9">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16849,7 +16860,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="14">
+    <row r="33" spans="2:10" ht="13.9">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16878,7 +16889,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="14">
+    <row r="34" spans="2:10" ht="13.9">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16903,7 +16914,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="14">
+    <row r="35" spans="2:10" ht="13.9">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16928,7 +16939,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="14">
+    <row r="36" spans="2:10" ht="13.9">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16952,7 +16963,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="14">
+    <row r="37" spans="2:10" ht="13.9">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16996,7 +17007,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="14">
+    <row r="39" spans="2:10" ht="13.9">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17245,14 +17256,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="14">
+    <row r="51" spans="2:10" ht="13.9">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="14">
+    <row r="52" spans="2:10" ht="13.9">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17267,7 +17278,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="14">
+    <row r="53" spans="2:10" ht="13.9">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17297,7 +17308,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.5" thickBot="1">
+    <row r="55" spans="2:10" ht="14.25" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17312,12 +17323,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.5" thickTop="1">
+    <row r="56" spans="2:10" ht="14.25" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
@@ -17332,7 +17343,7 @@
         <v>0.1995079170063952</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="14">
+    <row r="57" spans="2:10" ht="13.9">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17340,7 +17351,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17356,7 +17367,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17373,7 +17384,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="14">
+    <row r="60" spans="2:10" ht="13.9">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17408,7 +17419,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="14">
+    <row r="62" spans="2:10" ht="13.9">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17429,16 +17440,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="14">
+    <row r="63" spans="2:10" ht="13.9">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>4682208.8956513014</v>
       </c>
-      <c r="E63" s="350"/>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17550,14 +17561,14 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19212,12 +19223,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="19" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="19" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19271,7 +19282,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="14">
+    <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>401</v>
       </c>
@@ -19295,7 +19306,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="14">
+    <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
         <v>402</v>
       </c>
@@ -19319,7 +19330,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="14">
+    <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
         <v>403</v>
       </c>
@@ -19343,7 +19354,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="14">
+    <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
         <v>404</v>
       </c>
@@ -19367,7 +19378,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="14">
+    <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
         <v>353</v>
       </c>
@@ -19432,7 +19443,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13">
+    <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
         <v>356</v>
       </c>
@@ -19525,7 +19536,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13">
+    <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
         <v>366</v>
       </c>
@@ -19634,7 +19645,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13">
+    <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
         <v>365</v>
       </c>
@@ -19966,14 +19977,14 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20326,7 +20337,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20349,7 +20360,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.6520653592897368E-2</v>
       </c>
-      <c r="E18" s="342"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
@@ -20809,7 +20820,7 @@
       <c r="E40" s="393" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.3232404986343296</v>
@@ -21884,16 +21895,16 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21908,7 +21919,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="13.9">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21924,7 +21935,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:7" ht="13.9">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21938,7 +21949,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="14">
+    <row r="5" spans="1:7" ht="13.9">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21953,7 +21964,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.9">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21968,7 +21979,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.9">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21983,7 +21994,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.9">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21998,7 +22009,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.9">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4540F04A-26F4-4851-BE3E-DE66A8A3096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E79384C-230A-4CA5-BE1D-74AC9BAA99FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E79384C-230A-4CA5-BE1D-74AC9BAA99FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086D0494-CCBD-4613-869D-A28E6F600986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,8 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="32"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1478,34 +1467,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\x"/>
-    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2331,7 +2320,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="394">
@@ -2379,7 +2368,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2479,7 +2468,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2496,8 +2485,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2506,7 +2495,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2531,7 +2520,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2550,16 +2539,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2589,14 +2578,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2690,7 +2679,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2723,7 +2712,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2743,7 +2732,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2751,7 +2740,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2761,7 +2750,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2782,7 +2771,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2791,7 +2780,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2836,10 +2825,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2848,13 +2837,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2863,7 +2852,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2920,7 +2909,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2962,7 +2951,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2974,13 +2963,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2992,10 +2981,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3072,7 +3061,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3091,7 +3080,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3110,6 +3099,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3129,137 +3246,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10527,17 +10516,17 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10572,27 +10561,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10609,10 +10598,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>45154</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10620,10 +10609,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>791574976</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10646,11 +10635,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
         <v>6213.8635615999992</v>
       </c>
-      <c r="J6" s="350"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10725,30 +10714,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10817,28 +10806,28 @@
         <f>I4</f>
         <v>7.85</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>0.178938747086405</v>
       </c>
-      <c r="E16" s="354" t="s">
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.9011820883391566</v>
       </c>
-      <c r="G16" s="354" t="s">
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>5.9488179116608428</v>
       </c>
-      <c r="I16" s="367">
+      <c r="I16" s="336">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
@@ -10851,19 +10840,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>8.772880768290003</v>
       </c>
-      <c r="C17" s="374"/>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>3.3878522976690251E-2</v>
       </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>6.8716986799508462</v>
       </c>
-      <c r="I17" s="368"/>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>2.6217157861229117E-3</v>
@@ -10874,19 +10863,19 @@
         <f>C37</f>
         <v>7.55</v>
       </c>
-      <c r="C18" s="375"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>0.23373101518255357</v>
       </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>5.648817911660843</v>
       </c>
-      <c r="I18" s="369"/>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>3.0463576158940397E-3</v>
@@ -10924,84 +10913,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
         <v>386</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="321" t="s">
+      <c r="C24" s="369" t="s">
         <v>407</v>
       </c>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="370" t="s">
         <v>408</v>
       </c>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11041,208 +11030,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341"/>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="C28" s="355">
+        <v>45180</v>
+      </c>
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
-        <v/>
-      </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+        <v>Action_Planning</v>
+      </c>
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
-        <v>0.16015151515151516</v>
-      </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+        <v>5.7196969696969698E-2</v>
+      </c>
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
-        <v>0.16015151515151516</v>
-      </c>
-      <c r="J29" s="370"/>
+        <v>0.11174242424242424</v>
+      </c>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
-        <v>14000</v>
-      </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349"/>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="C30" s="321">
+        <v>5000</v>
+      </c>
+      <c r="D30" s="322"/>
+      <c r="E30" s="321">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
-        <v>14000</v>
-      </c>
-      <c r="J30" s="376"/>
+        <v>10000</v>
+      </c>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
+      <c r="C31" s="323">
         <v>7.55</v>
       </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323">
+        <v>7.2</v>
+      </c>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>5976.3910688000005</v>
       </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+        <v>5699.3398271999995</v>
+      </c>
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
-        <v>105700</v>
-      </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+        <v>37750</v>
+      </c>
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+        <v>36000</v>
+      </c>
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
-        <v>105700</v>
-      </c>
-      <c r="J33" s="329"/>
+        <v>73750</v>
+      </c>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>7.55</v>
-      </c>
-      <c r="F34" s="365"/>
+        <v>7.375</v>
+      </c>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>7.55</v>
-      </c>
-      <c r="J34" s="332"/>
+        <v>7.375</v>
+      </c>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>5976.3910688000005</v>
-      </c>
-      <c r="F35" s="377"/>
+        <v>5837.8654479999996</v>
+      </c>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>5976.3910688000005</v>
-      </c>
-      <c r="J35" s="331"/>
+        <v>5837.8654479999996</v>
+      </c>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="374">
         <f>C31</f>
         <v>7.55</v>
       </c>
-      <c r="D37" s="327"/>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
         <v>10.824669164628279</v>
       </c>
-      <c r="J37" s="325"/>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
-        <v>7.55</v>
-      </c>
-      <c r="D38" s="327"/>
+        <v>7.375</v>
+      </c>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
         <v>6.7210923719517268</v>
       </c>
-      <c r="J38" s="325"/>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11370,7 +11365,7 @@
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.43373101518255353</v>
+        <v>0.46775175113603784</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11389,7 +11384,7 @@
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-0.10978908980771829</v>
+        <v>-8.8665441091291264E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11418,7 +11413,7 @@
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.59265768655112971</v>
+        <v>0.59817212501812089</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11437,7 +11432,7 @@
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>3.9505839418304549</v>
+        <v>5.2754686085014075</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11456,7 +11451,7 @@
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.9322395795558545</v>
+        <v>2.7651717522999819</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11475,7 +11470,7 @@
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.16695371573924997</v>
+        <v>0.18877778230391062</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -12444,14 +12439,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12468,38 +12487,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12604,12 +12599,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16152,18 +16147,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16363,7 +16358,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9">
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16388,7 +16383,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9">
+    <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16413,7 +16408,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9">
+    <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16438,7 +16433,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9">
+    <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16463,7 +16458,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9">
+    <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16488,7 +16483,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9">
+    <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
         <v>349</v>
       </c>
@@ -16508,7 +16503,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9">
+    <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16527,7 +16522,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9">
+    <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16551,7 +16546,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="13.9">
+    <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16575,7 +16570,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9">
+    <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16860,7 +16855,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9">
+    <row r="33" spans="2:10" ht="14">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16889,7 +16884,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9">
+    <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16914,7 +16909,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9">
+    <row r="35" spans="2:10" ht="14">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16939,7 +16934,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9">
+    <row r="36" spans="2:10" ht="14">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16963,7 +16958,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9">
+    <row r="37" spans="2:10" ht="14">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -17007,7 +17002,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9">
+    <row r="39" spans="2:10" ht="14">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17256,14 +17251,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9">
+    <row r="51" spans="2:10" ht="14">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9">
+    <row r="52" spans="2:10" ht="14">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17278,7 +17273,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9">
+    <row r="53" spans="2:10" ht="14">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17308,7 +17303,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.25" thickBot="1">
+    <row r="55" spans="2:10" ht="14.5" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17323,12 +17318,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.25" thickTop="1">
+    <row r="56" spans="2:10" ht="14.5" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
@@ -17343,7 +17338,7 @@
         <v>0.1995079170063952</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="13.9">
+    <row r="57" spans="2:10" ht="14">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17351,7 +17346,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17367,7 +17362,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17384,7 +17379,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9">
+    <row r="60" spans="2:10" ht="14">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17419,7 +17414,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9">
+    <row r="62" spans="2:10" ht="14">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17440,16 +17435,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9">
+    <row r="63" spans="2:10" ht="14">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>4682208.8956513014</v>
       </c>
-      <c r="E63" s="376"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17561,14 +17556,14 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19223,12 +19218,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="19" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="19" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19282,7 +19277,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="13.9">
+    <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
         <v>401</v>
       </c>
@@ -19306,7 +19301,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="13.9">
+    <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
         <v>402</v>
       </c>
@@ -19330,7 +19325,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="13.9">
+    <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
         <v>403</v>
       </c>
@@ -19354,7 +19349,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="13.9">
+    <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
         <v>404</v>
       </c>
@@ -19378,7 +19373,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="13.9">
+    <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
         <v>353</v>
       </c>
@@ -19443,7 +19438,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13.15">
+    <row r="46" spans="2:13" ht="13">
       <c r="B46" s="297" t="s">
         <v>356</v>
       </c>
@@ -19536,7 +19531,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13.15">
+    <row r="71" spans="2:13" ht="13">
       <c r="B71" s="297" t="s">
         <v>366</v>
       </c>
@@ -19645,7 +19640,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13.15">
+    <row r="78" spans="2:13" ht="13">
       <c r="B78" s="297" t="s">
         <v>365</v>
       </c>
@@ -19973,18 +19968,18 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20337,7 +20332,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20360,7 +20355,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.6520653592897368E-2</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
@@ -20820,7 +20815,7 @@
       <c r="E40" s="393" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.3232404986343296</v>
@@ -21895,16 +21890,16 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21919,7 +21914,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.9">
+    <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21935,7 +21930,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.9">
+    <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21949,7 +21944,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9">
+    <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21964,7 +21959,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="13.9">
+    <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21979,7 +21974,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="13.9">
+    <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21994,7 +21989,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="13.9">
+    <row r="8" spans="1:7" ht="14">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -22009,7 +22004,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="13.9">
+    <row r="9" spans="1:7" ht="14">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086D0494-CCBD-4613-869D-A28E6F600986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36E3081-A0A3-4D83-8A01-666487EB88F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -3101,84 +3101,39 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3186,6 +3141,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3202,9 +3158,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3217,6 +3180,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3229,26 +3201,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10561,33 +10561,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>7.85</v>
+        <v>7.78</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10598,10 +10598,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>45154</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -10609,10 +10609,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>791574976</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10635,11 +10635,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
-        <v>6213.8635615999992</v>
-      </c>
-      <c r="J6" s="361"/>
+        <v>6158.4533132799997</v>
+      </c>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>2.9289346023738096E-2</v>
+        <v>2.9552874844003089E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10679,11 +10679,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.668474363680378</v>
+        <v>10.573341471265396</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.3734114730067458E-2</v>
+        <v>9.4577480800903529E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10703,41 +10703,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>1.5097682893590099</v>
+        <v>1.4963053874156813</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57952381584615553</v>
+        <v>0.57435608755198597</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10762,7 +10762,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>8.4013654649396585</v>
+        <v>8.4022261586659646</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10804,58 +10804,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>7.85</v>
-      </c>
-      <c r="C16" s="347">
+        <v>7.78</v>
+      </c>
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.178938747086405</v>
-      </c>
-      <c r="E16" s="341" t="s">
+        <v>0.19140416582665454</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>1.9011820883391566</v>
-      </c>
-      <c r="G16" s="341" t="s">
+        <v>1.9020427820654631</v>
+      </c>
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>5.9488179116608428</v>
-      </c>
-      <c r="I16" s="336">
+        <v>5.8779572179345374</v>
+      </c>
+      <c r="I16" s="367">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>2.9299363057324842E-3</v>
+        <v>2.9562982005141387E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.772880768290003</v>
-      </c>
-      <c r="C17" s="348"/>
+        <v>8.7734526685320731</v>
+      </c>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>3.3878522976690251E-2</v>
-      </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+        <v>3.3849981200454238E-2</v>
+      </c>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>6.8716986799508462</v>
-      </c>
-      <c r="I17" s="337"/>
+        <v>6.8714098864666102</v>
+      </c>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>2.6217157861229117E-3</v>
+        <v>2.6215448887636429E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10863,19 +10863,19 @@
         <f>C37</f>
         <v>7.55</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.23373101518255357</v>
-      </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+        <v>0.23379131260018204</v>
+      </c>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>5.648817911660843</v>
-      </c>
-      <c r="I18" s="338"/>
+        <v>5.647957217934537</v>
+      </c>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>3.0463576158940397E-3</v>
@@ -10913,84 +10913,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>386</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="369" t="s">
+      <c r="C24" s="321" t="s">
         <v>407</v>
       </c>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="370" t="s">
+      <c r="C25" s="322" t="s">
         <v>408</v>
       </c>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11030,214 +11030,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355">
+      <c r="C28" s="341">
         <v>45180</v>
       </c>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>5.7196969696969698E-2</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.11174242424242424</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>5000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349">
         <v>5000</v>
       </c>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>10000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>7.55</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323">
+      <c r="D31" s="339"/>
+      <c r="E31" s="363">
         <v>7.2</v>
       </c>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>5976.3910688000005</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>5699.3398271999995</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>37750</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>36000</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>73750</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>7.375</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>7.375</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>5837.8654479999996</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>5837.8654479999996</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>C31</f>
         <v>7.55</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
-        <v>10.824669164628279</v>
-      </c>
-      <c r="J37" s="373"/>
+        <v>10.825124410131373</v>
+      </c>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>7.375</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
-        <v>6.7210923719517268</v>
-      </c>
-      <c r="J38" s="373"/>
+        <v>6.7217809269327713</v>
+      </c>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11361,11 +11361,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.43373101518255353</v>
+        <v>0.433791312600182</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.46775175113603784</v>
+        <v>0.46781347933984718</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11380,11 +11380,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.10978908980771829</v>
+        <v>-0.10969789047248057</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-8.8665441091291264E-2</v>
+        <v>-8.8572077704030971E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11409,11 +11409,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.59265768655112971</v>
+        <v>0.59267283622641642</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.59817212501812089</v>
+        <v>0.59818763417722787</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11428,11 +11428,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>3.9505839418304549</v>
+        <v>3.9544179995786273</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>5.2754686085014075</v>
+        <v>5.2817263799893528</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11447,11 +11447,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>2.9322395795558545</v>
+        <v>2.931839519957486</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.7651717522999819</v>
+        <v>2.7648076199931015</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11466,11 +11466,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.16695371573924997</v>
+        <v>0.16701706956495033</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.18877778230391062</v>
+        <v>0.1888419569535949</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -12439,6 +12439,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12455,46 +12495,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -16236,11 +16236,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="193">
         <f>E49-I49-E53</f>
-        <v>1047444.0659486974</v>
+        <v>1048125.3695644415</v>
       </c>
       <c r="E6" s="149">
         <f>1-D6/D3</f>
-        <v>0.74370801610390003</v>
+        <v>0.74354131254330791</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16261,7 +16261,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.3232404986343296</v>
+        <v>1.3241011923606356</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -17283,11 +17283,11 @@
       </c>
       <c r="D53" s="54">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5097682893590099</v>
+        <v>1.4963053874156813</v>
       </c>
       <c r="E53" s="51">
         <f>MAX(C53,C53*Dashboard!I10)</f>
-        <v>76403.334051302052</v>
+        <v>75722.030435557972</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -17323,7 +17323,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
@@ -17346,7 +17346,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17362,7 +17362,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17440,11 +17440,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>4682208.8956513014</v>
-      </c>
-      <c r="E63" s="350"/>
+        <v>4626117.3437155578</v>
+      </c>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="G15" s="199">
         <f>C15+C16+C17+C18</f>
-        <v>1504928.1659486978</v>
+        <v>1505609.4695644421</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -20317,7 +20317,7 @@
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>1.9011820883391566</v>
+        <v>1.9020427820654631</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20332,7 +20332,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20349,20 +20349,20 @@
       </c>
       <c r="C18" s="51">
         <f>-Asset_Model!E53</f>
-        <v>-76403.334051302052</v>
+        <v>-75722.030435557972</v>
       </c>
       <c r="D18" s="106">
         <f>C18/(Dashboard!I5/Data!C4)</f>
-        <v>-9.6520653592897368E-2</v>
-      </c>
-      <c r="E18" s="342"/>
+        <v>-9.5659959866591301E-2</v>
+      </c>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>-1.0800655149200953</v>
+        <v>-1.0792048211937892</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20424,11 +20424,11 @@
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>11.116241982299222</v>
+        <v>11.117102676025528</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>11.116241982299222</v>
+        <v>11.117102676025528</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20449,11 +20449,11 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>20.193763668886746</v>
+        <v>20.194624362613055</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>20.193763668886746</v>
+        <v>20.194624362613055</v>
       </c>
       <c r="I23" s="43" t="s">
         <v>410</v>
@@ -20468,7 +20468,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>15.392403091088131</v>
+        <v>15.393263784814438</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20815,10 +20815,10 @@
       <c r="E40" s="393" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.3232404986343296</v>
+        <v>1.3241011923606356</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20830,7 +20830,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>0.51785495034669859</v>
+        <v>0.51871564407300463</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20859,7 +20859,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>8.4013654649396585</v>
+        <v>8.4022261586659646</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20871,11 +20871,11 @@
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.615810849207874</v>
+        <v>1.615976383997024</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.62022820032610726</v>
+        <v>0.62029174077356497</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20893,7 +20893,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-4.7699072467932009</v>
+        <v>-4.7695546806164231</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20911,7 +20911,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.824669164628279</v>
+        <v>10.825124410131373</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20919,15 +20919,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-3.6553301434093974</v>
+        <v>-3.6551640595568378</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.1228634845527439</v>
+        <v>2.1229527643302895</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.79912784452963026</v>
+        <v>0.7991614528877321</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>6.7210923719517268</v>
+        <v>6.7217809269327713</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20944,15 +20944,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-1.9743810012379883</v>
+        <v>-1.9743104880026325</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.318096780208827</v>
+        <v>1.3182318151188215</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.49618256026088575</v>
+        <v>0.49623339261885197</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36E3081-A0A3-4D83-8A01-666487EB88F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED74F849-2187-425E-A341-9F8868AB370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="181029" iterate="1" iterateDelta="9.9999999999994451E-4"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -3101,6 +3101,134 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3118,137 +3246,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10516,8 +10516,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:F33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10561,27 +10561,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10598,21 +10598,21 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>45154</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
-        <v>Patience Premium</v>
+        <v/>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>791574976</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10635,11 +10635,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
         <v>6158.4533132799997</v>
       </c>
-      <c r="J6" s="350"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10714,30 +10714,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D11" s="362"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="D12" s="360"/>
+        <v>0.08</v>
+      </c>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10762,7 +10762,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>8.4022261586659646</v>
+        <v>8.4578200662637109</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10806,28 +10806,28 @@
         <f>I4</f>
         <v>7.78</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.19140416582665454</v>
-      </c>
-      <c r="E16" s="354" t="s">
+        <v>0.1951837553029796</v>
+      </c>
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.9020427820654631</v>
       </c>
-      <c r="G16" s="354" t="s">
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>5.8779572179345374</v>
       </c>
-      <c r="I16" s="367">
+      <c r="I16" s="336">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
@@ -10838,47 +10838,47 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.7734526685320731</v>
-      </c>
-      <c r="C17" s="374"/>
+        <v>8.8103928346340759</v>
+      </c>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>3.3849981200454238E-2</v>
-      </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+        <v>3.2014260883749257E-2</v>
+      </c>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>6.8714098864666102</v>
-      </c>
-      <c r="I17" s="368"/>
+        <v>6.908350052568613</v>
+      </c>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>2.6215448887636429E-3</v>
+        <v>2.6105532899266307E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>7.55</v>
-      </c>
-      <c r="C18" s="375"/>
+        <v>7.375</v>
+      </c>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.23379131260018204</v>
-      </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+        <v>0.27180062593317711</v>
+      </c>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>5.647957217934537</v>
-      </c>
-      <c r="I18" s="369"/>
+        <v>5.4729572179345372</v>
+      </c>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>3.0463576158940397E-3</v>
+        <v>3.1186440677966102E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -10913,84 +10913,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
         <v>386</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>385</v>
       </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="321" t="s">
+      <c r="C24" s="369" t="s">
         <v>407</v>
       </c>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="370" t="s">
         <v>408</v>
       </c>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11030,214 +11030,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341">
+      <c r="C28" s="355">
         <v>45180</v>
       </c>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
-        <v>5.7196969696969698E-2</v>
-      </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+        <v>0.11174242424242424</v>
+      </c>
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
-        <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+        <v>0.10424242424242425</v>
+      </c>
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
-        <v>0.11174242424242424</v>
-      </c>
-      <c r="J29" s="370"/>
+        <v>0.2159848484848485</v>
+      </c>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
-        <v>5000</v>
-      </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349">
-        <v>5000</v>
-      </c>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="C30" s="321">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="322"/>
+      <c r="E30" s="321">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
-        <v>10000</v>
-      </c>
-      <c r="J30" s="376"/>
+        <v>20000</v>
+      </c>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
-        <v>7.55</v>
-      </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363">
-        <v>7.2</v>
-      </c>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="C31" s="323">
+        <v>7.375</v>
+      </c>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323">
+        <v>6.88</v>
+      </c>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
-        <v>5976.3910688000005</v>
-      </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+        <v>5837.8654479999996</v>
+      </c>
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
-        <v>5699.3398271999995</v>
-      </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+        <v>5446.03583488</v>
+      </c>
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
-        <v>37750</v>
-      </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+        <v>73750</v>
+      </c>
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
-        <v>36000</v>
-      </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+        <v>68800</v>
+      </c>
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
-        <v>73750</v>
-      </c>
-      <c r="J33" s="329"/>
+        <v>142550</v>
+      </c>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>7.375</v>
-      </c>
-      <c r="F34" s="365"/>
+        <v>7.1275000000000004</v>
+      </c>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>7.375</v>
-      </c>
-      <c r="J34" s="332"/>
+        <v>7.1275000000000004</v>
+      </c>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>5837.8654479999996</v>
-      </c>
-      <c r="F35" s="377"/>
+        <v>5641.9506414400003</v>
+      </c>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>5837.8654479999996</v>
-      </c>
-      <c r="J35" s="331"/>
+        <v>5641.9506414400003</v>
+      </c>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="374">
         <f>C31</f>
-        <v>7.55</v>
-      </c>
-      <c r="D37" s="327"/>
+        <v>7.375</v>
+      </c>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>10.825124410131373</v>
-      </c>
-      <c r="J37" s="325"/>
+        <v>10.854529616257182</v>
+      </c>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
-        <v>7.375</v>
-      </c>
-      <c r="D38" s="327"/>
+        <v>7.1275000000000004</v>
+      </c>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>6.7217809269327713</v>
-      </c>
-      <c r="J38" s="325"/>
+        <v>6.7662560530109683</v>
+      </c>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11361,11 +11361,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.433791312600182</v>
+        <v>0.47180062593317706</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.46781347933984718</v>
+        <v>0.52290839933457467</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11380,11 +11380,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.10969789047248057</v>
+        <v>-8.2541552134105967E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-8.8572077704030971E-2</v>
+        <v>-5.0683121289236355E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11409,11 +11409,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.59267283622641642</v>
+        <v>0.59918940139355337</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.59818763417722787</v>
+        <v>0.60748602181818012</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11428,11 +11428,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>3.9544179995786273</v>
+        <v>5.7159165745591816</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>5.2817263799893528</v>
+        <v>10.317209872502968</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11447,11 +11447,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>2.931839519957486</v>
+        <v>2.7414890363402908</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.7648076199931015</v>
+        <v>2.57204862575347</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11466,11 +11466,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.16701706956495033</v>
+        <v>0.19298547338194116</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.1888419569535949</v>
+        <v>0.22139606153843483</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -12439,14 +12439,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12463,38 +12487,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -17323,7 +17323,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
@@ -17346,7 +17346,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17362,7 +17362,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17440,11 +17440,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>4626117.3437155578</v>
       </c>
-      <c r="E63" s="376"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20207,7 +20207,7 @@
       </c>
       <c r="G10" s="149">
         <f ca="1">Dashboard!C12</f>
-        <v>9.6000000000000002E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H10" s="39"/>
       <c r="I10" s="36"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="G11" s="250">
         <f ca="1">IF(F9="",IF(E9="",1,D11),E11)*(1+G10)</f>
-        <v>1.0960000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="36"/>
@@ -20332,7 +20332,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20355,7 +20355,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.5659959866591301E-2</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
@@ -20688,7 +20688,7 @@
       </c>
       <c r="C35" s="273">
         <f>Dashboard!C31</f>
-        <v>7.55</v>
+        <v>7.375</v>
       </c>
       <c r="D35" s="149" t="str">
         <f>D10</f>
@@ -20704,7 +20704,7 @@
       </c>
       <c r="G35" s="149">
         <f ca="1">G10</f>
-        <v>9.6000000000000002E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I35" s="43"/>
     </row>
@@ -20727,7 +20727,7 @@
       </c>
       <c r="G36" s="278">
         <f ca="1">C35*G35</f>
-        <v>0.7248</v>
+        <v>0.59</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="43"/>
@@ -20754,7 +20754,7 @@
       </c>
       <c r="G37" s="275">
         <f ca="1">G34-G36</f>
-        <v>-0.77156299017820373</v>
+        <v>-0.6367629901782037</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>303</v>
@@ -20779,7 +20779,7 @@
       </c>
       <c r="G38" s="149">
         <f ca="1">IF(F34="",IF(E34="",1,D38),E38)*(1+G35)*(1+G35-C37)</f>
-        <v>0.95800451326530622</v>
+        <v>0.92673904591836742</v>
       </c>
       <c r="I38" s="43"/>
     </row>
@@ -20802,7 +20802,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-0.80538554828763098</v>
+        <v>-0.6871006385051931</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20815,7 +20815,7 @@
       <c r="E40" s="393" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.3241011923606356</v>
@@ -20830,7 +20830,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>0.51871564407300463</v>
+        <v>0.63700055385544252</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20859,7 +20859,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>8.4022261586659646</v>
+        <v>8.4578200662637109</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20867,15 +20867,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-2.6626716698353019</v>
+        <v>-2.6854446154892408</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.615976383997024</v>
+        <v>1.6266686029489517</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.62029174077356497</v>
+        <v>0.62439594376322671</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20911,7 +20911,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.825124410131373</v>
+        <v>10.854529616257182</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20919,15 +20919,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-3.6551640595568378</v>
+        <v>-3.6672093211687962</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.1229527643302895</v>
+        <v>2.1287195214838666</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.7991614528877321</v>
+        <v>0.80133228311190685</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>6.7217809269327713</v>
+        <v>6.7662560530109683</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20944,15 +20944,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-1.9743104880026325</v>
+        <v>-1.9925288445257838</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.3182318151188215</v>
+        <v>1.3269539866407747</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.49623339261885197</v>
+        <v>0.49951675501058135</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED74F849-2187-425E-A341-9F8868AB370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B296DA4-9AC7-48FE-A3A2-62EC7218114D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1" iterateDelta="9.9999999999994451E-4"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="417">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1355,111 +1355,118 @@
     <t>汽車TFT顯示屏產品和大中型顯示屏模組的龍頭</t>
   </si>
   <si>
-    <t>1. 京東方的附屬公司, 其唯一車載顯示及系統運營平台
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>ST Core-Monetary Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT Core-Monetary Asset </t>
+  </si>
+  <si>
+    <t>ST Tangible Assets</t>
+  </si>
+  <si>
+    <t>ST Non-tangible Assets</t>
+  </si>
+  <si>
+    <t>ST Noncore-Monetary Asset</t>
+  </si>
+  <si>
+    <t>LT Noncore-Monetary Asset</t>
+  </si>
+  <si>
+    <t>LT Tangible Assets</t>
+  </si>
+  <si>
+    <t>LT Non-tangible Assets</t>
+  </si>
+  <si>
+    <t>ST Debt</t>
+  </si>
+  <si>
+    <t>LT Debt</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ST Current Ratio</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>Chinese EV makers rapid expand production</t>
+  </si>
+  <si>
+    <t>下游车厂价格战导致成本压力向上游传导，公司盈利能力明显下降</t>
+  </si>
+  <si>
+    <t>2. Sentiment Trap</t>
+  </si>
+  <si>
+    <t>3 year range: 0.67 - 1.33</t>
+  </si>
+  <si>
+    <t>b). Rely on bottom-up research to uncover bargains in a pessimistic market.</t>
+  </si>
+  <si>
+    <t>a). It's our job as a value investor to catch the falling knife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCInv </t>
+  </si>
+  <si>
+    <t>FCInv = Δ PP&amp;E + D&amp;A</t>
+  </si>
+  <si>
+    <t>- D&amp;A</t>
+  </si>
+  <si>
+    <t>1. 京東方被美國制裁，多方面受制，難以開拓海外市場
+2. 電子元器件因制裁導致短缺
+3. 原材料及耗用品價格上升</t>
+  </si>
+  <si>
+    <t>1. 液晶面板价格21年上半年后转入了下行周期
+2. 下游车厂打价格战
+3. 原材料及耗用品价格上升</t>
+  </si>
+  <si>
+    <t>COGS went up due to higher material cost</t>
+  </si>
+  <si>
+    <t>1. 因制裁導業務受阻的可能性較低，關鍵零件國產率較高
+2. 主要竞争对手为深天马、TCL华星
+3. 根据“王氏定律”，每三年，液晶显示面板价格会下降50</t>
+  </si>
+  <si>
+    <t>1. 背靠京东方集团，获得充沛面板生产资源及技术支持
 2. 呎吋大於8英吋的TFT-LCD顯示屏，取得了市場佔有率第一位
-3. 建立強大的客戶網絡，並獲得主要汽車製造商的量產項目</t>
-  </si>
-  <si>
-    <t>1. 京東方被美國制裁，多方面受制，難以開拓海外市場
-2. 電子元器件因制裁導致短缺，或材料成本上漲</t>
-  </si>
-  <si>
-    <t>1. 因制裁導業務受阻的可能性較低，關鍵零件國產率較高
-2. 國内經濟下行
-3. 根据“王氏定律”，每三年，液晶显示面板价格会下降50</t>
-  </si>
-  <si>
-    <t>1. 預期汽車智能座艙顯示屏增長空間大
-2. 目前液晶屏板价格上涨，高于成本价</t>
-  </si>
-  <si>
-    <t>P/S</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>ST Core-Monetary Asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT Core-Monetary Asset </t>
-  </si>
-  <si>
-    <t>ST Tangible Assets</t>
-  </si>
-  <si>
-    <t>ST Non-tangible Assets</t>
-  </si>
-  <si>
-    <t>ST Noncore-Monetary Asset</t>
-  </si>
-  <si>
-    <t>LT Noncore-Monetary Asset</t>
-  </si>
-  <si>
-    <t>LT Tangible Assets</t>
-  </si>
-  <si>
-    <t>LT Non-tangible Assets</t>
-  </si>
-  <si>
-    <t>ST Debt</t>
-  </si>
-  <si>
-    <t>LT Debt</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>ST Current Ratio</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>Chinese EV makers rapid expand production</t>
-  </si>
-  <si>
-    <t>下游车厂价格战导致成本压力向上游传导，公司盈利能力明显下降</t>
-  </si>
-  <si>
-    <t>1. 液晶面板价格21年上半年后转入了下行周期
-2. 下游车厂打价格战</t>
-  </si>
-  <si>
-    <t>1. 价格逐渐回升
-2. No. 未来需求走势不可预测</t>
-  </si>
-  <si>
-    <t>2. Sentiment Trap</t>
-  </si>
-  <si>
-    <t>3 year range: 0.67 - 1.33</t>
-  </si>
-  <si>
-    <t>b). Rely on bottom-up research to uncover bargains in a pessimistic market.</t>
-  </si>
-  <si>
-    <t>a). It's our job as a value investor to catch the falling knife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCInv </t>
-  </si>
-  <si>
-    <t>FCInv = Δ PP&amp;E + D&amp;A</t>
-  </si>
-  <si>
-    <t>- D&amp;A</t>
+3. 強大的客戶網絡，並獲得主要汽車製造商的量產項目</t>
+  </si>
+  <si>
+    <t>1. 电动化率提升、座舱升级、多屏化
+2. 大屏化及高清化趋势继续快速增长
+3. 产能稳步扩张，高世代产能率先释放利于大尺寸面板出货</t>
+  </si>
+  <si>
+    <t>1. Uncertain.
+2. Uncertain
+3. Uncertain</t>
   </si>
 </sst>
 </file>
@@ -3101,84 +3108,39 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3186,6 +3148,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3202,9 +3165,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3217,6 +3187,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3229,26 +3208,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10309,6 +10316,67 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176356</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>824345</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB4A089-41A4-15C0-6738-D1E3B6657AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10361612" y="4283264"/>
+          <a:ext cx="4198216" cy="2978681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10516,8 +10584,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10561,33 +10629,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>7.78</v>
+        <v>6.82</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10598,10 +10666,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>45154</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10609,10 +10677,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>791574976</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10635,11 +10703,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
-        <v>6158.4533132799997</v>
-      </c>
-      <c r="J6" s="361"/>
+        <v>5398.5413363200005</v>
+      </c>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10648,7 +10716,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>2.9552874844003089E-2</v>
+        <v>3.3712810305915546E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10679,11 +10747,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.573341471265396</v>
+        <v>9.2686618038598958</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.4577480800903529E-2</v>
+        <v>0.10789043997522427</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10703,41 +10771,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>1.4963053874156813</v>
+        <v>1.3116713036214585</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.57435608755198597</v>
+        <v>0.50348438523194661</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10762,7 +10830,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>8.4578200662637109</v>
+        <v>7.3450236174208916</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10804,81 +10872,81 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>7.78</v>
-      </c>
-      <c r="C16" s="347">
+        <v>6.82</v>
+      </c>
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.1951837553029796</v>
-      </c>
-      <c r="E16" s="341" t="s">
+        <v>0.30526976250439319</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>1.9020427820654631</v>
-      </c>
-      <c r="G16" s="341" t="s">
+        <v>1.9138465817405177</v>
+      </c>
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>5.8779572179345374</v>
-      </c>
-      <c r="I16" s="336">
+        <v>4.9061534182594828</v>
+      </c>
+      <c r="I16" s="367">
         <v>2.3E-2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>2.9562982005141387E-3</v>
+        <v>3.3724340175953077E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.8103928346340759</v>
-      </c>
-      <c r="C17" s="348"/>
+        <v>8.0709793371083371</v>
+      </c>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>3.2014260883749257E-2</v>
-      </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+        <v>7.1957138222340289E-2</v>
+      </c>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>6.908350052568613</v>
-      </c>
-      <c r="I17" s="337"/>
+        <v>6.1571327553678197</v>
+      </c>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>2.6105532899266307E-3</v>
+        <v>2.8497161297702466E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>7.375</v>
-      </c>
-      <c r="C18" s="349"/>
+        <v>5.84</v>
+      </c>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.27180062593317711</v>
-      </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+        <v>0.55786640073287019</v>
+      </c>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>5.4729572179345372</v>
-      </c>
-      <c r="I18" s="338"/>
+        <v>3.9261534182594824</v>
+      </c>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>3.1186440677966102E-3</v>
+        <v>3.9383561643835619E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -10913,84 +10981,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
-        <v>383</v>
-      </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
-        <v>384</v>
-      </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="C22" s="358" t="s">
+        <v>414</v>
+      </c>
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
+        <v>410</v>
+      </c>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
-        <v>386</v>
-      </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
-        <v>385</v>
-      </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="C23" s="346" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
+        <v>413</v>
+      </c>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="369" t="s">
-        <v>407</v>
-      </c>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="C24" s="321" t="s">
+        <v>411</v>
+      </c>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="370" t="s">
-        <v>408</v>
-      </c>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="C25" s="322" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11030,214 +11098,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355">
+      <c r="C28" s="341">
         <v>45180</v>
       </c>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>0.11174242424242424</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
-        <v>0.10424242424242425</v>
-      </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+        <v>8.8484848484848486E-2</v>
+      </c>
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
-        <v>0.2159848484848485</v>
-      </c>
-      <c r="J29" s="344"/>
+        <v>0.20022727272727273</v>
+      </c>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>10000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349">
         <v>10000</v>
       </c>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>20000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>7.375</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323">
-        <v>6.88</v>
-      </c>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="D31" s="339"/>
+      <c r="E31" s="363">
+        <v>5.84</v>
+      </c>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>5837.8654479999996</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
-        <v>5446.03583488</v>
-      </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+        <v>4622.7978598400005</v>
+      </c>
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>73750</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
-        <v>68800</v>
-      </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+        <v>58400</v>
+      </c>
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
-        <v>142550</v>
-      </c>
-      <c r="J33" s="326"/>
+        <v>132150</v>
+      </c>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>7.1275000000000004</v>
-      </c>
-      <c r="F34" s="329"/>
+        <v>6.6074999999999999</v>
+      </c>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>7.1275000000000004</v>
-      </c>
-      <c r="J34" s="328"/>
+        <v>6.6074999999999999</v>
+      </c>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>5641.9506414400003</v>
-      </c>
-      <c r="F35" s="325"/>
+        <v>5230.3316539200005</v>
+      </c>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>5641.9506414400003</v>
-      </c>
-      <c r="J35" s="324"/>
+        <v>5230.3316539200005</v>
+      </c>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="374">
-        <f>C31</f>
-        <v>7.375</v>
-      </c>
-      <c r="D37" s="375"/>
+      <c r="C37" s="326">
+        <f>E31</f>
+        <v>5.84</v>
+      </c>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>316</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
-        <v>10.854529616257182</v>
-      </c>
-      <c r="J37" s="373"/>
+        <v>10.265939780279961</v>
+      </c>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
-        <v>7.1275000000000004</v>
-      </c>
-      <c r="D38" s="375"/>
+        <v>6.6074999999999999</v>
+      </c>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
-        <v>6.7662560530109683</v>
-      </c>
-      <c r="J38" s="373"/>
+        <v>5.8760188939367133</v>
+      </c>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11361,11 +11429,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.47180062593317706</v>
+        <v>0.39199183461423193</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.52290839933457467</v>
+        <v>0.55367987594097023</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11380,11 +11448,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-8.2541552134105967E-2</v>
+        <v>-0.20325167539841171</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-5.0683121289236355E-2</v>
+        <v>-0.11070466985445127</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11409,11 +11477,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.59918940139355337</v>
+        <v>0.57913750993522828</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.60748602181818012</v>
+        <v>0.60456101462229817</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11428,11 +11496,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>5.7159165745591816</v>
+        <v>1.9286032149346559</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>10.317209872502968</v>
+        <v>5.0014139120682053</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11447,11 +11515,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>2.7414890363402908</v>
+        <v>3.2983129108439186</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.57204862575347</v>
+        <v>2.6090425538711726</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11466,11 +11534,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.19298547338194116</v>
+        <v>0.10942446078587625</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.22139606153843483</v>
+        <v>0.2014131870262755</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -11521,17 +11589,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12439,6 +12507,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12455,46 +12563,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12596,7 +12664,7 @@
   <dimension ref="A1:N949"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -13662,7 +13730,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C33" s="161">
         <v>1176000</v>
@@ -16144,7 +16212,7 @@
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -16236,11 +16304,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="193">
         <f>E49-I49-E53</f>
-        <v>1048125.3695644415</v>
+        <v>1057468.9620089319</v>
       </c>
       <c r="E6" s="149">
         <f>1-D6/D3</f>
-        <v>0.74354131254330791</v>
+        <v>0.74125509228376019</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16261,7 +16329,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.3241011923606356</v>
+        <v>1.3359049920356905</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -16300,7 +16368,7 @@
         <v>45107</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16613,7 +16681,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16621,7 +16689,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16641,7 +16709,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16650,7 +16718,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16670,7 +16738,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16679,7 +16747,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16712,7 +16780,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -17089,7 +17157,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17106,7 +17174,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17115,7 +17183,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17134,7 +17202,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17164,7 +17232,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17283,11 +17351,11 @@
       </c>
       <c r="D53" s="54">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.4963053874156813</v>
+        <v>1.3116713036214582</v>
       </c>
       <c r="E53" s="51">
         <f>MAX(C53,C53*Dashboard!I10)</f>
-        <v>75722.030435557972</v>
+        <v>66378.43799106752</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -17323,7 +17391,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>805276</v>
       </c>
@@ -17346,7 +17414,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17362,7 +17430,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17440,11 +17508,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>4626117.3437155578</v>
-      </c>
-      <c r="E63" s="350"/>
+        <v>3856861.7743110685</v>
+      </c>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17553,7 +17621,7 @@
   <dimension ref="A1:L880"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -17636,7 +17704,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C4" s="205">
         <v>1600216</v>
@@ -17658,13 +17726,13 @@
       <c r="I4" s="206"/>
       <c r="J4" s="6"/>
       <c r="K4" s="43" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C5" s="196">
         <v>1306273</v>
@@ -17690,7 +17758,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C6" s="196">
         <v>204561</v>
@@ -17716,7 +17784,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C7" s="196">
         <v>127850</v>
@@ -17844,8 +17912,8 @@
         <v>10136404</v>
       </c>
       <c r="G11" s="203">
-        <f>(4650060+403099+85721)*2</f>
-        <v>10277760</v>
+        <f>G9*(1-G12)</f>
+        <v>10451693.1072</v>
       </c>
       <c r="H11" s="204" t="str">
         <f>IF(H9="","",H9*(1-H12))</f>
@@ -17856,7 +17924,9 @@
         <v/>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="77"/>
+      <c r="K11" s="77" t="s">
+        <v>412</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
@@ -17880,8 +17950,7 @@
         <v>5.4648132067181845E-2</v>
       </c>
       <c r="G12" s="208">
-        <f>(G9-G11)/G9</f>
-        <v>5.5975955397788456E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H12" s="208"/>
       <c r="I12" s="208"/>
@@ -17910,7 +17979,7 @@
       </c>
       <c r="G13" s="51">
         <f>G9-G11</f>
-        <v>609420.3200000003</v>
+        <v>435487.21279999986</v>
       </c>
       <c r="H13" s="51" t="str">
         <f>IF(H10="","",H9-H11)</f>
@@ -18003,7 +18072,7 @@
       </c>
       <c r="G16" s="166">
         <f>G18/G9</f>
-        <v>1.7782778856371535E-2</v>
+        <v>1.8068234585830634E-3</v>
       </c>
       <c r="H16" s="166" t="str">
         <f>IF(H10="","",H18/H9)</f>
@@ -18036,7 +18105,7 @@
       </c>
       <c r="G17" s="149">
         <f>IF(ABS(F18+G18)=ABS(F18)+ABS(G18),IF(G18&lt;0,-1,1)*(G18-F18)/F18,"Turn")</f>
-        <v>0.36890560701407266</v>
+        <v>-0.86091202149473334</v>
       </c>
       <c r="H17" s="149" t="str">
         <f>IF(H10="","",IF(ABS(G18+H18)=ABS(G18)+ABS(H18),IF(H18&lt;0,-1,1)*(H18-G18)/G18,"Turn"))</f>
@@ -18072,7 +18141,7 @@
       </c>
       <c r="G18" s="154">
         <f>G13-G15</f>
-        <v>193604.3200000003</v>
+        <v>19671.212799999863</v>
       </c>
       <c r="H18" s="154" t="str">
         <f>IF(H10="","",H13-H15)</f>
@@ -18123,7 +18192,7 @@
       </c>
       <c r="G20" s="149">
         <f>G21/G9</f>
-        <v>1.3337084142278651E-2</v>
+        <v>1.3551175939372974E-3</v>
       </c>
       <c r="H20" s="149" t="str">
         <f>IF(H9="","",H21/H9)</f>
@@ -18147,7 +18216,7 @@
       </c>
       <c r="G21" s="210">
         <f>IF(G18="","",IF(G18&lt;=0,G18,G18*(1-G19)))</f>
-        <v>145203.24000000022</v>
+        <v>14753.409599999897</v>
       </c>
       <c r="H21" s="210" t="str">
         <f>IF(H18="","",IF(H18&lt;=0,H18,H18*(1-H19)))</f>
@@ -18184,7 +18253,7 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="318" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C23" s="319"/>
       <c r="D23" s="319">
@@ -18205,7 +18274,7 @@
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1">
       <c r="B24" s="14" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C24" s="288"/>
       <c r="D24" s="288"/>
@@ -18275,7 +18344,7 @@
       </c>
       <c r="G27" s="214">
         <f>G21-G25</f>
-        <v>-10442.304827999877</v>
+        <v>-140892.1352280002</v>
       </c>
       <c r="H27" s="214" t="str">
         <f>IF(H21="","",H21-H25)</f>
@@ -19215,7 +19284,7 @@
   <dimension ref="B18:S125"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P98" sqref="P98"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -19279,7 +19348,7 @@
     </row>
     <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19303,7 +19372,7 @@
     </row>
     <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19327,7 +19396,7 @@
     </row>
     <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19351,7 +19420,7 @@
     </row>
     <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19968,8 +20037,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -20065,7 +20134,7 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="47" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J4" s="35"/>
     </row>
@@ -20144,7 +20213,7 @@
       </c>
       <c r="D8" s="210">
         <f>Projections!G21-D7</f>
-        <v>-10442.304827999877</v>
+        <v>-140892.1352280002</v>
       </c>
       <c r="E8" s="210" t="str">
         <f>IF(E4="","",Projections!H21-E7)</f>
@@ -20170,7 +20239,7 @@
       </c>
       <c r="D9" s="248">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>-1.319180765512208E-2</v>
+        <v>-0.17798962764078105</v>
       </c>
       <c r="E9" s="248" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
@@ -20182,7 +20251,7 @@
       </c>
       <c r="G9" s="249">
         <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Common_Shares</f>
-        <v>-1.319180765512208E-2</v>
+        <v>-0.17798962764078105</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="35"/>
@@ -20297,7 +20366,7 @@
       </c>
       <c r="G15" s="199">
         <f>C15+C16+C17+C18</f>
-        <v>1505609.4695644421</v>
+        <v>1514953.0620089325</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -20317,7 +20386,7 @@
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>1.9020427820654631</v>
+        <v>1.9138465817405177</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20332,7 +20401,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.0173085613055055</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20349,20 +20418,20 @@
       </c>
       <c r="C18" s="51">
         <f>-Asset_Model!E53</f>
-        <v>-75722.030435557972</v>
+        <v>-66378.43799106752</v>
       </c>
       <c r="D18" s="106">
         <f>C18/(Dashboard!I5/Data!C4)</f>
-        <v>-9.5659959866591301E-2</v>
-      </c>
-      <c r="E18" s="342"/>
+        <v>-8.3856160191536314E-2</v>
+      </c>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>2.9812476032592521</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>-1.0792048211937892</v>
+        <v>-1.0674010215187344</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20389,7 +20458,7 @@
         <v>TV after Year 1</v>
       </c>
       <c r="C21" s="265" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>326</v>
@@ -20412,25 +20481,27 @@
         <v>248</v>
       </c>
       <c r="C22" s="267">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="D22" s="268">
         <f>C22*D4*Data!C4/Common_Shares</f>
-        <v>9.2150598939600652</v>
+        <v>5.5015282949015321</v>
       </c>
       <c r="E22" s="239">
         <f>IF(D22="",IF(G9&lt;0,G9,G9*C22/G11),D22)</f>
-        <v>9.2150598939600652</v>
+        <v>5.5015282949015321</v>
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>11.117102676025528</v>
+        <v>7.4153748766420495</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>11.117102676025528</v>
-      </c>
-      <c r="I22" s="43"/>
+        <v>7.4153748766420495</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="B23" s="132" t="s">
@@ -20449,15 +20520,13 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>20.194624362613055</v>
+        <v>20.206428162288109</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>20.194624362613055</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>410</v>
-      </c>
+        <v>20.206428162288109</v>
+      </c>
+      <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="15.5" customHeight="1">
       <c r="C24" s="6"/>
@@ -20468,7 +20537,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>15.393263784814438</v>
+        <v>13.440874620844603</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20535,7 +20604,7 @@
       </c>
       <c r="D28" s="51">
         <f>D8</f>
-        <v>-10442.304827999877</v>
+        <v>-140892.1352280002</v>
       </c>
       <c r="E28" s="51" t="str">
         <f>E8</f>
@@ -20640,7 +20709,7 @@
       </c>
       <c r="D33" s="210">
         <f>D28-D32</f>
-        <v>-37016.412827999884</v>
+        <v>-167466.24322800021</v>
       </c>
       <c r="E33" s="210" t="str">
         <f>IF(E28="","",E28-E32)</f>
@@ -20665,7 +20734,7 @@
       </c>
       <c r="D34" s="245">
         <f>D33/(Common_Shares/Data!$C$4)</f>
-        <v>-4.6762990178203769E-2</v>
+        <v>-0.21156081016386274</v>
       </c>
       <c r="E34" s="245" t="str">
         <f>IF(E33="","",E33/(Common_Shares/Data!$C$4))</f>
@@ -20677,7 +20746,7 @@
       </c>
       <c r="G34" s="139">
         <f>INDEX(D34:F34,Projections!E2)</f>
-        <v>-4.6762990178203769E-2</v>
+        <v>-0.21156081016386274</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="43"/>
@@ -20754,7 +20823,7 @@
       </c>
       <c r="G37" s="275">
         <f ca="1">G34-G36</f>
-        <v>-0.6367629901782037</v>
+        <v>-0.80156081016386271</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>303</v>
@@ -20802,7 +20871,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-0.6871006385051931</v>
+        <v>-0.86492612315643047</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20815,10 +20884,10 @@
       <c r="E40" s="393" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.3241011923606356</v>
+        <v>1.3359049920356905</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20830,7 +20899,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>0.63700055385544252</v>
+        <v>0.47097886887925999</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20859,7 +20928,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>8.4578200662637109</v>
+        <v>7.3450236174208916</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20867,15 +20936,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-2.6854446154892408</v>
+        <v>-2.2247743469553201</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.6266686029489517</v>
+        <v>1.4126476104681613</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.62439594376322671</v>
+        <v>0.54224409098699211</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20893,7 +20962,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-4.7695546806164231</v>
+        <v>-4.7647194873349044</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20911,7 +20980,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.854529616257182</v>
+        <v>10.265939780279961</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20919,15 +20988,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-3.6672093211687962</v>
+        <v>-3.4212699327269882</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.1287195214838666</v>
+        <v>2.0132891234576706</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.80133228311190685</v>
+        <v>0.75787982098276263</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20936,7 +21005,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>6.7662560530109683</v>
+        <v>5.8760188939367133</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20944,15 +21013,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-1.9925288445257838</v>
+        <v>-1.6230255910423432</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.3269539866407747</v>
+        <v>1.1523664838867718</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.49951675501058135</v>
+        <v>0.43379527278959368</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21863,7 +21932,7 @@
       <formula>LEN(TRIM(G28))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{B6E9FFE5-BFA5-4858-88BE-381E3175A48C}">
       <formula1>"P/E, P/S, P/D, P/FCFF"</formula1>
     </dataValidation>

--- a/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0710.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B296DA4-9AC7-48FE-A3A2-62EC7218114D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCF2BAC-8727-40A0-A9B4-D1753999E5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -10584,8 +10584,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:F35"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10830,7 +10830,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>7.3450236174208916</v>
+        <v>7.5378055194082609</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.30526976250439319</v>
+        <v>0.32022106104038439</v>
       </c>
       <c r="E16" s="354" t="s">
         <v>21</v>
@@ -10906,47 +10906,47 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>8.0709793371083371</v>
+        <v>8.1990760259110154</v>
       </c>
       <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>7.1957138222340289E-2</v>
+        <v>6.4521466020120766E-2</v>
       </c>
       <c r="E17" s="355"/>
       <c r="F17" s="352"/>
       <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>6.1571327553678197</v>
+        <v>6.2852294441704979</v>
       </c>
       <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>2.8497161297702466E-3</v>
+        <v>2.8051941374021378E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>5.84</v>
+        <v>6.04</v>
       </c>
       <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.55786640073287019</v>
+        <v>0.51654099938665943</v>
       </c>
       <c r="E18" s="356"/>
       <c r="F18" s="353"/>
       <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>3.9261534182594824</v>
+        <v>4.1261534182594826</v>
       </c>
       <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>3.9383561643835619E-3</v>
+        <v>3.8079470198675498E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -11125,7 +11125,7 @@
       <c r="D29" s="365"/>
       <c r="E29" s="364">
         <f>E33/D27</f>
-        <v>8.8484848484848486E-2</v>
+        <v>9.1515151515151522E-2</v>
       </c>
       <c r="F29" s="365"/>
       <c r="G29" s="371">
@@ -11135,7 +11135,7 @@
       <c r="H29" s="371"/>
       <c r="I29" s="370">
         <f>C29+E29+G29</f>
-        <v>0.20022727272727273</v>
+        <v>0.20325757575757575</v>
       </c>
       <c r="J29" s="370"/>
     </row>
@@ -11168,7 +11168,7 @@
       </c>
       <c r="D31" s="339"/>
       <c r="E31" s="363">
-        <v>5.84</v>
+        <v>6.04</v>
       </c>
       <c r="F31" s="339"/>
       <c r="G31" s="363"/>
@@ -11187,7 +11187,7 @@
       <c r="D32" s="365"/>
       <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
-        <v>4622.7978598400005</v>
+        <v>4781.1128550399999</v>
       </c>
       <c r="F32" s="365"/>
       <c r="G32" s="328">
@@ -11209,7 +11209,7 @@
       <c r="D33" s="378"/>
       <c r="E33" s="329">
         <f>E30*E31</f>
-        <v>58400</v>
+        <v>60400</v>
       </c>
       <c r="F33" s="378"/>
       <c r="G33" s="329">
@@ -11219,7 +11219,7 @@
       <c r="H33" s="329"/>
       <c r="I33" s="329">
         <f>C33+E33+G33</f>
-        <v>132150</v>
+        <v>134150</v>
       </c>
       <c r="J33" s="329"/>
     </row>
@@ -11231,14 +11231,14 @@
       <c r="D34" s="333"/>
       <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>6.6074999999999999</v>
+        <v>6.7074999999999996</v>
       </c>
       <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
       <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>6.6074999999999999</v>
+        <v>6.7074999999999996</v>
       </c>
       <c r="J34" s="332"/>
     </row>
@@ -11250,14 +11250,14 @@
       <c r="D35" s="335"/>
       <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>5230.3316539200005</v>
+        <v>5309.4891515199997</v>
       </c>
       <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
       <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>5230.3316539200005</v>
+        <v>5309.4891515199997</v>
       </c>
       <c r="J35" s="331"/>
     </row>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="C37" s="326">
         <f>E31</f>
-        <v>5.84</v>
+        <v>6.04</v>
       </c>
       <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
@@ -11282,7 +11282,7 @@
       <c r="H37" s="323"/>
       <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
-        <v>10.265939780279961</v>
+        <v>10.367907636295422</v>
       </c>
       <c r="J37" s="325"/>
     </row>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="C38" s="326">
         <f>E34</f>
-        <v>6.6074999999999999</v>
+        <v>6.7074999999999996</v>
       </c>
       <c r="D38" s="327"/>
       <c r="E38" s="6"/>
@@ -11303,7 +11303,7 @@
       <c r="H38" s="323"/>
       <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
-        <v>5.8760188939367133</v>
+        <v>6.0302444155266084</v>
       </c>
       <c r="J38" s="325"/>
     </row>
@@ -11429,11 +11429,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.39199183461423193</v>
+        <v>0.40581798458243012</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.55367987594097023</v>
+        <v>0.54571861890352924</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11448,11 +11448,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.20325167539841171</v>
+        <v>-0.18233974026757849</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-0.11070466985445127</v>
+        <v>-0.10096989705156778</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11477,11 +11477,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.57913750993522828</v>
+        <v>0.58261131844513137</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.60456101462229817</v>
+        <v>0.60473836619884236</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11496,11 +11496,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>1.9286032149346559</v>
+        <v>2.2256145807101815</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>5.0014139120682053</v>
+        <v>5.404765527539535</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11515,11 +11515,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>3.2983129108439186</v>
+        <v>3.1862001291790896</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.6090425538711726</v>
+        <v>2.6067499929016682</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11534,11 +11534,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.10942446078587625</v>
+        <v>0.12399494222813713</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.2014131870262755</v>
+        <v>0.20393451930940482</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>274</v>
@@ -20037,8 +20037,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -20481,23 +20481,23 @@
         <v>248</v>
       </c>
       <c r="C22" s="267">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="D22" s="268">
         <f>C22*D4*Data!C4/Common_Shares</f>
-        <v>5.5015282949015321</v>
+        <v>6.1892193317642219</v>
       </c>
       <c r="E22" s="239">
         <f>IF(D22="",IF(G9&lt;0,G9,G9*C22/G11),D22)</f>
-        <v>5.5015282949015321</v>
+        <v>6.1892193317642219</v>
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>7.4153748766420495</v>
+        <v>8.1030659135047394</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>7.4153748766420495</v>
+        <v>8.1030659135047394</v>
       </c>
       <c r="I22" s="43" t="s">
         <v>404</v>
@@ -20537,7 +20537,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>13.440874620844603</v>
+        <v>13.80461405855662</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20928,7 +20928,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>7.3450236174208916</v>
+        <v>7.5378055194082609</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20936,15 +20936,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-2.2247743469553201</v>
+        <v>-2.3037436435334095</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.4126476104681613</v>
+        <v>1.449724808223938</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.54224409098699211</v>
+        <v>0.55647615512276283</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20980,7 +20980,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>10.265939780279961</v>
+        <v>10.367907636295422</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20988,15 +20988,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-3.4212699327269882</v>
+        <v>-3.4630390499527564</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>2.0132891234576706</v>
+        <v>2.0332863940292918</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.75787982098276263</v>
+        <v>0.76540756633457552</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -21005,7 +21005,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>5.8760188939367133</v>
+        <v>6.0302444155266084</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -21013,15 +21013,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-1.6230255910423432</v>
+        <v>-1.686201028304815</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.1523664838867718</v>
+        <v>1.1826121868445243</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>0.43379527278959368</v>
+        <v>0.4451809240982102</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21955,7 +21955,7 @@
   </sheetPr>
   <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
